--- a/word_features/季/ENG,2020-1~2020-4,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-1~2020-4,主题_词矩阵.xlsx
@@ -19,31 +19,31 @@
     <t>abroad</t>
   </si>
   <si>
-    <t>actions</t>
-  </si>
-  <si>
-    <t>actively</t>
-  </si>
-  <si>
-    <t>africa</t>
-  </si>
-  <si>
-    <t>april</t>
+    <t>academy</t>
+  </si>
+  <si>
+    <t>accounting</t>
+  </si>
+  <si>
+    <t>activated</t>
+  </si>
+  <si>
+    <t>addition</t>
+  </si>
+  <si>
+    <t>allocation</t>
+  </si>
+  <si>
+    <t>applauded</t>
   </si>
   <si>
     <t>assistance</t>
   </si>
   <si>
-    <t>bring</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>calls</t>
-  </si>
-  <si>
-    <t>center</t>
+    <t>beds</t>
+  </si>
+  <si>
+    <t>cambodia</t>
   </si>
   <si>
     <t>central</t>
@@ -52,178 +52,166 @@
     <t>centralized</t>
   </si>
   <si>
+    <t>chances</t>
+  </si>
+  <si>
     <t>characteristics</t>
   </si>
   <si>
+    <t>chen</t>
+  </si>
+  <si>
     <t>china</t>
   </si>
   <si>
-    <t>chinas</t>
-  </si>
-  <si>
     <t>chinese</t>
   </si>
   <si>
-    <t>close</t>
+    <t>chunlan</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>citys</t>
+  </si>
+  <si>
+    <t>collectivism</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>commission</t>
   </si>
   <si>
     <t>committee</t>
   </si>
   <si>
+    <t>communities</t>
+  </si>
+  <si>
     <t>community</t>
   </si>
   <si>
-    <t>comprehensive</t>
+    <t>compatriots</t>
   </si>
   <si>
     <t>comrade</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>consensus</t>
+    <t>confirmed</t>
   </si>
   <si>
     <t>consular</t>
   </si>
   <si>
-    <t>containment</t>
-  </si>
-  <si>
     <t>control</t>
   </si>
   <si>
     <t>cooperation</t>
   </si>
   <si>
-    <t>coordination</t>
-  </si>
-  <si>
     <t>core</t>
   </si>
   <si>
     <t>countries</t>
   </si>
   <si>
-    <t>covid</t>
+    <t>countrys</t>
+  </si>
+  <si>
+    <t>courageous</t>
   </si>
   <si>
     <t>cpc</t>
   </si>
   <si>
+    <t>daily</t>
+  </si>
+  <si>
     <t>defeat</t>
   </si>
   <si>
+    <t>designated</t>
+  </si>
+  <si>
     <t>diplomacy</t>
   </si>
   <si>
     <t>diplomatic</t>
   </si>
   <si>
-    <t>domestic</t>
-  </si>
-  <si>
-    <t>economy</t>
-  </si>
-  <si>
-    <t>efforts</t>
-  </si>
-  <si>
-    <t>experts</t>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>editions</t>
+  </si>
+  <si>
+    <t>engage</t>
+  </si>
+  <si>
+    <t>ensured</t>
+  </si>
+  <si>
+    <t>experienced</t>
   </si>
   <si>
     <t>external</t>
   </si>
   <si>
-    <t>fellow</t>
+    <t>faced</t>
+  </si>
+  <si>
+    <t>fangcang</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>festival</t>
   </si>
   <si>
     <t>fierce</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>fighting</t>
   </si>
   <si>
-    <t>firmly</t>
-  </si>
-  <si>
-    <t>flights</t>
-  </si>
-  <si>
-    <t>foreign</t>
-  </si>
-  <si>
-    <t>france</t>
-  </si>
-  <si>
-    <t>friendship</t>
-  </si>
-  <si>
     <t>front</t>
   </si>
   <si>
-    <t>frontline</t>
-  </si>
-  <si>
-    <t>fulfill</t>
-  </si>
-  <si>
-    <t>future</t>
-  </si>
-  <si>
-    <t>geneva</t>
-  </si>
-  <si>
-    <t>germany</t>
-  </si>
-  <si>
-    <t>ghebreyesus</t>
-  </si>
-  <si>
     <t>global</t>
   </si>
   <si>
-    <t>governance</t>
-  </si>
-  <si>
-    <t>government</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
     <t>hardhit</t>
   </si>
   <si>
-    <t>health</t>
+    <t>headed</t>
   </si>
   <si>
     <t>heart</t>
   </si>
   <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>historical</t>
   </si>
   <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>human</t>
-  </si>
-  <si>
-    <t>including</t>
-  </si>
-  <si>
-    <t>industrial</t>
-  </si>
-  <si>
-    <t>infectious</t>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>hu</t>
+  </si>
+  <si>
+    <t>hubei</t>
+  </si>
+  <si>
+    <t>huoshenshan</t>
+  </si>
+  <si>
+    <t>imported</t>
   </si>
   <si>
     <t>instructed</t>
@@ -235,115 +223,94 @@
     <t>international</t>
   </si>
   <si>
-    <t>iran</t>
-  </si>
-  <si>
-    <t>italy</t>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>jan</t>
   </si>
   <si>
     <t>jinping</t>
   </si>
   <si>
-    <t>joint</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>launching</t>
-  </si>
-  <si>
-    <t>leaders</t>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>lai</t>
   </si>
   <si>
     <t>leadership</t>
   </si>
   <si>
-    <t>macroeconomic</t>
+    <t>local</t>
+  </si>
+  <si>
+    <t>lockdown</t>
+  </si>
+  <si>
+    <t>mainland</t>
   </si>
   <si>
     <t>major</t>
   </si>
   <si>
+    <t>makeshift</t>
+  </si>
+  <si>
     <t>mankind</t>
   </si>
   <si>
+    <t>measure</t>
+  </si>
+  <si>
     <t>mechanism</t>
   </si>
   <si>
     <t>medical</t>
   </si>
   <si>
-    <t>meeting</t>
-  </si>
-  <si>
-    <t>minister</t>
-  </si>
-  <si>
-    <t>ministers</t>
+    <t>mental</t>
   </si>
   <si>
     <t>missions</t>
   </si>
   <si>
-    <t>mobilized</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>multilateralism</t>
+    <t>nation</t>
   </si>
   <si>
     <t>nationalities</t>
   </si>
   <si>
-    <t>nationals</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>neighboring</t>
-  </si>
-  <si>
-    <t>offered</t>
-  </si>
-  <si>
-    <t>online</t>
+    <t>nongovernment</t>
+  </si>
+  <si>
+    <t>normalcy</t>
+  </si>
+  <si>
+    <t>notion</t>
+  </si>
+  <si>
+    <t>official</t>
   </si>
   <si>
     <t>organizations</t>
   </si>
   <si>
+    <t>outbound</t>
+  </si>
+  <si>
     <t>outbreak</t>
   </si>
   <si>
     <t>outbreakrelated</t>
   </si>
   <si>
-    <t>overseas</t>
-  </si>
-  <si>
-    <t>pakistan</t>
-  </si>
-  <si>
-    <t>parties</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>peoples</t>
-  </si>
-  <si>
-    <t>percent</t>
+    <t>passenger</t>
+  </si>
+  <si>
+    <t>patients</t>
   </si>
   <si>
     <t>personally</t>
@@ -352,169 +319,163 @@
     <t>phone</t>
   </si>
   <si>
-    <t>planning</t>
-  </si>
-  <si>
-    <t>play</t>
+    <t>plants</t>
   </si>
   <si>
     <t>played</t>
   </si>
   <si>
-    <t>policies</t>
-  </si>
-  <si>
-    <t>political</t>
+    <t>pmi</t>
+  </si>
+  <si>
+    <t>poem</t>
   </si>
   <si>
     <t>position</t>
   </si>
   <si>
-    <t>president</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>progress</t>
-  </si>
-  <si>
-    <t>promote</t>
-  </si>
-  <si>
-    <t>proposals</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>protective</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>race</t>
+    <t>positions</t>
+  </si>
+  <si>
+    <t>postcovid</t>
+  </si>
+  <si>
+    <t>provinciallevel</t>
+  </si>
+  <si>
+    <t>quarantined</t>
+  </si>
+  <si>
+    <t>rainbow</t>
   </si>
   <si>
     <t>rallied</t>
   </si>
   <si>
-    <t>regional</t>
+    <t>rallying</t>
+  </si>
+  <si>
+    <t>ratcheted</t>
+  </si>
+  <si>
+    <t>received</t>
+  </si>
+  <si>
+    <t>reciprocated</t>
+  </si>
+  <si>
+    <t>reenergized</t>
   </si>
   <si>
     <t>reject</t>
   </si>
   <si>
-    <t>republic</t>
-  </si>
-  <si>
     <t>reservation</t>
   </si>
   <si>
-    <t>resolve</t>
-  </si>
-  <si>
-    <t>respects</t>
-  </si>
-  <si>
-    <t>responding</t>
+    <t>residential</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>resolutely</t>
+  </si>
+  <si>
+    <t>resources</t>
   </si>
   <si>
     <t>response</t>
   </si>
   <si>
-    <t>responsibility</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>restore</t>
-  </si>
-  <si>
-    <t>road</t>
-  </si>
-  <si>
     <t>rok</t>
   </si>
   <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>russia</t>
+    <t>rush</t>
   </si>
   <si>
     <t>sacrifice</t>
   </si>
   <si>
+    <t>saiyasanexinhua</t>
+  </si>
+  <si>
+    <t>scaled</t>
+  </si>
+  <si>
+    <t>scaling</t>
+  </si>
+  <si>
     <t>scapegoating</t>
   </si>
   <si>
-    <t>sciencebased</t>
-  </si>
-  <si>
     <t>secretary</t>
   </si>
   <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>seligsohn</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
     <t>serbia</t>
   </si>
   <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>severe</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>shanghai</t>
   </si>
   <si>
     <t>shared</t>
   </si>
   <si>
+    <t>shelter</t>
+  </si>
+  <si>
+    <t>shortest</t>
+  </si>
+  <si>
+    <t>shouldered</t>
+  </si>
+  <si>
+    <t>sihavong</t>
+  </si>
+  <si>
+    <t>silk</t>
+  </si>
+  <si>
+    <t>sites</t>
+  </si>
+  <si>
+    <t>skyscrapers</t>
+  </si>
+  <si>
+    <t>smokeless</t>
+  </si>
+  <si>
     <t>socialism</t>
   </si>
   <si>
-    <t>solidarity</t>
-  </si>
-  <si>
-    <t>spain</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>stand</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>solidly</t>
+  </si>
+  <si>
+    <t>speeches</t>
+  </si>
+  <si>
+    <t>speedily</t>
+  </si>
+  <si>
+    <t>spring</t>
   </si>
   <si>
     <t>stayed</t>
   </si>
   <si>
-    <t>stem</t>
-  </si>
-  <si>
-    <t>steps</t>
-  </si>
-  <si>
-    <t>strengthen</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>staying</t>
+  </si>
+  <si>
+    <t>steer</t>
+  </si>
+  <si>
+    <t>strained</t>
+  </si>
+  <si>
+    <t>strenuous</t>
+  </si>
+  <si>
+    <t>strives</t>
   </si>
   <si>
     <t>stronger</t>
@@ -523,97 +484,136 @@
     <t>sudden</t>
   </si>
   <si>
-    <t>supplies</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>sun</t>
+  </si>
+  <si>
+    <t>suspected</t>
   </si>
   <si>
     <t>system</t>
   </si>
   <si>
-    <t>tackle</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>teams</t>
-  </si>
-  <si>
-    <t>tedros</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>timely</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>transparent</t>
+    <t>talked</t>
+  </si>
+  <si>
+    <t>tang</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>testament</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>trail</t>
+  </si>
+  <si>
+    <t>transformed</t>
   </si>
   <si>
     <t>treatment</t>
   </si>
   <si>
+    <t>trips</t>
+  </si>
+  <si>
+    <t>truths</t>
+  </si>
+  <si>
+    <t>unbiased</t>
+  </si>
+  <si>
+    <t>underpinning</t>
+  </si>
+  <si>
+    <t>unequivocally</t>
+  </si>
+  <si>
+    <t>unfailing</t>
+  </si>
+  <si>
     <t>unified</t>
   </si>
   <si>
-    <t>united</t>
-  </si>
-  <si>
-    <t>unity</t>
-  </si>
-  <si>
     <t>unswervingly</t>
   </si>
   <si>
     <t>uphold</t>
   </si>
   <si>
-    <t>vaccine</t>
-  </si>
-  <si>
-    <t>vaccines</t>
-  </si>
-  <si>
-    <t>victory</t>
-  </si>
-  <si>
-    <t>video</t>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>venezuela</t>
+  </si>
+  <si>
+    <t>verdict</t>
+  </si>
+  <si>
+    <t>vicepremier</t>
+  </si>
+  <si>
+    <t>vientiane</t>
+  </si>
+  <si>
+    <t>vigilant</t>
   </si>
   <si>
     <t>virus</t>
   </si>
   <si>
-    <t>vision</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>wellbeing</t>
-  </si>
-  <si>
-    <t>win</t>
+    <t>wattay</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>wellknown</t>
+  </si>
+  <si>
+    <t>wellplanned</t>
+  </si>
+  <si>
+    <t>wield</t>
+  </si>
+  <si>
+    <t>wipes</t>
+  </si>
+  <si>
+    <t>witnessed</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>wrestling</t>
   </si>
   <si>
     <t>written</t>
   </si>
   <si>
+    <t>wuhan</t>
+  </si>
+  <si>
     <t>xi</t>
+  </si>
+  <si>
+    <t>yu</t>
+  </si>
+  <si>
+    <t>zhen</t>
+  </si>
+  <si>
+    <t>zhengfor</t>
   </si>
   <si>
     <t>主题1</t>
@@ -1593,604 +1593,604 @@
         <v>200</v>
       </c>
       <c r="B2">
-        <v>0.3333590193576882</v>
+        <v>0.3428553647062853</v>
       </c>
       <c r="C2">
-        <v>0.3333596730108725</v>
+        <v>0.3343390965529616</v>
       </c>
       <c r="D2">
-        <v>0.3333593504546852</v>
+        <v>0.3334661146029658</v>
       </c>
       <c r="E2">
-        <v>6.33665230731916</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="F2">
-        <v>0.3333596730108725</v>
+        <v>8.260323020937046</v>
       </c>
       <c r="G2">
-        <v>0.3333590193576882</v>
+        <v>1.191447438475119</v>
       </c>
       <c r="H2">
-        <v>0.3333596730108725</v>
+        <v>0.3336425404958861</v>
       </c>
       <c r="I2">
-        <v>0.3333593504546852</v>
+        <v>8.847841350864847</v>
       </c>
       <c r="J2">
-        <v>0.3333596730108725</v>
+        <v>0.3411704046775846</v>
       </c>
       <c r="K2">
-        <v>0.333431072465507</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="L2">
-        <v>0.3333588509464758</v>
+        <v>0.3642089725977977</v>
       </c>
       <c r="M2">
-        <v>0.3333596730108725</v>
+        <v>0.3341018580948546</v>
       </c>
       <c r="N2">
-        <v>0.3333593504546852</v>
+        <v>2.280211148871458</v>
       </c>
       <c r="O2">
-        <v>0.3335675958904252</v>
+        <v>0.3340266909103533</v>
       </c>
       <c r="P2">
-        <v>0.3334969135514016</v>
+        <v>0.3499293097953582</v>
       </c>
       <c r="Q2">
-        <v>0.333493530833526</v>
+        <v>0.3912617839858322</v>
       </c>
       <c r="R2">
-        <v>0.3333596730108725</v>
+        <v>0.355375313587063</v>
       </c>
       <c r="S2">
-        <v>0.3333589233409139</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="T2">
-        <v>0.333400965731826</v>
+        <v>0.3576809324455685</v>
       </c>
       <c r="U2">
-        <v>0.3333596730108725</v>
+        <v>0.3439962726840608</v>
       </c>
       <c r="V2">
-        <v>0.3333593504546852</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="W2">
-        <v>0.3333591527540672</v>
+        <v>0.3333608307651915</v>
       </c>
       <c r="X2">
-        <v>0.3333596730108725</v>
+        <v>0.3605589904344008</v>
       </c>
       <c r="Y2">
-        <v>0.3333596730108725</v>
+        <v>13.1259288160852</v>
       </c>
       <c r="Z2">
-        <v>0.3333596730108725</v>
+        <v>0.4379052819821859</v>
       </c>
       <c r="AA2">
-        <v>0.3334871611749888</v>
+        <v>0.3785776774198275</v>
       </c>
       <c r="AB2">
-        <v>0.3334204745481091</v>
+        <v>0.3340942013146892</v>
       </c>
       <c r="AC2">
-        <v>0.3333596730108725</v>
+        <v>0.3335277172803049</v>
       </c>
       <c r="AD2">
-        <v>0.3333589233409139</v>
+        <v>2.893106345528182</v>
       </c>
       <c r="AE2">
-        <v>1.330180373866118</v>
+        <v>0.3333683844564842</v>
       </c>
       <c r="AF2">
-        <v>2.336383143527478</v>
+        <v>0.5132247567140691</v>
       </c>
       <c r="AG2">
-        <v>0.3333586545142763</v>
+        <v>0.3745714303300808</v>
       </c>
       <c r="AH2">
-        <v>0.3333593504546852</v>
+        <v>0.3408132712718225</v>
       </c>
       <c r="AI2">
-        <v>0.3333593504546852</v>
+        <v>137.0249457581081</v>
       </c>
       <c r="AJ2">
-        <v>0.3333590193576882</v>
+        <v>0.397578531610168</v>
       </c>
       <c r="AK2">
-        <v>0.3333593504546852</v>
+        <v>0.3333990041885715</v>
       </c>
       <c r="AL2">
-        <v>0.3333591527540672</v>
+        <v>0.3360401466447488</v>
       </c>
       <c r="AM2">
-        <v>0.3333587490699976</v>
+        <v>2.074219749110928</v>
       </c>
       <c r="AN2">
-        <v>0.3333596730108725</v>
+        <v>0.4474326311757967</v>
       </c>
       <c r="AO2">
-        <v>0.3333593504546852</v>
+        <v>0.3835012932634124</v>
       </c>
       <c r="AP2">
-        <v>0.3333602889081642</v>
+        <v>0.3357649298778424</v>
       </c>
       <c r="AQ2">
-        <v>0.3333602889081642</v>
+        <v>0.3337641387243216</v>
       </c>
       <c r="AR2">
-        <v>0.3334204466783102</v>
+        <v>0.3334515877793031</v>
       </c>
       <c r="AS2">
-        <v>0.3333587944221552</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="AT2">
-        <v>0.3333602889081642</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="AU2">
-        <v>0.3333602889081642</v>
+        <v>0.3335478210444282</v>
       </c>
       <c r="AV2">
-        <v>0.3333588509464758</v>
+        <v>0.3336643910558826</v>
       </c>
       <c r="AW2">
-        <v>0.3333602889081642</v>
+        <v>2.318218042060134</v>
       </c>
       <c r="AX2">
-        <v>0.3333602889081642</v>
+        <v>0.4421499466330632</v>
       </c>
       <c r="AY2">
-        <v>0.3333589233409139</v>
+        <v>0.3333604940330167</v>
       </c>
       <c r="AZ2">
-        <v>0.3333602889081642</v>
+        <v>0.3516532675679693</v>
       </c>
       <c r="BA2">
-        <v>0.3333602889081642</v>
+        <v>0.3370992900676712</v>
       </c>
       <c r="BB2">
-        <v>0.3334125279692844</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="BC2">
-        <v>2.333245398867619</v>
+        <v>0.3578871463491714</v>
       </c>
       <c r="BD2">
-        <v>0.3333602889081642</v>
+        <v>10.03695041300013</v>
       </c>
       <c r="BE2">
-        <v>2.333245398867619</v>
+        <v>23.58261556285886</v>
       </c>
       <c r="BF2">
-        <v>0.3334250621766929</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="BG2">
-        <v>0.3333602889081642</v>
+        <v>0.3335345138264206</v>
       </c>
       <c r="BH2">
-        <v>0.3334933520630547</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="BI2">
-        <v>3.335013085905202</v>
+        <v>0.3433769560069896</v>
       </c>
       <c r="BJ2">
-        <v>0.3333602889081642</v>
+        <v>0.3748819655968042</v>
       </c>
       <c r="BK2">
-        <v>2.33612103007288</v>
+        <v>4.1589258334818</v>
       </c>
       <c r="BL2">
-        <v>0.3333602889081642</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="BM2">
-        <v>0.3333596730108725</v>
+        <v>0.3433812386854046</v>
       </c>
       <c r="BN2">
-        <v>0.3333602889081642</v>
+        <v>0.3370992900676712</v>
       </c>
       <c r="BO2">
-        <v>0.3333596730108725</v>
+        <v>1.289343533985935</v>
       </c>
       <c r="BP2">
-        <v>2.333895571705458</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="BQ2">
-        <v>0.3333602889081642</v>
+        <v>0.333418970072374</v>
       </c>
       <c r="BR2">
-        <v>0.3333596730108725</v>
+        <v>20.32149467199684</v>
       </c>
       <c r="BS2">
-        <v>0.3333602889081642</v>
+        <v>0.4233541417891729</v>
       </c>
       <c r="BT2">
-        <v>0.3333602889081642</v>
+        <v>0.3706375532269514</v>
       </c>
       <c r="BU2">
-        <v>0.3333596730108725</v>
+        <v>9.851010264909712</v>
       </c>
       <c r="BV2">
-        <v>0.3333584485122082</v>
+        <v>0.3370912626126267</v>
       </c>
       <c r="BW2">
-        <v>0.3333602889081642</v>
+        <v>4.979076782910663</v>
       </c>
       <c r="BX2">
-        <v>0.3333596730108725</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="BY2">
-        <v>0.3333585800250067</v>
+        <v>3.720809424433155</v>
       </c>
       <c r="BZ2">
-        <v>0.3333590193576882</v>
+        <v>1.995346963334425</v>
       </c>
       <c r="CA2">
-        <v>0.3333602889081642</v>
+        <v>2.71854765894098</v>
       </c>
       <c r="CB2">
-        <v>0.3333602889081642</v>
+        <v>0.3730119413399394</v>
       </c>
       <c r="CC2">
-        <v>0.3333602889081642</v>
+        <v>0.3847954013299933</v>
       </c>
       <c r="CD2">
-        <v>0.3334125279692844</v>
+        <v>0.334191367788005</v>
       </c>
       <c r="CE2">
-        <v>0.3333589233409139</v>
+        <v>0.3393422611571145</v>
       </c>
       <c r="CF2">
-        <v>0.3333602889081642</v>
+        <v>0.3537894597744486</v>
       </c>
       <c r="CG2">
-        <v>0.3333591527540672</v>
+        <v>0.3437577351346366</v>
       </c>
       <c r="CH2">
-        <v>0.3333586545142763</v>
+        <v>6.867407165510399</v>
       </c>
       <c r="CI2">
-        <v>0.3333602889081642</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="CJ2">
-        <v>0.3333589233409139</v>
+        <v>0.3467563212017114</v>
       </c>
       <c r="CK2">
-        <v>0.3333593504546852</v>
+        <v>8.204473406824413</v>
       </c>
       <c r="CL2">
-        <v>0.3333593504546852</v>
+        <v>0.3452700045155602</v>
       </c>
       <c r="CM2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="CN2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="CO2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="CP2">
-        <v>0.3333602889081642</v>
+        <v>4.266209850526747</v>
       </c>
       <c r="CQ2">
-        <v>0.3333602889081642</v>
+        <v>1.604314292873166</v>
       </c>
       <c r="CR2">
-        <v>0.3333602889081642</v>
+        <v>0.3335223173278266</v>
       </c>
       <c r="CS2">
-        <v>0.3333602889081642</v>
+        <v>0.419414943722553</v>
       </c>
       <c r="CT2">
-        <v>0.3333602889081642</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="CU2">
-        <v>0.3340277138270117</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="CV2">
-        <v>0.3333602889081642</v>
+        <v>15.25334575447788</v>
       </c>
       <c r="CW2">
-        <v>0.3333602889081642</v>
+        <v>0.3340942013146892</v>
       </c>
       <c r="CX2">
-        <v>0.3333602889081642</v>
+        <v>0.3679869617339633</v>
       </c>
       <c r="CY2">
-        <v>0.3334443193161801</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="CZ2">
-        <v>0.3333584328617787</v>
+        <v>0.3591957375733274</v>
       </c>
       <c r="DA2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DB2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DC2">
-        <v>0.3333602889081642</v>
+        <v>4.06656592133375</v>
       </c>
       <c r="DD2">
-        <v>0.3333593504546852</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DE2">
-        <v>0.3334684569103483</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DF2">
-        <v>0.3333590193576882</v>
+        <v>0.3335073690368934</v>
       </c>
       <c r="DG2">
-        <v>0.3333602889081642</v>
+        <v>0.3638850608558739</v>
       </c>
       <c r="DH2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DI2">
-        <v>0.3333593504546852</v>
+        <v>1.31850286656136</v>
       </c>
       <c r="DJ2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DK2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DL2">
-        <v>0.3333602889081642</v>
+        <v>2.190971847682155</v>
       </c>
       <c r="DM2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DN2">
-        <v>0.3335155411865415</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DO2">
-        <v>0.3333593504546852</v>
+        <v>0.9641876590987812</v>
       </c>
       <c r="DP2">
-        <v>0.3333602889081642</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="DQ2">
-        <v>1.333412934156434</v>
+        <v>0.3333608307651915</v>
       </c>
       <c r="DR2">
-        <v>0.3333593504546852</v>
+        <v>2.319416748901675</v>
       </c>
       <c r="DS2">
-        <v>0.3333593504546852</v>
+        <v>0.3335345138264206</v>
       </c>
       <c r="DT2">
-        <v>0.3333602889081642</v>
+        <v>4.165588709418431</v>
       </c>
       <c r="DU2">
-        <v>0.3333596730108725</v>
+        <v>53.9200634237534</v>
       </c>
       <c r="DV2">
-        <v>0.3333602889081642</v>
+        <v>0.3554064916884386</v>
       </c>
       <c r="DW2">
-        <v>0.3333596730108725</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="DX2">
-        <v>0.3335556179675411</v>
+        <v>0.3336905300856397</v>
       </c>
       <c r="DY2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="DZ2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EA2">
-        <v>0.3333593504546852</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EB2">
-        <v>0.3333602889081642</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="EC2">
-        <v>0.3333602889081642</v>
+        <v>11.06162288172759</v>
       </c>
       <c r="ED2">
-        <v>0.3333602889081642</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="EE2">
-        <v>0.3333602889081642</v>
+        <v>0.3514232319053747</v>
       </c>
       <c r="EF2">
-        <v>0.3333602889081642</v>
+        <v>0.3674946174439249</v>
       </c>
       <c r="EG2">
-        <v>0.3333602889081642</v>
+        <v>1.874385994600014</v>
       </c>
       <c r="EH2">
-        <v>0.3334117365761668</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EI2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EJ2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EK2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EL2">
-        <v>0.3333602889081642</v>
+        <v>0.3372662439498652</v>
       </c>
       <c r="EM2">
-        <v>0.3333596730108725</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="EN2">
-        <v>0.3333591527540672</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EO2">
-        <v>0.3333602889081642</v>
+        <v>0.3337869795474063</v>
       </c>
       <c r="EP2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EQ2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="ER2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="ES2">
-        <v>0.3333586808277627</v>
+        <v>1.732568332935879</v>
       </c>
       <c r="ET2">
-        <v>0.3333593504546852</v>
+        <v>0.3461484735394195</v>
       </c>
       <c r="EU2">
-        <v>0.3337899504135077</v>
+        <v>1.191447438475119</v>
       </c>
       <c r="EV2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EW2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EX2">
-        <v>0.3333591527540672</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EY2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="EZ2">
-        <v>0.3333602889081642</v>
+        <v>0.3580201681592483</v>
       </c>
       <c r="FA2">
-        <v>0.3334135378641436</v>
+        <v>0.3333692041154546</v>
       </c>
       <c r="FB2">
-        <v>0.3333596730108725</v>
+        <v>0.3335073690368934</v>
       </c>
       <c r="FC2">
-        <v>1.332890347882783</v>
+        <v>0.3340328263747793</v>
       </c>
       <c r="FD2">
-        <v>0.3333602889081642</v>
+        <v>10.67720217978921</v>
       </c>
       <c r="FE2">
-        <v>0.3333593504546852</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FF2">
-        <v>0.3333602889081642</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="FG2">
-        <v>0.3333596730108725</v>
+        <v>3.106777378610364</v>
       </c>
       <c r="FH2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FI2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FJ2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FK2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FL2">
-        <v>0.3333591527540672</v>
+        <v>0.3339635078059643</v>
       </c>
       <c r="FM2">
-        <v>0.3333593504546852</v>
+        <v>21.65852433330965</v>
       </c>
       <c r="FN2">
-        <v>0.3333602889081642</v>
+        <v>0.3333604940330167</v>
       </c>
       <c r="FO2">
-        <v>0.3333591527540672</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FP2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FQ2">
-        <v>0.3334799536377688</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FR2">
-        <v>0.3333593504546852</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FS2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FT2">
-        <v>0.3333602889081642</v>
+        <v>0.3339449055440336</v>
       </c>
       <c r="FU2">
-        <v>0.3333602889081642</v>
+        <v>0.3333683844564842</v>
       </c>
       <c r="FV2">
-        <v>5.333249107112635</v>
+        <v>0.3380289225857924</v>
       </c>
       <c r="FW2">
-        <v>1.333412934156434</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="FX2">
-        <v>1.333412934156434</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FY2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="FZ2">
-        <v>0.3333602889081642</v>
+        <v>0.3337685152261525</v>
       </c>
       <c r="GA2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GB2">
-        <v>1.33536635896644</v>
+        <v>1.316905154872746</v>
       </c>
       <c r="GC2">
-        <v>0.3333593504546852</v>
+        <v>24.39404952976044</v>
       </c>
       <c r="GD2">
-        <v>0.333446076874962</v>
+        <v>0.3454427802496919</v>
       </c>
       <c r="GE2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GF2">
-        <v>0.3333596730108725</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GG2">
-        <v>0.3333591527540672</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GH2">
-        <v>4.335667432854665</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GI2">
-        <v>5.377614775319344</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GJ2">
-        <v>0.3333593504546852</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GK2">
-        <v>0.3333596730108725</v>
+        <v>0.3335582937990267</v>
       </c>
       <c r="GL2">
-        <v>0.3334015877831789</v>
+        <v>40.94442105705579</v>
       </c>
       <c r="GM2">
-        <v>0.3333602889081642</v>
+        <v>0.3333713034836212</v>
       </c>
       <c r="GN2">
-        <v>0.3333590193576882</v>
+        <v>0.333502731297201</v>
       </c>
       <c r="GO2">
-        <v>2.333245398867619</v>
+        <v>0.3372812699088121</v>
       </c>
       <c r="GP2">
-        <v>0.3333602889081642</v>
+        <v>0.3380490366622069</v>
       </c>
       <c r="GQ2">
-        <v>0.3333596730108725</v>
+        <v>0.3338182390831817</v>
       </c>
       <c r="GR2">
-        <v>0.3333596730108725</v>
+        <v>0.3333614737260081</v>
       </c>
       <c r="GS2">
-        <v>0.3333585544783956</v>
+        <v>0.3333614737260081</v>
       </c>
     </row>
     <row r="3" spans="1:201">
@@ -2198,604 +2198,604 @@
         <v>201</v>
       </c>
       <c r="B3">
-        <v>0.3333704275743896</v>
+        <v>14.27133242710334</v>
       </c>
       <c r="C3">
-        <v>0.3333713716532886</v>
+        <v>7.984770998918269</v>
       </c>
       <c r="D3">
-        <v>0.3333709057809424</v>
+        <v>0.3484012018471531</v>
       </c>
       <c r="E3">
-        <v>0.3334510728233646</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="F3">
-        <v>0.3333713716532886</v>
+        <v>3.895332086339585</v>
       </c>
       <c r="G3">
-        <v>0.3333704275743896</v>
+        <v>0.3493439996708183</v>
       </c>
       <c r="H3">
-        <v>0.3333713716532886</v>
+        <v>3.322017766980226</v>
       </c>
       <c r="I3">
-        <v>0.3333709057809424</v>
+        <v>31.62547408392042</v>
       </c>
       <c r="J3">
-        <v>0.3333713716532886</v>
+        <v>0.3384650170730191</v>
       </c>
       <c r="K3">
-        <v>0.3334603646772603</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="L3">
-        <v>0.3333701843370131</v>
+        <v>27.32464240658836</v>
       </c>
       <c r="M3">
-        <v>0.3333713716532886</v>
+        <v>3.34248182956949</v>
       </c>
       <c r="N3">
-        <v>0.3333709057809424</v>
+        <v>0.3576094237449849</v>
       </c>
       <c r="O3">
-        <v>0.3336306684063111</v>
+        <v>7.394626228346798</v>
       </c>
       <c r="P3">
-        <v>0.3335424796295521</v>
+        <v>0.3669025302302216</v>
       </c>
       <c r="Q3">
-        <v>0.3335382083358982</v>
+        <v>568.311501907148</v>
       </c>
       <c r="R3">
-        <v>0.3333713716532886</v>
+        <v>181.0119097987701</v>
       </c>
       <c r="S3">
-        <v>0.3333702888967117</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="T3">
-        <v>0.3334226878270188</v>
+        <v>1.78298619062954</v>
       </c>
       <c r="U3">
-        <v>0.3333713716532886</v>
+        <v>0.3340372187217864</v>
       </c>
       <c r="V3">
-        <v>0.3333709057809424</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="W3">
-        <v>0.333370620239882</v>
+        <v>0.3333381321651348</v>
       </c>
       <c r="X3">
-        <v>0.3333713716532886</v>
+        <v>8.462836025885197</v>
       </c>
       <c r="Y3">
-        <v>0.3333713716532886</v>
+        <v>21.66427888302556</v>
       </c>
       <c r="Z3">
-        <v>0.3333713716532886</v>
+        <v>0.3453800474846807</v>
       </c>
       <c r="AA3">
-        <v>0.3335303441789646</v>
+        <v>123.1570168613069</v>
       </c>
       <c r="AB3">
-        <v>0.3334470171806317</v>
+        <v>3.271891395608075</v>
       </c>
       <c r="AC3">
-        <v>0.3333713716532886</v>
+        <v>6.328042680691503</v>
       </c>
       <c r="AD3">
-        <v>0.3333702888967117</v>
+        <v>0.3455131632905741</v>
       </c>
       <c r="AE3">
-        <v>0.3335105952737363</v>
+        <v>3.333290362449131</v>
       </c>
       <c r="AF3">
-        <v>0.3335791021684517</v>
+        <v>116.7146333277838</v>
       </c>
       <c r="AG3">
-        <v>0.3333699006292127</v>
+        <v>230.9368032997972</v>
       </c>
       <c r="AH3">
-        <v>0.3333709057809424</v>
+        <v>16.31562524143446</v>
       </c>
       <c r="AI3">
-        <v>0.3333709057809424</v>
+        <v>302.9624964398918</v>
       </c>
       <c r="AJ3">
-        <v>0.3333704275743896</v>
+        <v>12.1328012993277</v>
       </c>
       <c r="AK3">
-        <v>0.3333709057809424</v>
+        <v>2.333355706939743</v>
       </c>
       <c r="AL3">
-        <v>0.333370620239882</v>
+        <v>23.70190556598447</v>
       </c>
       <c r="AM3">
-        <v>0.3333700371963514</v>
+        <v>29.17230693614725</v>
       </c>
       <c r="AN3">
-        <v>0.3333713716532886</v>
+        <v>15.20204384346649</v>
       </c>
       <c r="AO3">
-        <v>0.3333709057809424</v>
+        <v>0.3357587629734261</v>
       </c>
       <c r="AP3">
-        <v>0.3333722612059792</v>
+        <v>12.31510933977701</v>
       </c>
       <c r="AQ3">
-        <v>0.3333722612059792</v>
+        <v>7.309267380405193</v>
       </c>
       <c r="AR3">
-        <v>0.3334470805863375</v>
+        <v>3.333187388096525</v>
       </c>
       <c r="AS3">
-        <v>0.3333701026986626</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="AT3">
-        <v>0.3333722612059792</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="AU3">
-        <v>0.3333722612059792</v>
+        <v>0.3460805173528816</v>
       </c>
       <c r="AV3">
-        <v>0.3333701843370131</v>
+        <v>0.3400282481622074</v>
       </c>
       <c r="AW3">
-        <v>0.3333722612059792</v>
+        <v>8.308796554383971</v>
       </c>
       <c r="AX3">
-        <v>0.3333722612059792</v>
+        <v>3.073604177877212</v>
       </c>
       <c r="AY3">
-        <v>0.3333702888967117</v>
+        <v>0.3333380734121834</v>
       </c>
       <c r="AZ3">
-        <v>0.3333722612059792</v>
+        <v>6.544507671049587</v>
       </c>
       <c r="BA3">
-        <v>0.3333722612059792</v>
+        <v>0.3359337979258358</v>
       </c>
       <c r="BB3">
-        <v>0.3334371811175111</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="BC3">
-        <v>0.3334160282505475</v>
+        <v>40.2622499628346</v>
       </c>
       <c r="BD3">
-        <v>0.3333722612059792</v>
+        <v>17.60550087403252</v>
       </c>
       <c r="BE3">
-        <v>0.3334160282505475</v>
+        <v>314.5259596640024</v>
       </c>
       <c r="BF3">
-        <v>0.3334527367022437</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="BG3">
-        <v>0.3333722612059792</v>
+        <v>1.13870368584228</v>
       </c>
       <c r="BH3">
-        <v>0.333538096755455</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="BI3">
-        <v>0.3334553613656233</v>
+        <v>3.320312962443409</v>
       </c>
       <c r="BJ3">
-        <v>0.3333722612059792</v>
+        <v>0.3811949784383489</v>
       </c>
       <c r="BK3">
-        <v>0.33357847286464</v>
+        <v>0.3700781644293338</v>
       </c>
       <c r="BL3">
-        <v>0.3333722612059792</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="BM3">
-        <v>0.3333713716532886</v>
+        <v>12.51704158403643</v>
       </c>
       <c r="BN3">
-        <v>0.3333722612059792</v>
+        <v>0.3359337979258358</v>
       </c>
       <c r="BO3">
-        <v>0.3333713716532886</v>
+        <v>1.793587022229025</v>
       </c>
       <c r="BP3">
-        <v>0.3334536118037281</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="BQ3">
-        <v>0.3333722612059792</v>
+        <v>4.332179898065395</v>
       </c>
       <c r="BR3">
-        <v>0.3333713716532886</v>
+        <v>249.1985364222075</v>
       </c>
       <c r="BS3">
-        <v>0.3333722612059792</v>
+        <v>0.341915548977533</v>
       </c>
       <c r="BT3">
-        <v>0.3333722612059792</v>
+        <v>1.999792670580126</v>
       </c>
       <c r="BU3">
-        <v>0.3333713716532886</v>
+        <v>0.3602474329023793</v>
       </c>
       <c r="BV3">
-        <v>0.3333696031001506</v>
+        <v>44.14211421469365</v>
       </c>
       <c r="BW3">
-        <v>0.3333722612059792</v>
+        <v>0.3449162519688479</v>
       </c>
       <c r="BX3">
-        <v>0.3333713716532886</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="BY3">
-        <v>0.3333697930441976</v>
+        <v>35.37651842433475</v>
       </c>
       <c r="BZ3">
-        <v>0.3333704275743896</v>
+        <v>3.622907296077409</v>
       </c>
       <c r="CA3">
-        <v>0.3333722612059792</v>
+        <v>0.3833732099699338</v>
       </c>
       <c r="CB3">
-        <v>0.3333722612059792</v>
+        <v>0.3485292529773746</v>
       </c>
       <c r="CC3">
-        <v>0.3333722612059792</v>
+        <v>43.58196024943853</v>
       </c>
       <c r="CD3">
-        <v>0.3334371811175111</v>
+        <v>0.3441578752423536</v>
       </c>
       <c r="CE3">
-        <v>0.3333702888967117</v>
+        <v>38.31936071073348</v>
       </c>
       <c r="CF3">
-        <v>0.3333722612059792</v>
+        <v>0.350855815677147</v>
       </c>
       <c r="CG3">
-        <v>0.333370620239882</v>
+        <v>8.166034308001754</v>
       </c>
       <c r="CH3">
-        <v>0.3333699006292127</v>
+        <v>101.3342426802967</v>
       </c>
       <c r="CI3">
-        <v>0.3333722612059792</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="CJ3">
-        <v>0.3333702888967117</v>
+        <v>4.314384351047169</v>
       </c>
       <c r="CK3">
-        <v>0.3333709057809424</v>
+        <v>1.858988818534756</v>
       </c>
       <c r="CL3">
-        <v>0.3333709057809424</v>
+        <v>3.300771126780855</v>
       </c>
       <c r="CM3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="CN3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="CO3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="CP3">
-        <v>0.3333722612059792</v>
+        <v>4.23731474596905</v>
       </c>
       <c r="CQ3">
-        <v>0.3333722612059792</v>
+        <v>31.34324757285995</v>
       </c>
       <c r="CR3">
-        <v>0.3333722612059792</v>
+        <v>2.26490134081113</v>
       </c>
       <c r="CS3">
-        <v>0.3333722612059792</v>
+        <v>145.0682220100476</v>
       </c>
       <c r="CT3">
-        <v>0.3333722612059792</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="CU3">
-        <v>0.334206033620698</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="CV3">
-        <v>0.3333722612059792</v>
+        <v>1.84338590747377</v>
       </c>
       <c r="CW3">
-        <v>0.3333722612059792</v>
+        <v>3.271891395608075</v>
       </c>
       <c r="CX3">
-        <v>0.3333722612059792</v>
+        <v>13.27623981758527</v>
       </c>
       <c r="CY3">
-        <v>0.3334768498256712</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="CZ3">
-        <v>0.3333695804962367</v>
+        <v>9.322007116101529</v>
       </c>
       <c r="DA3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DB3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DC3">
-        <v>0.3333722612059792</v>
+        <v>11.57220151913751</v>
       </c>
       <c r="DD3">
-        <v>0.3333709057809424</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DE3">
-        <v>0.3335069268048519</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DF3">
-        <v>0.3333704275743896</v>
+        <v>0.3343075094923325</v>
       </c>
       <c r="DG3">
-        <v>0.3333722612059792</v>
+        <v>0.3645467692661151</v>
       </c>
       <c r="DH3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DI3">
-        <v>0.3333709057809424</v>
+        <v>3.337807229625417</v>
       </c>
       <c r="DJ3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DK3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DL3">
-        <v>0.3333722612059792</v>
+        <v>4.152814463598888</v>
       </c>
       <c r="DM3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DN3">
-        <v>0.3335657802656307</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DO3">
-        <v>0.3333709057809424</v>
+        <v>2.702394758647229</v>
       </c>
       <c r="DP3">
-        <v>0.3333722612059792</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="DQ3">
-        <v>0.3334589240129349</v>
+        <v>0.3333381321651348</v>
       </c>
       <c r="DR3">
-        <v>0.3333709057809424</v>
+        <v>0.3385671414738479</v>
       </c>
       <c r="DS3">
-        <v>0.3333709057809424</v>
+        <v>1.13870368584228</v>
       </c>
       <c r="DT3">
-        <v>0.3333722612059792</v>
+        <v>16.10022092218538</v>
       </c>
       <c r="DU3">
-        <v>0.3333713716532886</v>
+        <v>74.58278971010805</v>
       </c>
       <c r="DV3">
-        <v>0.3333722612059792</v>
+        <v>7.296732623958282</v>
       </c>
       <c r="DW3">
-        <v>0.3333713716532886</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="DX3">
-        <v>0.3336158277647203</v>
+        <v>6.314470581524834</v>
       </c>
       <c r="DY3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="DZ3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EA3">
-        <v>0.3333709057809424</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EB3">
-        <v>0.3333722612059792</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="EC3">
-        <v>0.3333722612059792</v>
+        <v>23.58376656484416</v>
       </c>
       <c r="ED3">
-        <v>0.3333722612059792</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="EE3">
-        <v>0.3333722612059792</v>
+        <v>5.549276529666364</v>
       </c>
       <c r="EF3">
-        <v>0.3333722612059792</v>
+        <v>88.24771036653661</v>
       </c>
       <c r="EG3">
-        <v>0.3333722612059792</v>
+        <v>0.3437982229219805</v>
       </c>
       <c r="EH3">
-        <v>0.3334361429298767</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EI3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EJ3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EK3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EL3">
-        <v>0.3333722612059792</v>
+        <v>0.3333569411310092</v>
       </c>
       <c r="EM3">
-        <v>0.3333713716532886</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="EN3">
-        <v>0.333370620239882</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EO3">
-        <v>0.3333722612059792</v>
+        <v>8.298337585889124</v>
       </c>
       <c r="EP3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EQ3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="ER3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="ES3">
-        <v>0.3333699386338559</v>
+        <v>0.3542561979868901</v>
       </c>
       <c r="ET3">
-        <v>0.3333709057809424</v>
+        <v>5.284372550665273</v>
       </c>
       <c r="EU3">
-        <v>0.3339087698813183</v>
+        <v>0.3493439996708183</v>
       </c>
       <c r="EV3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EW3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EX3">
-        <v>0.333370620239882</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EY3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="EZ3">
-        <v>0.3333722612059792</v>
+        <v>11.41374538404209</v>
       </c>
       <c r="FA3">
-        <v>0.3334383846631086</v>
+        <v>2.333289357641407</v>
       </c>
       <c r="FB3">
-        <v>0.3333713716532886</v>
+        <v>0.3343075094923325</v>
       </c>
       <c r="FC3">
-        <v>0.3334578449169871</v>
+        <v>0.3441352192238787</v>
       </c>
       <c r="FD3">
-        <v>0.3333722612059792</v>
+        <v>29.78736395676935</v>
       </c>
       <c r="FE3">
-        <v>0.3333709057809424</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FF3">
-        <v>0.3333722612059792</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="FG3">
-        <v>0.3333713716532886</v>
+        <v>3.982803638123352</v>
       </c>
       <c r="FH3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FI3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FJ3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FK3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FL3">
-        <v>0.333370620239882</v>
+        <v>3.104201450729914</v>
       </c>
       <c r="FM3">
-        <v>0.3333709057809424</v>
+        <v>31.88867570206035</v>
       </c>
       <c r="FN3">
-        <v>0.3333722612059792</v>
+        <v>0.3333380734121834</v>
       </c>
       <c r="FO3">
-        <v>0.333370620239882</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FP3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FQ3">
-        <v>0.3335213208071574</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FR3">
-        <v>0.3333709057809424</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FS3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FT3">
-        <v>0.3333722612059792</v>
+        <v>5.308719082512861</v>
       </c>
       <c r="FU3">
-        <v>0.3333722612059792</v>
+        <v>3.333290362449131</v>
       </c>
       <c r="FV3">
-        <v>0.3334125408046145</v>
+        <v>6.327199447860077</v>
       </c>
       <c r="FW3">
-        <v>0.3334589240129349</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="FX3">
-        <v>0.3334589240129349</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FY3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="FZ3">
-        <v>0.3333722612059792</v>
+        <v>0.3851264784029739</v>
       </c>
       <c r="GA3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GB3">
-        <v>0.3336114379296781</v>
+        <v>0.3489826221566046</v>
       </c>
       <c r="GC3">
-        <v>0.3333709057809424</v>
+        <v>124.9827350884216</v>
       </c>
       <c r="GD3">
-        <v>0.3334791236025811</v>
+        <v>25.44131077384309</v>
       </c>
       <c r="GE3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GF3">
-        <v>0.3333713716532886</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GG3">
-        <v>0.333370620239882</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GH3">
-        <v>0.3334543735671553</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GI3">
-        <v>0.3339180365828801</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GJ3">
-        <v>0.3333709057809424</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GK3">
-        <v>0.3333713716532886</v>
+        <v>1.331635630020502</v>
       </c>
       <c r="GL3">
-        <v>0.3334234448933926</v>
+        <v>0.381492215791413</v>
       </c>
       <c r="GM3">
-        <v>0.3333722612059792</v>
+        <v>1.333286784068127</v>
       </c>
       <c r="GN3">
-        <v>0.3333704275743896</v>
+        <v>4.327770895139367</v>
       </c>
       <c r="GO3">
-        <v>0.3334160282505475</v>
+        <v>13.11570076794497</v>
       </c>
       <c r="GP3">
-        <v>0.3333722612059792</v>
+        <v>72.93972788671729</v>
       </c>
       <c r="GQ3">
-        <v>0.3333713716532886</v>
+        <v>0.4097840598309209</v>
       </c>
       <c r="GR3">
-        <v>0.3333713716532886</v>
+        <v>0.3333382443478723</v>
       </c>
       <c r="GS3">
-        <v>0.3333697561471878</v>
+        <v>0.3333382443478723</v>
       </c>
     </row>
     <row r="4" spans="1:201">
@@ -2803,604 +2803,604 @@
         <v>202</v>
       </c>
       <c r="B4">
-        <v>6.333270553067655</v>
+        <v>0.3858122081890972</v>
       </c>
       <c r="C4">
-        <v>3.333268955335565</v>
+        <v>15.68088990452737</v>
       </c>
       <c r="D4">
-        <v>4.333269743764101</v>
+        <v>3.318132683549067</v>
       </c>
       <c r="E4">
-        <v>2.32989661985717</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="F4">
-        <v>3.333268955335565</v>
+        <v>7.844344892721845</v>
       </c>
       <c r="G4">
-        <v>6.333270553067655</v>
+        <v>2.459208561853073</v>
       </c>
       <c r="H4">
-        <v>3.333268955335565</v>
+        <v>0.3443396925229026</v>
       </c>
       <c r="I4">
-        <v>4.333269743764101</v>
+        <v>5.526684565213223</v>
       </c>
       <c r="J4">
-        <v>3.333268955335565</v>
+        <v>10.32036457824873</v>
       </c>
       <c r="K4">
-        <v>6.333108562856966</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="L4">
-        <v>8.333270964716244</v>
+        <v>29.3111486208124</v>
       </c>
       <c r="M4">
-        <v>3.333268955335565</v>
+        <v>1.323416312334157</v>
       </c>
       <c r="N4">
-        <v>4.333269743764101</v>
+        <v>6.362179427382493</v>
       </c>
       <c r="O4">
-        <v>62.33280173570301</v>
+        <v>2.271347080741418</v>
       </c>
       <c r="P4">
-        <v>14.33296060681878</v>
+        <v>20.28316815997335</v>
       </c>
       <c r="Q4">
-        <v>35.33296826083031</v>
+        <v>169.2972363088645</v>
       </c>
       <c r="R4">
-        <v>3.333268955335565</v>
+        <v>78.63271488764147</v>
       </c>
       <c r="S4">
-        <v>7.333270787762108</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="T4">
-        <v>20.33317634644089</v>
+        <v>67.85933287692336</v>
       </c>
       <c r="U4">
-        <v>3.333268955335565</v>
+        <v>9.321966508593556</v>
       </c>
       <c r="V4">
-        <v>4.333269743764101</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="W4">
-        <v>5.333270227005783</v>
+        <v>3.333301037069106</v>
       </c>
       <c r="X4">
-        <v>3.333268955335565</v>
+        <v>19.17660498367895</v>
       </c>
       <c r="Y4">
-        <v>3.333268955335565</v>
+        <v>8.209792300887731</v>
       </c>
       <c r="Z4">
-        <v>3.333268955335565</v>
+        <v>13.21671467053225</v>
       </c>
       <c r="AA4">
-        <v>10.33298249464578</v>
+        <v>17.46440546127178</v>
       </c>
       <c r="AB4">
-        <v>31.33313250827099</v>
+        <v>0.394014403075917</v>
       </c>
       <c r="AC4">
-        <v>3.333268955335565</v>
+        <v>0.338429602027293</v>
       </c>
       <c r="AD4">
-        <v>7.333270787762108</v>
+        <v>67.76138049118032</v>
       </c>
       <c r="AE4">
-        <v>35.33630903085985</v>
+        <v>0.3333412530935292</v>
       </c>
       <c r="AF4">
-        <v>19.33003775430378</v>
+        <v>105.7721419155006</v>
       </c>
       <c r="AG4">
-        <v>13.33327144485625</v>
+        <v>1.688625269871172</v>
       </c>
       <c r="AH4">
-        <v>4.333269743764101</v>
+        <v>5.343561487292312</v>
       </c>
       <c r="AI4">
-        <v>4.333269743764101</v>
+        <v>23.01255780199848</v>
       </c>
       <c r="AJ4">
-        <v>6.333270553067655</v>
+        <v>37.46962016906064</v>
       </c>
       <c r="AK4">
-        <v>4.333269743764101</v>
+        <v>1.333245288870194</v>
       </c>
       <c r="AL4">
-        <v>5.333270227005783</v>
+        <v>3.962054287369388</v>
       </c>
       <c r="AM4">
-        <v>10.33327121373339</v>
+        <v>60.75347331474028</v>
       </c>
       <c r="AN4">
-        <v>3.333268955335565</v>
+        <v>0.3505235253565724</v>
       </c>
       <c r="AO4">
-        <v>4.333269743764101</v>
+        <v>10.28073994376247</v>
       </c>
       <c r="AP4">
-        <v>2.333267449885577</v>
+        <v>0.3491257303441432</v>
       </c>
       <c r="AQ4">
-        <v>2.333267449885577</v>
+        <v>0.3569684808694062</v>
       </c>
       <c r="AR4">
-        <v>7.333132472735087</v>
+        <v>0.333361024123314</v>
       </c>
       <c r="AS4">
-        <v>9.333271102878918</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="AT4">
-        <v>2.333267449885577</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="AU4">
-        <v>2.333267449885577</v>
+        <v>4.320371661601914</v>
       </c>
       <c r="AV4">
-        <v>8.333270964716244</v>
+        <v>3.326307360781216</v>
       </c>
       <c r="AW4">
-        <v>2.333267449885577</v>
+        <v>0.3729854035545534</v>
       </c>
       <c r="AX4">
-        <v>2.333267449885577</v>
+        <v>10.48424587548817</v>
       </c>
       <c r="AY4">
-        <v>7.333270787762108</v>
+        <v>4.333301432554238</v>
       </c>
       <c r="AZ4">
-        <v>2.333267449885577</v>
+        <v>28.103839061381</v>
       </c>
       <c r="BA4">
-        <v>2.333267449885577</v>
+        <v>4.32696691200587</v>
       </c>
       <c r="BB4">
-        <v>8.333150290912938</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="BC4">
-        <v>0.3333385728818074</v>
+        <v>13.37986289081478</v>
       </c>
       <c r="BD4">
-        <v>2.333267449885577</v>
+        <v>0.3575487129661617</v>
       </c>
       <c r="BE4">
-        <v>0.3333385728818074</v>
+        <v>2.891424773137083</v>
       </c>
       <c r="BF4">
-        <v>26.3331222011208</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="BG4">
-        <v>2.333267449885577</v>
+        <v>2.527761800329769</v>
       </c>
       <c r="BH4">
-        <v>5.332968551181221</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="BI4">
-        <v>1.331531552728852</v>
+        <v>0.3363100815486774</v>
       </c>
       <c r="BJ4">
-        <v>2.333267449885577</v>
+        <v>62.24392305596363</v>
       </c>
       <c r="BK4">
-        <v>21.33030049706219</v>
+        <v>50.47099600208769</v>
       </c>
       <c r="BL4">
-        <v>2.333267449885577</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="BM4">
-        <v>3.333268955335565</v>
+        <v>52.13957717727676</v>
       </c>
       <c r="BN4">
-        <v>2.333267449885577</v>
+        <v>4.32696691200587</v>
       </c>
       <c r="BO4">
-        <v>3.333268955335565</v>
+        <v>8.917069443783442</v>
       </c>
       <c r="BP4">
-        <v>4.332650816490516</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="BQ4">
-        <v>2.333267449885577</v>
+        <v>0.3344011318613699</v>
       </c>
       <c r="BR4">
-        <v>3.333268955335565</v>
+        <v>5.479968905794083</v>
       </c>
       <c r="BS4">
-        <v>2.333267449885577</v>
+        <v>7.234730309232456</v>
       </c>
       <c r="BT4">
-        <v>2.333267449885577</v>
+        <v>22.6295697761914</v>
       </c>
       <c r="BU4">
-        <v>3.333268955335565</v>
+        <v>28.78874230218683</v>
       </c>
       <c r="BV4">
-        <v>37.33327194838738</v>
+        <v>1.520794522692277</v>
       </c>
       <c r="BW4">
-        <v>2.333267449885577</v>
+        <v>7.676006965119608</v>
       </c>
       <c r="BX4">
-        <v>3.333268955335565</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="BY4">
-        <v>17.33327162693053</v>
+        <v>1.902672151230531</v>
       </c>
       <c r="BZ4">
-        <v>6.333270553067655</v>
+        <v>26.38174574058662</v>
       </c>
       <c r="CA4">
-        <v>2.333267449885577</v>
+        <v>47.89807913108779</v>
       </c>
       <c r="CB4">
-        <v>2.333267449885577</v>
+        <v>21.2784588056818</v>
       </c>
       <c r="CC4">
-        <v>2.333267449885577</v>
+        <v>22.03324434922999</v>
       </c>
       <c r="CD4">
-        <v>8.333150290912938</v>
+        <v>8.3216507569689</v>
       </c>
       <c r="CE4">
-        <v>7.333270787762108</v>
+        <v>0.3412970281084839</v>
       </c>
       <c r="CF4">
-        <v>2.333267449885577</v>
+        <v>15.29535472454752</v>
       </c>
       <c r="CG4">
-        <v>5.333270227005783</v>
+        <v>7.490207956862191</v>
       </c>
       <c r="CH4">
-        <v>13.33327144485625</v>
+        <v>147.7983501541914</v>
       </c>
       <c r="CI4">
-        <v>2.333267449885577</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="CJ4">
-        <v>7.333270787762108</v>
+        <v>0.3388593277501727</v>
       </c>
       <c r="CK4">
-        <v>4.333269743764101</v>
+        <v>21.93653777463927</v>
       </c>
       <c r="CL4">
-        <v>4.333269743764101</v>
+        <v>0.3539588687024796</v>
       </c>
       <c r="CM4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="CN4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="CO4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="CP4">
-        <v>2.333267449885577</v>
+        <v>16.49647540350265</v>
       </c>
       <c r="CQ4">
-        <v>2.333267449885577</v>
+        <v>3.052438134265323</v>
       </c>
       <c r="CR4">
-        <v>2.333267449885577</v>
+        <v>3.401576341859593</v>
       </c>
       <c r="CS4">
-        <v>2.333267449885577</v>
+        <v>134.5123630462284</v>
       </c>
       <c r="CT4">
-        <v>2.333267449885577</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="CU4">
-        <v>7.331766252552019</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="CV4">
-        <v>2.333267449885577</v>
+        <v>85.90326833804677</v>
       </c>
       <c r="CW4">
-        <v>2.333267449885577</v>
+        <v>0.394014403075917</v>
       </c>
       <c r="CX4">
-        <v>2.333267449885577</v>
+        <v>0.3557732206795963</v>
       </c>
       <c r="CY4">
-        <v>10.33307883085788</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="CZ4">
-        <v>43.33327198664173</v>
+        <v>9.318797146323677</v>
       </c>
       <c r="DA4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DB4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DC4">
-        <v>2.333267449885577</v>
+        <v>0.3612325595275062</v>
       </c>
       <c r="DD4">
-        <v>4.333269743764101</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DE4">
-        <v>12.33302461628454</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DF4">
-        <v>6.333270553067655</v>
+        <v>3.332185121470181</v>
       </c>
       <c r="DG4">
-        <v>2.333267449885577</v>
+        <v>8.271568169876938</v>
       </c>
       <c r="DH4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DI4">
-        <v>4.333269743764101</v>
+        <v>0.3436899038121052</v>
       </c>
       <c r="DJ4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DK4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DL4">
-        <v>2.333267449885577</v>
+        <v>6.656213688717409</v>
       </c>
       <c r="DM4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DN4">
-        <v>7.332918678547561</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DO4">
-        <v>4.333269743764101</v>
+        <v>0.3334175822529659</v>
       </c>
       <c r="DP4">
-        <v>2.333267449885577</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="DQ4">
-        <v>3.333128141830329</v>
+        <v>3.333301037069106</v>
       </c>
       <c r="DR4">
-        <v>4.333269743764101</v>
+        <v>15.34201610962369</v>
       </c>
       <c r="DS4">
-        <v>4.333269743764101</v>
+        <v>2.527761800329769</v>
       </c>
       <c r="DT4">
-        <v>2.333267449885577</v>
+        <v>22.73419036839469</v>
       </c>
       <c r="DU4">
-        <v>3.333268955335565</v>
+        <v>14.49714686613709</v>
       </c>
       <c r="DV4">
-        <v>2.333267449885577</v>
+        <v>0.3478608843522253</v>
       </c>
       <c r="DW4">
-        <v>3.333268955335565</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="DX4">
-        <v>13.33282855426748</v>
+        <v>0.3518388883884934</v>
       </c>
       <c r="DY4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="DZ4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EA4">
-        <v>4.333269743764101</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EB4">
-        <v>2.333267449885577</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="EC4">
-        <v>2.333267449885577</v>
+        <v>2.354610553426705</v>
       </c>
       <c r="ED4">
-        <v>2.333267449885577</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="EE4">
-        <v>2.333267449885577</v>
+        <v>10.09930023842682</v>
       </c>
       <c r="EF4">
-        <v>2.333267449885577</v>
+        <v>0.3847950160181223</v>
       </c>
       <c r="EG4">
-        <v>2.333267449885577</v>
+        <v>10.78181578247714</v>
       </c>
       <c r="EH4">
-        <v>16.33315212049369</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EI4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EJ4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EK4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EL4">
-        <v>2.333267449885577</v>
+        <v>4.329376814918549</v>
       </c>
       <c r="EM4">
-        <v>3.333268955335565</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="EN4">
-        <v>5.333270227005783</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EO4">
-        <v>2.333267449885577</v>
+        <v>0.367875434562316</v>
       </c>
       <c r="EP4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EQ4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="ER4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="ES4">
-        <v>12.33327138053812</v>
+        <v>9.913175469076215</v>
       </c>
       <c r="ET4">
-        <v>4.333269743764101</v>
+        <v>0.3694789757941054</v>
       </c>
       <c r="EU4">
-        <v>8.332301279704906</v>
+        <v>2.459208561853073</v>
       </c>
       <c r="EV4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EW4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EX4">
-        <v>5.333270227005783</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EY4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="EZ4">
-        <v>2.333267449885577</v>
+        <v>3.228234447797198</v>
       </c>
       <c r="FA4">
-        <v>12.33314807747248</v>
+        <v>0.3333414382422626</v>
       </c>
       <c r="FB4">
-        <v>3.333268955335565</v>
+        <v>3.332185121470181</v>
       </c>
       <c r="FC4">
-        <v>7.333651807199936</v>
+        <v>8.321831954400587</v>
       </c>
       <c r="FD4">
-        <v>2.333267449885577</v>
+        <v>38.53543386343993</v>
       </c>
       <c r="FE4">
-        <v>4.333269743764101</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FF4">
-        <v>2.333267449885577</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="FG4">
-        <v>3.333268955335565</v>
+        <v>12.91041898326474</v>
       </c>
       <c r="FH4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FI4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FJ4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FK4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FL4">
-        <v>5.333270227005783</v>
+        <v>3.561835041462682</v>
       </c>
       <c r="FM4">
-        <v>4.333269743764101</v>
+        <v>31.45279996462847</v>
       </c>
       <c r="FN4">
-        <v>2.333267449885577</v>
+        <v>4.333301432554238</v>
       </c>
       <c r="FO4">
-        <v>5.333270227005783</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FP4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FQ4">
-        <v>9.332998725554809</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FR4">
-        <v>4.333269743764101</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FS4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FT4">
-        <v>2.333267449885577</v>
+        <v>0.357336011942018</v>
       </c>
       <c r="FU4">
-        <v>2.333267449885577</v>
+        <v>0.3333412530935292</v>
       </c>
       <c r="FV4">
-        <v>0.3333383520827257</v>
+        <v>0.3347716295532618</v>
       </c>
       <c r="FW4">
-        <v>3.333128141830329</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="FX4">
-        <v>3.333128141830329</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FY4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="FZ4">
-        <v>2.333267449885577</v>
+        <v>3.28110500636968</v>
       </c>
       <c r="GA4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GB4">
-        <v>7.331022203103587</v>
+        <v>2.334112222969678</v>
       </c>
       <c r="GC4">
-        <v>4.333269743764101</v>
+        <v>257.6232153818165</v>
       </c>
       <c r="GD4">
-        <v>5.333074799522187</v>
+        <v>7.213246445905795</v>
       </c>
       <c r="GE4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GF4">
-        <v>3.333268955335565</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GG4">
-        <v>5.333270227005783</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GH4">
-        <v>1.330878193577856</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GI4">
-        <v>3.288467188097474</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GJ4">
-        <v>4.333269743764101</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GK4">
-        <v>3.333268955335565</v>
+        <v>2.334806076178958</v>
       </c>
       <c r="GL4">
-        <v>25.33317496732316</v>
+        <v>39.67408672715155</v>
       </c>
       <c r="GM4">
-        <v>2.333267449885577</v>
+        <v>0.3333419124473241</v>
       </c>
       <c r="GN4">
-        <v>6.333270553067655</v>
+        <v>0.3387263735625182</v>
       </c>
       <c r="GO4">
-        <v>0.3333385728818074</v>
+        <v>113.5470179621448</v>
       </c>
       <c r="GP4">
-        <v>2.333267449885577</v>
+        <v>7.722223076619119</v>
       </c>
       <c r="GQ4">
-        <v>3.333268955335565</v>
+        <v>3.256397701084561</v>
       </c>
       <c r="GR4">
-        <v>3.333268955335565</v>
+        <v>2.333300281925538</v>
       </c>
       <c r="GS4">
-        <v>19.33327168937415</v>
+        <v>2.333300281925538</v>
       </c>
     </row>
   </sheetData>

--- a/word_features/季/ENG,2020-1~2020-4,主题_词矩阵.xlsx
+++ b/word_features/季/ENG,2020-1~2020-4,主题_词矩阵.xlsx
@@ -14,606 +14,1206 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>abroad</t>
-  </si>
-  <si>
-    <t>academy</t>
-  </si>
-  <si>
-    <t>accounting</t>
-  </si>
-  <si>
-    <t>activated</t>
-  </si>
-  <si>
-    <t>addition</t>
-  </si>
-  <si>
-    <t>allocation</t>
-  </si>
-  <si>
-    <t>applauded</t>
-  </si>
-  <si>
-    <t>assistance</t>
-  </si>
-  <si>
-    <t>beds</t>
-  </si>
-  <si>
-    <t>cambodia</t>
-  </si>
-  <si>
-    <t>central</t>
-  </si>
-  <si>
-    <t>centralized</t>
-  </si>
-  <si>
-    <t>chances</t>
-  </si>
-  <si>
-    <t>characteristics</t>
-  </si>
-  <si>
-    <t>chen</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>chinese</t>
-  </si>
-  <si>
-    <t>chunlan</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>citys</t>
-  </si>
-  <si>
-    <t>collectivism</t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>commission</t>
-  </si>
-  <si>
-    <t>committee</t>
-  </si>
-  <si>
-    <t>communities</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>compatriots</t>
-  </si>
-  <si>
-    <t>comrade</t>
-  </si>
-  <si>
-    <t>confirmed</t>
-  </si>
-  <si>
-    <t>consular</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>cooperation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="403">
+  <si>
+    <t>abil</t>
+  </si>
+  <si>
+    <t>acceler</t>
+  </si>
+  <si>
+    <t>achiev</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>activ</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>adhanom</t>
+  </si>
+  <si>
+    <t>adopt</t>
+  </si>
+  <si>
+    <t>advanc</t>
+  </si>
+  <si>
+    <t>advantag</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>africa</t>
+  </si>
+  <si>
+    <t>agenc</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>alreadi</t>
+  </si>
+  <si>
+    <t>alway</t>
+  </si>
+  <si>
+    <t>ambassador</t>
+  </si>
+  <si>
+    <t>american</t>
+  </si>
+  <si>
+    <t>ani</t>
+  </si>
+  <si>
+    <t>announc</t>
+  </si>
+  <si>
+    <t>anoth</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>articl</t>
+  </si>
+  <si>
+    <t>asia</t>
+  </si>
+  <si>
+    <t>assist</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>avail</t>
+  </si>
+  <si>
+    <t>battl</t>
+  </si>
+  <si>
+    <t>becaus</t>
+  </si>
+  <si>
+    <t>becom</t>
+  </si>
+  <si>
+    <t>befor</t>
+  </si>
+  <si>
+    <t>believ</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>bilater</t>
+  </si>
+  <si>
+    <t>billion</t>
+  </si>
+  <si>
+    <t>blame</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>build</t>
+  </si>
+  <si>
+    <t>busi</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>capac</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>caus</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>chain</t>
+  </si>
+  <si>
+    <t>challeng</t>
+  </si>
+  <si>
+    <t>chang</t>
+  </si>
+  <si>
+    <t>chines</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>collabor</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>commit</t>
+  </si>
+  <si>
+    <t>common</t>
+  </si>
+  <si>
+    <t>commun</t>
+  </si>
+  <si>
+    <t>compar</t>
+  </si>
+  <si>
+    <t>comprehens</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>concert</t>
+  </si>
+  <si>
+    <t>confid</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>continu</t>
+  </si>
+  <si>
+    <t>contribut</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>coordin</t>
   </si>
   <si>
     <t>core</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>countrys</t>
-  </si>
-  <si>
-    <t>courageous</t>
+    <t>countri</t>
   </si>
   <si>
     <t>cpc</t>
   </si>
   <si>
-    <t>daily</t>
+    <t>creat</t>
+  </si>
+  <si>
+    <t>crisi</t>
+  </si>
+  <si>
+    <t>critic</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>daili</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>deal</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>decis</t>
+  </si>
+  <si>
+    <t>deepen</t>
   </si>
   <si>
     <t>defeat</t>
   </si>
   <si>
-    <t>designated</t>
-  </si>
-  <si>
-    <t>diplomacy</t>
-  </si>
-  <si>
-    <t>diplomatic</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>editions</t>
-  </si>
-  <si>
-    <t>engage</t>
-  </si>
-  <si>
-    <t>ensured</t>
-  </si>
-  <si>
-    <t>experienced</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t>faced</t>
-  </si>
-  <si>
-    <t>fangcang</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>festival</t>
-  </si>
-  <si>
-    <t>fierce</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>front</t>
+    <t>demonstr</t>
+  </si>
+  <si>
+    <t>despit</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>dialogu</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>difficulti</t>
+  </si>
+  <si>
+    <t>directorgener</t>
+  </si>
+  <si>
+    <t>diseas</t>
+  </si>
+  <si>
+    <t>disrupt</t>
+  </si>
+  <si>
+    <t>distanc</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>doe</t>
+  </si>
+  <si>
+    <t>donald</t>
+  </si>
+  <si>
+    <t>dont</t>
+  </si>
+  <si>
+    <t>dure</t>
+  </si>
+  <si>
+    <t>earli</t>
+  </si>
+  <si>
+    <t>econom</t>
+  </si>
+  <si>
+    <t>economi</t>
+  </si>
+  <si>
+    <t>effort</t>
+  </si>
+  <si>
+    <t>emerg</t>
+  </si>
+  <si>
+    <t>enabl</t>
+  </si>
+  <si>
+    <t>enemi</t>
+  </si>
+  <si>
+    <t>enhanc</t>
+  </si>
+  <si>
+    <t>enterpris</t>
+  </si>
+  <si>
+    <t>entir</t>
+  </si>
+  <si>
+    <t>era</t>
+  </si>
+  <si>
+    <t>especi</t>
+  </si>
+  <si>
+    <t>establish</t>
+  </si>
+  <si>
+    <t>europ</t>
+  </si>
+  <si>
+    <t>european</t>
+  </si>
+  <si>
+    <t>everi</t>
+  </si>
+  <si>
+    <t>exampl</t>
+  </si>
+  <si>
+    <t>exchang</t>
+  </si>
+  <si>
+    <t>exist</t>
+  </si>
+  <si>
+    <t>experi</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>express</t>
+  </si>
+  <si>
+    <t>extern</t>
+  </si>
+  <si>
+    <t>extraordinari</t>
+  </si>
+  <si>
+    <t>facilit</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>fellow</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>financ</t>
+  </si>
+  <si>
+    <t>financi</t>
+  </si>
+  <si>
+    <t>firm</t>
+  </si>
+  <si>
+    <t>fiscal</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>forc</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>foster</t>
+  </si>
+  <si>
+    <t>foundat</t>
+  </si>
+  <si>
+    <t>framework</t>
+  </si>
+  <si>
+    <t>franc</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>fund</t>
+  </si>
+  <si>
+    <t>fundament</t>
+  </si>
+  <si>
+    <t>futur</t>
+  </si>
+  <si>
+    <t>gdp</t>
+  </si>
+  <si>
+    <t>genom</t>
+  </si>
+  <si>
+    <t>ghebreyesu</t>
   </si>
   <si>
     <t>global</t>
   </si>
   <si>
-    <t>hardhit</t>
-  </si>
-  <si>
-    <t>headed</t>
-  </si>
-  <si>
-    <t>heart</t>
-  </si>
-  <si>
-    <t>historical</t>
-  </si>
-  <si>
-    <t>hospital</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>hu</t>
-  </si>
-  <si>
-    <t>hubei</t>
-  </si>
-  <si>
-    <t>huoshenshan</t>
-  </si>
-  <si>
-    <t>imported</t>
-  </si>
-  <si>
-    <t>instructed</t>
-  </si>
-  <si>
-    <t>instructions</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>jinping</t>
-  </si>
-  <si>
-    <t>lack</t>
-  </si>
-  <si>
-    <t>lai</t>
+    <t>globe</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>govern</t>
+  </si>
+  <si>
+    <t>governor</t>
+  </si>
+  <si>
+    <t>grow</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>happen</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>highli</t>
+  </si>
+  <si>
+    <t>histori</t>
+  </si>
+  <si>
+    <t>hospit</t>
+  </si>
+  <si>
+    <t>hous</t>
+  </si>
+  <si>
+    <t>howev</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>humanitarian</t>
+  </si>
+  <si>
+    <t>humankind</t>
+  </si>
+  <si>
+    <t>ideolog</t>
+  </si>
+  <si>
+    <t>immedi</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>imper</t>
+  </si>
+  <si>
+    <t>implement</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>impos</t>
+  </si>
+  <si>
+    <t>improv</t>
+  </si>
+  <si>
+    <t>inde</t>
+  </si>
+  <si>
+    <t>industri</t>
+  </si>
+  <si>
+    <t>infect</t>
+  </si>
+  <si>
+    <t>infecti</t>
+  </si>
+  <si>
+    <t>inform</t>
+  </si>
+  <si>
+    <t>initi</t>
+  </si>
+  <si>
+    <t>inject</t>
+  </si>
+  <si>
+    <t>institut</t>
+  </si>
+  <si>
+    <t>integr</t>
+  </si>
+  <si>
+    <t>interconnect</t>
+  </si>
+  <si>
+    <t>intern</t>
+  </si>
+  <si>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>isol</t>
+  </si>
+  <si>
+    <t>itali</t>
+  </si>
+  <si>
+    <t>jinp</t>
+  </si>
+  <si>
+    <t>joint</t>
+  </si>
+  <si>
+    <t>jointli</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>kingdom</t>
+  </si>
+  <si>
+    <t>korea</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>leader</t>
   </si>
   <si>
     <t>leadership</t>
   </si>
   <si>
-    <t>local</t>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>liquid</t>
+  </si>
+  <si>
+    <t>live</t>
   </si>
   <si>
     <t>lockdown</t>
   </si>
   <si>
-    <t>mainland</t>
+    <t>london</t>
+  </si>
+  <si>
+    <t>longterm</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>macroeconom</t>
+  </si>
+  <si>
+    <t>maintain</t>
   </si>
   <si>
     <t>major</t>
   </si>
   <si>
-    <t>makeshift</t>
+    <t>mani</t>
   </si>
   <si>
     <t>mankind</t>
   </si>
   <si>
-    <t>measure</t>
-  </si>
-  <si>
-    <t>mechanism</t>
-  </si>
-  <si>
-    <t>medical</t>
-  </si>
-  <si>
-    <t>mental</t>
-  </si>
-  <si>
-    <t>missions</t>
+    <t>manner</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>massiv</t>
+  </si>
+  <si>
+    <t>meanwhil</t>
+  </si>
+  <si>
+    <t>measur</t>
+  </si>
+  <si>
+    <t>mechan</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>minist</t>
+  </si>
+  <si>
+    <t>mobil</t>
+  </si>
+  <si>
+    <t>moment</t>
+  </si>
+  <si>
+    <t>monetari</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>moreov</t>
+  </si>
+  <si>
+    <t>morn</t>
+  </si>
+  <si>
+    <t>multilater</t>
+  </si>
+  <si>
+    <t>mutual</t>
   </si>
   <si>
     <t>nation</t>
   </si>
   <si>
-    <t>nationalities</t>
-  </si>
-  <si>
-    <t>nongovernment</t>
-  </si>
-  <si>
-    <t>normalcy</t>
-  </si>
-  <si>
-    <t>notion</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>outbound</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>outbreakrelated</t>
-  </si>
-  <si>
-    <t>passenger</t>
-  </si>
-  <si>
-    <t>patients</t>
-  </si>
-  <si>
-    <t>personally</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>plants</t>
-  </si>
-  <si>
-    <t>played</t>
-  </si>
-  <si>
-    <t>pmi</t>
-  </si>
-  <si>
-    <t>poem</t>
-  </si>
-  <si>
-    <t>position</t>
-  </si>
-  <si>
-    <t>positions</t>
-  </si>
-  <si>
-    <t>postcovid</t>
-  </si>
-  <si>
-    <t>provinciallevel</t>
-  </si>
-  <si>
-    <t>quarantined</t>
-  </si>
-  <si>
-    <t>rainbow</t>
-  </si>
-  <si>
-    <t>rallied</t>
-  </si>
-  <si>
-    <t>rallying</t>
-  </si>
-  <si>
-    <t>ratcheted</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
-    <t>reciprocated</t>
-  </si>
-  <si>
-    <t>reenergized</t>
-  </si>
-  <si>
-    <t>reject</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>residential</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>resolutely</t>
-  </si>
-  <si>
-    <t>resources</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>rok</t>
-  </si>
-  <si>
-    <t>rush</t>
-  </si>
-  <si>
-    <t>sacrifice</t>
-  </si>
-  <si>
-    <t>saiyasanexinhua</t>
-  </si>
-  <si>
-    <t>scaled</t>
-  </si>
-  <si>
-    <t>scaling</t>
-  </si>
-  <si>
-    <t>scapegoating</t>
-  </si>
-  <si>
-    <t>secretary</t>
-  </si>
-  <si>
-    <t>serbia</t>
-  </si>
-  <si>
-    <t>shanghai</t>
-  </si>
-  <si>
-    <t>shared</t>
-  </si>
-  <si>
-    <t>shelter</t>
-  </si>
-  <si>
-    <t>shortest</t>
-  </si>
-  <si>
-    <t>shouldered</t>
-  </si>
-  <si>
-    <t>sihavong</t>
-  </si>
-  <si>
-    <t>silk</t>
-  </si>
-  <si>
-    <t>sites</t>
-  </si>
-  <si>
-    <t>skyscrapers</t>
-  </si>
-  <si>
-    <t>smokeless</t>
-  </si>
-  <si>
-    <t>socialism</t>
-  </si>
-  <si>
-    <t>solidly</t>
-  </si>
-  <si>
-    <t>speeches</t>
-  </si>
-  <si>
-    <t>speedily</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>stayed</t>
-  </si>
-  <si>
-    <t>staying</t>
-  </si>
-  <si>
-    <t>steer</t>
-  </si>
-  <si>
-    <t>strained</t>
-  </si>
-  <si>
-    <t>strenuous</t>
-  </si>
-  <si>
-    <t>strives</t>
+    <t>necessarili</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>nurs</t>
+  </si>
+  <si>
+    <t>onc</t>
+  </si>
+  <si>
+    <t>onli</t>
+  </si>
+  <si>
+    <t>opinion</t>
+  </si>
+  <si>
+    <t>opportun</t>
+  </si>
+  <si>
+    <t>organ</t>
+  </si>
+  <si>
+    <t>outsid</t>
+  </si>
+  <si>
+    <t>overcom</t>
+  </si>
+  <si>
+    <t>pandem</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>peopl</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>polici</t>
+  </si>
+  <si>
+    <t>policymak</t>
+  </si>
+  <si>
+    <t>polit</t>
+  </si>
+  <si>
+    <t>popul</t>
+  </si>
+  <si>
+    <t>pose</t>
+  </si>
+  <si>
+    <t>posit</t>
+  </si>
+  <si>
+    <t>possibl</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>practic</t>
+  </si>
+  <si>
+    <t>prais</t>
+  </si>
+  <si>
+    <t>prepar</t>
+  </si>
+  <si>
+    <t>presid</t>
+  </si>
+  <si>
+    <t>prevail</t>
+  </si>
+  <si>
+    <t>prime</t>
+  </si>
+  <si>
+    <t>principl</t>
+  </si>
+  <si>
+    <t>proactiv</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>profound</t>
+  </si>
+  <si>
+    <t>promot</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>quarantin</t>
+  </si>
+  <si>
+    <t>quickli</t>
+  </si>
+  <si>
+    <t>rapid</t>
+  </si>
+  <si>
+    <t>rapidli</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>readi</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>realli</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>recess</t>
+  </si>
+  <si>
+    <t>recogn</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>recoveri</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>relat</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>repres</t>
+  </si>
+  <si>
+    <t>republ</t>
+  </si>
+  <si>
+    <t>resili</t>
+  </si>
+  <si>
+    <t>resolut</t>
+  </si>
+  <si>
+    <t>resourc</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>respons</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>restor</t>
+  </si>
+  <si>
+    <t>restrict</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>sacrific</t>
+  </si>
+  <si>
+    <t>safeguard</t>
+  </si>
+  <si>
+    <t>sar</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>scienc</t>
+  </si>
+  <si>
+    <t>scientif</t>
+  </si>
+  <si>
+    <t>secur</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>sens</t>
+  </si>
+  <si>
+    <t>sequenc</t>
+  </si>
+  <si>
+    <t>seriou</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>sever</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>signific</t>
+  </si>
+  <si>
+    <t>sincer</t>
+  </si>
+  <si>
+    <t>situat</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>societi</t>
+  </si>
+  <si>
+    <t>solid</t>
+  </si>
+  <si>
+    <t>solidar</t>
+  </si>
+  <si>
+    <t>solut</t>
+  </si>
+  <si>
+    <t>speech</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>stabil</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stigmat</t>
+  </si>
+  <si>
+    <t>stori</t>
+  </si>
+  <si>
+    <t>strateg</t>
+  </si>
+  <si>
+    <t>strategi</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>strengthen</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>strong</t>
   </si>
   <si>
     <t>stronger</t>
   </si>
   <si>
-    <t>sudden</t>
-  </si>
-  <si>
-    <t>sun</t>
-  </si>
-  <si>
-    <t>suspected</t>
+    <t>struggl</t>
+  </si>
+  <si>
+    <t>studi</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>summit</t>
+  </si>
+  <si>
+    <t>suppli</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>sympathi</t>
   </si>
   <si>
     <t>system</t>
   </si>
   <si>
-    <t>talked</t>
-  </si>
-  <si>
-    <t>tang</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>testament</t>
-  </si>
-  <si>
-    <t>thrown</t>
-  </si>
-  <si>
-    <t>tips</t>
-  </si>
-  <si>
-    <t>trail</t>
-  </si>
-  <si>
-    <t>transformed</t>
+    <t>tackl</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>tedro</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>therefor</t>
+  </si>
+  <si>
+    <t>thi</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>togeth</t>
+  </si>
+  <si>
+    <t>told</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>trace</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>transpar</t>
   </si>
   <si>
     <t>treatment</t>
   </si>
   <si>
-    <t>trips</t>
-  </si>
-  <si>
-    <t>truths</t>
-  </si>
-  <si>
-    <t>unbiased</t>
-  </si>
-  <si>
-    <t>underpinning</t>
-  </si>
-  <si>
-    <t>unequivocally</t>
-  </si>
-  <si>
-    <t>unfailing</t>
-  </si>
-  <si>
-    <t>unified</t>
-  </si>
-  <si>
-    <t>unswervingly</t>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>trump</t>
+  </si>
+  <si>
+    <t>trust</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>understand</t>
+  </si>
+  <si>
+    <t>union</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>uniti</t>
+  </si>
+  <si>
+    <t>univers</t>
+  </si>
+  <si>
+    <t>unpreced</t>
   </si>
   <si>
     <t>uphold</t>
   </si>
   <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>venezuela</t>
-  </si>
-  <si>
-    <t>verdict</t>
-  </si>
-  <si>
-    <t>vicepremier</t>
-  </si>
-  <si>
-    <t>vientiane</t>
-  </si>
-  <si>
-    <t>vigilant</t>
-  </si>
-  <si>
-    <t>virus</t>
+    <t>urgent</t>
+  </si>
+  <si>
+    <t>vaccin</t>
+  </si>
+  <si>
+    <t>valu</t>
+  </si>
+  <si>
+    <t>valuabl</t>
+  </si>
+  <si>
+    <t>variou</t>
+  </si>
+  <si>
+    <t>veri</t>
+  </si>
+  <si>
+    <t>victori</t>
+  </si>
+  <si>
+    <t>videoconfer</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>viru</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>wa</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>wattay</t>
-  </si>
-  <si>
-    <t>weapons</t>
-  </si>
-  <si>
-    <t>wellknown</t>
-  </si>
-  <si>
-    <t>wellplanned</t>
-  </si>
-  <si>
-    <t>wield</t>
-  </si>
-  <si>
-    <t>wipes</t>
-  </si>
-  <si>
-    <t>witnessed</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>wrestling</t>
-  </si>
-  <si>
-    <t>written</t>
-  </si>
-  <si>
-    <t>wuhan</t>
+    <t>warn</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>weak</t>
+  </si>
+  <si>
+    <t>weapon</t>
+  </si>
+  <si>
+    <t>wear</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>worldwid</t>
+  </si>
+  <si>
+    <t>writer</t>
   </si>
   <si>
     <t>xi</t>
   </si>
   <si>
-    <t>yu</t>
-  </si>
-  <si>
-    <t>zhen</t>
-  </si>
-  <si>
-    <t>zhengfor</t>
+    <t>xinhua</t>
+  </si>
+  <si>
+    <t>york</t>
   </si>
   <si>
     <t>主题1</t>
@@ -980,13 +1580,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GS4"/>
+  <dimension ref="A1:OK4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:201">
+    <row r="1" spans="1:401">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1587,1820 +2187,4220 @@
       <c r="GS1" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="GT1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="GU1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="GV1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="GW1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="GX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="GY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="GZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="HA1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="HB1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="HC1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="HD1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="HE1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="HF1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="HG1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="HH1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="HI1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="HJ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="HK1" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="HL1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="HM1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="HN1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="HO1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="HP1" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="HQ1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="HR1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="HS1" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="HT1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="HU1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="HV1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="HW1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="HX1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="HY1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="HZ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="IA1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="IB1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="IC1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="ID1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="IE1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="IF1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="IG1" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="IH1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="II1" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="IJ1" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="IK1" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="IL1" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="IM1" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="IN1" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="IO1" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="IP1" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="IQ1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR1" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="IS1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="IT1" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="IU1" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="IV1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="IW1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="IX1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="IY1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="IZ1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="JA1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="JB1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="JC1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="JD1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="JE1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="JF1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="JG1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="JH1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="JI1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="JJ1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="JK1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="JL1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="JM1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="JN1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="JO1" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="JP1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="JQ1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="JR1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="JS1" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="JT1" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="JU1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="JV1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="JW1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="JX1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="JY1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="JZ1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="KA1" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="KB1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="KC1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="KD1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="KE1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="KF1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="KG1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="KH1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="KI1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="KJ1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="KK1" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="KL1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="KM1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="KN1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="KO1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="KP1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="KQ1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="KR1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="KS1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="KT1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="KU1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="KV1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="KW1" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="KX1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="KY1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="KZ1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="LA1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="LB1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="LC1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="LD1" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="LE1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="LF1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="LG1" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="LH1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="LI1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="LJ1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="LK1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="LL1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="LM1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="LN1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="LO1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="LP1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="LQ1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="LR1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="LS1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="LT1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="LU1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="LV1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="LW1" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="LX1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="LY1" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="LZ1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="MA1" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="MB1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="MC1" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="MD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="ME1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="MF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="MG1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="MH1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="MI1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="MJ1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="MK1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="ML1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="MM1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="MN1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="MO1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="MP1" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="MQ1" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="MR1" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="MS1" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="MT1" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="MU1" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="MV1" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="MW1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="MX1" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="MY1" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="MZ1" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="NA1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="NB1" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="NC1" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="ND1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="NE1" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="NF1" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="NG1" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="NH1" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="NI1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="NJ1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="NK1" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="NL1" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="NM1" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="NN1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="NO1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="NP1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="NQ1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="NR1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="NS1" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="NT1" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="NU1" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="NV1" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="NW1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="NX1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="NY1" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="NZ1" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="OA1" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="OB1" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="OC1" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="OD1" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="OE1" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="OF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="OG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="OH1" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="OI1" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="OJ1" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="OK1" s="1" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="2" spans="1:201">
+    <row r="2" spans="1:401">
       <c r="A2" s="1" t="s">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="B2">
-        <v>0.3428553647062853</v>
+        <v>43.68383600551898</v>
       </c>
       <c r="C2">
-        <v>0.3343390965529616</v>
+        <v>121.3563431998906</v>
       </c>
       <c r="D2">
-        <v>0.3334661146029658</v>
+        <v>84.80494120444956</v>
       </c>
       <c r="E2">
-        <v>0.3333614737260081</v>
+        <v>45.71190804353439</v>
       </c>
       <c r="F2">
-        <v>8.260323020937046</v>
+        <v>192.6930729963341</v>
       </c>
       <c r="G2">
-        <v>1.191447438475119</v>
+        <v>31.52697875413526</v>
       </c>
       <c r="H2">
-        <v>0.3336425404958861</v>
+        <v>0.3515038518927298</v>
       </c>
       <c r="I2">
-        <v>8.847841350864847</v>
+        <v>116.5779514541237</v>
       </c>
       <c r="J2">
-        <v>0.3411704046775846</v>
+        <v>107.270315008668</v>
       </c>
       <c r="K2">
-        <v>0.3333692041154546</v>
+        <v>70.27292880635221</v>
       </c>
       <c r="L2">
-        <v>0.3642089725977977</v>
+        <v>183.810781541955</v>
       </c>
       <c r="M2">
-        <v>0.3341018580948546</v>
+        <v>2.284671646693857</v>
       </c>
       <c r="N2">
-        <v>2.280211148871458</v>
+        <v>19.69238602969405</v>
       </c>
       <c r="O2">
-        <v>0.3340266909103533</v>
+        <v>21.10052540896427</v>
       </c>
       <c r="P2">
-        <v>0.3499293097953582</v>
+        <v>109.0343090384893</v>
       </c>
       <c r="Q2">
-        <v>0.3912617839858322</v>
+        <v>0.3886597851514427</v>
       </c>
       <c r="R2">
-        <v>0.355375313587063</v>
+        <v>0.3536549859921779</v>
       </c>
       <c r="S2">
-        <v>0.3333614737260081</v>
+        <v>0.3981911480977023</v>
       </c>
       <c r="T2">
-        <v>0.3576809324455685</v>
+        <v>63.87963727484872</v>
       </c>
       <c r="U2">
-        <v>0.3439962726840608</v>
+        <v>70.12239380959525</v>
       </c>
       <c r="V2">
-        <v>0.3333614737260081</v>
+        <v>93.03117624499536</v>
       </c>
       <c r="W2">
-        <v>0.3333608307651915</v>
+        <v>28.31496955686905</v>
       </c>
       <c r="X2">
-        <v>0.3605589904344008</v>
+        <v>13.63350698852344</v>
       </c>
       <c r="Y2">
-        <v>13.1259288160852</v>
+        <v>41.23776222794647</v>
       </c>
       <c r="Z2">
-        <v>0.4379052819821859</v>
+        <v>81.23837614800183</v>
       </c>
       <c r="AA2">
-        <v>0.3785776774198275</v>
+        <v>199.4625041254119</v>
       </c>
       <c r="AB2">
-        <v>0.3340942013146892</v>
+        <v>22.16401836884168</v>
       </c>
       <c r="AC2">
-        <v>0.3335277172803049</v>
+        <v>55.83553627120286</v>
       </c>
       <c r="AD2">
-        <v>2.893106345528182</v>
+        <v>84.30427606392081</v>
       </c>
       <c r="AE2">
-        <v>0.3333683844564842</v>
+        <v>105.0375508245727</v>
       </c>
       <c r="AF2">
-        <v>0.5132247567140691</v>
+        <v>67.13348323890749</v>
       </c>
       <c r="AG2">
-        <v>0.3745714303300808</v>
+        <v>51.4000420231347</v>
       </c>
       <c r="AH2">
-        <v>0.3408132712718225</v>
+        <v>66.69369641560502</v>
       </c>
       <c r="AI2">
-        <v>137.0249457581081</v>
+        <v>0.3577439141635196</v>
       </c>
       <c r="AJ2">
-        <v>0.397578531610168</v>
+        <v>284.1101238561529</v>
       </c>
       <c r="AK2">
-        <v>0.3333990041885715</v>
+        <v>0.3484748878696889</v>
       </c>
       <c r="AL2">
-        <v>0.3360401466447488</v>
+        <v>176.5685091090117</v>
       </c>
       <c r="AM2">
-        <v>2.074219749110928</v>
+        <v>0.6391850838428996</v>
       </c>
       <c r="AN2">
-        <v>0.4474326311757967</v>
+        <v>100.3138283997225</v>
       </c>
       <c r="AO2">
-        <v>0.3835012932634124</v>
+        <v>357.63437865888</v>
       </c>
       <c r="AP2">
-        <v>0.3357649298778424</v>
+        <v>91.369515657577</v>
       </c>
       <c r="AQ2">
-        <v>0.3337641387243216</v>
+        <v>184.6663417210945</v>
       </c>
       <c r="AR2">
-        <v>0.3334515877793031</v>
+        <v>29.54933565283184</v>
       </c>
       <c r="AS2">
-        <v>0.3333692041154546</v>
+        <v>125.5836311424817</v>
       </c>
       <c r="AT2">
-        <v>0.3333692041154546</v>
+        <v>83.96781862798112</v>
       </c>
       <c r="AU2">
-        <v>0.3335478210444282</v>
+        <v>261.234137289593</v>
       </c>
       <c r="AV2">
-        <v>0.3336643910558826</v>
+        <v>85.6455259495594</v>
       </c>
       <c r="AW2">
-        <v>2.318218042060134</v>
+        <v>124.2435991415571</v>
       </c>
       <c r="AX2">
-        <v>0.4421499466330632</v>
+        <v>291.1224421368005</v>
       </c>
       <c r="AY2">
-        <v>0.3333604940330167</v>
+        <v>0.4150851951518882</v>
       </c>
       <c r="AZ2">
-        <v>0.3516532675679693</v>
+        <v>91.25372670237238</v>
       </c>
       <c r="BA2">
-        <v>0.3370992900676712</v>
+        <v>27.49588231676135</v>
       </c>
       <c r="BB2">
-        <v>0.3333692041154546</v>
+        <v>21.88271534956619</v>
       </c>
       <c r="BC2">
-        <v>0.3578871463491714</v>
+        <v>19.29142222498941</v>
       </c>
       <c r="BD2">
-        <v>10.03695041300013</v>
+        <v>0.3768592312639593</v>
       </c>
       <c r="BE2">
-        <v>23.58261556285886</v>
+        <v>71.14694459751755</v>
       </c>
       <c r="BF2">
-        <v>0.3333692041154546</v>
+        <v>96.9302591839707</v>
       </c>
       <c r="BG2">
-        <v>0.3335345138264206</v>
+        <v>59.19858609512437</v>
       </c>
       <c r="BH2">
-        <v>0.3333692041154546</v>
+        <v>11.28768927136157</v>
       </c>
       <c r="BI2">
-        <v>0.3433769560069896</v>
+        <v>49.75060693736393</v>
       </c>
       <c r="BJ2">
-        <v>0.3748819655968042</v>
+        <v>2.682152623191523</v>
       </c>
       <c r="BK2">
-        <v>4.1589258334818</v>
+        <v>104.7554302928174</v>
       </c>
       <c r="BL2">
-        <v>0.3333614737260081</v>
+        <v>0.3852926165868088</v>
       </c>
       <c r="BM2">
-        <v>0.3433812386854046</v>
+        <v>0.4070626339629575</v>
       </c>
       <c r="BN2">
-        <v>0.3370992900676712</v>
+        <v>236.7993911426328</v>
       </c>
       <c r="BO2">
-        <v>1.289343533985935</v>
+        <v>104.2404555128035</v>
       </c>
       <c r="BP2">
-        <v>0.3333692041154546</v>
+        <v>53.85953015952339</v>
       </c>
       <c r="BQ2">
-        <v>0.333418970072374</v>
+        <v>117.6078770418402</v>
       </c>
       <c r="BR2">
-        <v>20.32149467199684</v>
+        <v>31.39605619151704</v>
       </c>
       <c r="BS2">
-        <v>0.4233541417891729</v>
+        <v>363.4587578609416</v>
       </c>
       <c r="BT2">
-        <v>0.3706375532269514</v>
+        <v>0.3918453076880261</v>
       </c>
       <c r="BU2">
-        <v>9.851010264909712</v>
+        <v>117.0006938756956</v>
       </c>
       <c r="BV2">
-        <v>0.3370912626126267</v>
+        <v>124.520123441205</v>
       </c>
       <c r="BW2">
-        <v>4.979076782910663</v>
+        <v>45.22204888442815</v>
       </c>
       <c r="BX2">
-        <v>0.3333614737260081</v>
+        <v>146.2077657080337</v>
       </c>
       <c r="BY2">
-        <v>3.720809424433155</v>
+        <v>304.1375662298249</v>
       </c>
       <c r="BZ2">
-        <v>1.995346963334425</v>
+        <v>104.7772303625931</v>
       </c>
       <c r="CA2">
-        <v>2.71854765894098</v>
+        <v>85.88946888377689</v>
       </c>
       <c r="CB2">
-        <v>0.3730119413399394</v>
+        <v>0.3658252724195982</v>
       </c>
       <c r="CC2">
-        <v>0.3847954013299933</v>
+        <v>50.25340548462378</v>
       </c>
       <c r="CD2">
-        <v>0.334191367788005</v>
+        <v>16.77413787620377</v>
       </c>
       <c r="CE2">
-        <v>0.3393422611571145</v>
+        <v>7.51699588642919</v>
       </c>
       <c r="CF2">
-        <v>0.3537894597744486</v>
+        <v>0.3587347694056846</v>
       </c>
       <c r="CG2">
-        <v>0.3437577351346366</v>
+        <v>12.38939458585883</v>
       </c>
       <c r="CH2">
-        <v>6.867407165510399</v>
+        <v>79.46959898221729</v>
       </c>
       <c r="CI2">
-        <v>0.3333614737260081</v>
+        <v>387.114382761929</v>
       </c>
       <c r="CJ2">
-        <v>0.3467563212017114</v>
+        <v>0.3850803408090447</v>
       </c>
       <c r="CK2">
-        <v>8.204473406824413</v>
+        <v>0.3536659841059528</v>
       </c>
       <c r="CL2">
-        <v>0.3452700045155602</v>
+        <v>57.33154373102796</v>
       </c>
       <c r="CM2">
-        <v>0.3333713034836212</v>
+        <v>111.2827694456697</v>
       </c>
       <c r="CN2">
-        <v>0.3333713034836212</v>
+        <v>27.79182160696083</v>
       </c>
       <c r="CO2">
-        <v>0.3333713034836212</v>
+        <v>25.4884808357506</v>
       </c>
       <c r="CP2">
-        <v>4.266209850526747</v>
+        <v>100.1427571947508</v>
       </c>
       <c r="CQ2">
-        <v>1.604314292873166</v>
+        <v>0.3711847343675937</v>
       </c>
       <c r="CR2">
-        <v>0.3335223173278266</v>
+        <v>0.3675066236571033</v>
       </c>
       <c r="CS2">
-        <v>0.419414943722553</v>
+        <v>21.61799601938943</v>
       </c>
       <c r="CT2">
-        <v>0.3333692041154546</v>
+        <v>0.3619835600674493</v>
       </c>
       <c r="CU2">
-        <v>0.3333614737260081</v>
+        <v>26.11946713253034</v>
       </c>
       <c r="CV2">
-        <v>15.25334575447788</v>
+        <v>262.7196925705896</v>
       </c>
       <c r="CW2">
-        <v>0.3340942013146892</v>
+        <v>65.33696289615671</v>
       </c>
       <c r="CX2">
-        <v>0.3679869617339633</v>
+        <v>424.3687780722342</v>
       </c>
       <c r="CY2">
-        <v>0.3333713034836212</v>
+        <v>354.5675891796705</v>
       </c>
       <c r="CZ2">
-        <v>0.3591957375733274</v>
+        <v>292.1571454548052</v>
       </c>
       <c r="DA2">
-        <v>0.3333713034836212</v>
+        <v>156.2653159659425</v>
       </c>
       <c r="DB2">
-        <v>0.3333713034836212</v>
+        <v>68.64003621051917</v>
       </c>
       <c r="DC2">
-        <v>4.06656592133375</v>
+        <v>0.3515373048199295</v>
       </c>
       <c r="DD2">
-        <v>0.3333713034836212</v>
+        <v>107.2883182818582</v>
       </c>
       <c r="DE2">
-        <v>0.3333713034836212</v>
+        <v>309.2414251927036</v>
       </c>
       <c r="DF2">
-        <v>0.3335073690368934</v>
+        <v>18.47128406538996</v>
       </c>
       <c r="DG2">
-        <v>0.3638850608558739</v>
+        <v>12.7308178125982</v>
       </c>
       <c r="DH2">
-        <v>0.3333713034836212</v>
+        <v>131.7273386355681</v>
       </c>
       <c r="DI2">
-        <v>1.31850286656136</v>
+        <v>102.5425809627453</v>
       </c>
       <c r="DJ2">
-        <v>0.3333713034836212</v>
+        <v>26.32311717845419</v>
       </c>
       <c r="DK2">
-        <v>0.3333713034836212</v>
+        <v>21.31657048220774</v>
       </c>
       <c r="DL2">
-        <v>2.190971847682155</v>
+        <v>24.58114537777243</v>
       </c>
       <c r="DM2">
-        <v>0.3333713034836212</v>
+        <v>60.50520123920719</v>
       </c>
       <c r="DN2">
-        <v>0.3333713034836212</v>
+        <v>45.011247570234</v>
       </c>
       <c r="DO2">
-        <v>0.9641876590987812</v>
+        <v>39.40200911317708</v>
       </c>
       <c r="DP2">
-        <v>0.3333692041154546</v>
+        <v>30.53149880316402</v>
       </c>
       <c r="DQ2">
-        <v>0.3333608307651915</v>
+        <v>43.88417021277928</v>
       </c>
       <c r="DR2">
-        <v>2.319416748901675</v>
+        <v>16.63875462182062</v>
       </c>
       <c r="DS2">
-        <v>0.3335345138264206</v>
+        <v>47.72187849609667</v>
       </c>
       <c r="DT2">
-        <v>4.165588709418431</v>
+        <v>0.4417257393492515</v>
       </c>
       <c r="DU2">
-        <v>53.9200634237534</v>
+        <v>82.78842247350862</v>
       </c>
       <c r="DV2">
-        <v>0.3554064916884386</v>
+        <v>0.4022039918083146</v>
       </c>
       <c r="DW2">
-        <v>0.3333614737260081</v>
+        <v>21.25550858684409</v>
       </c>
       <c r="DX2">
-        <v>0.3336905300856397</v>
+        <v>124.79835380247</v>
       </c>
       <c r="DY2">
-        <v>0.3333713034836212</v>
+        <v>155.2730196235455</v>
       </c>
       <c r="DZ2">
-        <v>0.3333713034836212</v>
+        <v>300.2124360305933</v>
       </c>
       <c r="EA2">
-        <v>0.3333713034836212</v>
+        <v>135.8293263234092</v>
       </c>
       <c r="EB2">
-        <v>0.3333692041154546</v>
+        <v>81.30276449952821</v>
       </c>
       <c r="EC2">
-        <v>11.06162288172759</v>
+        <v>74.58475704068891</v>
       </c>
       <c r="ED2">
-        <v>0.3333692041154546</v>
+        <v>70.6285729936527</v>
       </c>
       <c r="EE2">
-        <v>0.3514232319053747</v>
+        <v>124.5714331633335</v>
       </c>
       <c r="EF2">
-        <v>0.3674946174439249</v>
+        <v>23.2323448810911</v>
       </c>
       <c r="EG2">
-        <v>1.874385994600014</v>
+        <v>27.04417053069968</v>
       </c>
       <c r="EH2">
-        <v>0.3333713034836212</v>
+        <v>0.3725307882287721</v>
       </c>
       <c r="EI2">
-        <v>0.3333713034836212</v>
+        <v>0.3982163106826085</v>
       </c>
       <c r="EJ2">
-        <v>0.3333713034836212</v>
+        <v>0.3511449758878666</v>
       </c>
       <c r="EK2">
-        <v>0.3333713034836212</v>
+        <v>198.2817753294506</v>
       </c>
       <c r="EL2">
-        <v>0.3372662439498652</v>
+        <v>55.99344781756291</v>
       </c>
       <c r="EM2">
-        <v>0.3333614737260081</v>
+        <v>100.230673815409</v>
       </c>
       <c r="EN2">
-        <v>0.3333713034836212</v>
+        <v>73.24691459884019</v>
       </c>
       <c r="EO2">
-        <v>0.3337869795474063</v>
+        <v>0.3642287417507988</v>
       </c>
       <c r="EP2">
-        <v>0.3333713034836212</v>
+        <v>0.3522163687011138</v>
       </c>
       <c r="EQ2">
-        <v>0.3333713034836212</v>
+        <v>239.6458403808421</v>
       </c>
       <c r="ER2">
-        <v>0.3333713034836212</v>
+        <v>21.56761145540093</v>
       </c>
       <c r="ES2">
-        <v>1.732568332935879</v>
+        <v>72.48578448275552</v>
       </c>
       <c r="ET2">
-        <v>0.3461484735394195</v>
+        <v>316.5034414895046</v>
       </c>
       <c r="EU2">
-        <v>1.191447438475119</v>
+        <v>11.99869872689789</v>
       </c>
       <c r="EV2">
-        <v>0.3333713034836212</v>
+        <v>112.788628843797</v>
       </c>
       <c r="EW2">
-        <v>0.3333713034836212</v>
+        <v>222.4744973518366</v>
       </c>
       <c r="EX2">
-        <v>0.3333713034836212</v>
+        <v>31.02935688908855</v>
       </c>
       <c r="EY2">
-        <v>0.3333713034836212</v>
+        <v>9.612461876618481</v>
       </c>
       <c r="EZ2">
-        <v>0.3580201681592483</v>
+        <v>100.1301370509394</v>
       </c>
       <c r="FA2">
-        <v>0.3333692041154546</v>
+        <v>24.48421486545666</v>
       </c>
       <c r="FB2">
-        <v>0.3335073690368934</v>
+        <v>12.97543894172522</v>
       </c>
       <c r="FC2">
-        <v>0.3340328263747793</v>
+        <v>13.85157621528225</v>
       </c>
       <c r="FD2">
-        <v>10.67720217978921</v>
+        <v>6.675058529622619</v>
       </c>
       <c r="FE2">
-        <v>0.3333713034836212</v>
+        <v>122.8538436190971</v>
       </c>
       <c r="FF2">
-        <v>0.3333614737260081</v>
+        <v>77.28273665927486</v>
       </c>
       <c r="FG2">
-        <v>3.106777378610364</v>
+        <v>22.42534758497306</v>
       </c>
       <c r="FH2">
-        <v>0.3333713034836212</v>
+        <v>0.4135643481423451</v>
       </c>
       <c r="FI2">
-        <v>0.3333713034836212</v>
+        <v>0.3509253458382268</v>
       </c>
       <c r="FJ2">
-        <v>0.3333713034836212</v>
+        <v>0.371951769720151</v>
       </c>
       <c r="FK2">
-        <v>0.3333713034836212</v>
+        <v>11.55939792939566</v>
       </c>
       <c r="FL2">
-        <v>0.3339635078059643</v>
+        <v>369.8539778522773</v>
       </c>
       <c r="FM2">
-        <v>21.65852433330965</v>
+        <v>4.182890215707962</v>
       </c>
       <c r="FN2">
-        <v>0.3333604940330167</v>
+        <v>147.8352988801525</v>
       </c>
       <c r="FO2">
-        <v>0.3333713034836212</v>
+        <v>225.4456251268521</v>
       </c>
       <c r="FP2">
-        <v>0.3333713034836212</v>
+        <v>20.01794789176879</v>
       </c>
       <c r="FQ2">
-        <v>0.3333713034836212</v>
+        <v>230.1145749514751</v>
       </c>
       <c r="FR2">
-        <v>0.3333713034836212</v>
+        <v>0.3991115586656256</v>
       </c>
       <c r="FS2">
-        <v>0.3333713034836212</v>
+        <v>442.2374099143594</v>
       </c>
       <c r="FT2">
-        <v>0.3339449055440336</v>
+        <v>39.84520899176525</v>
       </c>
       <c r="FU2">
-        <v>0.3333683844564842</v>
+        <v>0.3635632890834424</v>
       </c>
       <c r="FV2">
-        <v>0.3380289225857924</v>
+        <v>146.31672729468</v>
       </c>
       <c r="FW2">
-        <v>0.3333614737260081</v>
+        <v>71.41550813812418</v>
       </c>
       <c r="FX2">
-        <v>0.3333713034836212</v>
+        <v>38.32023193838906</v>
       </c>
       <c r="FY2">
-        <v>0.3333713034836212</v>
+        <v>171.8754255943554</v>
       </c>
       <c r="FZ2">
-        <v>0.3337685152261525</v>
+        <v>57.25308673289459</v>
       </c>
       <c r="GA2">
-        <v>0.3333713034836212</v>
+        <v>9.506308879845106</v>
       </c>
       <c r="GB2">
-        <v>1.316905154872746</v>
+        <v>192.6438423237459</v>
       </c>
       <c r="GC2">
-        <v>24.39404952976044</v>
+        <v>206.2683098477658</v>
       </c>
       <c r="GD2">
-        <v>0.3454427802496919</v>
+        <v>0.4092190632204334</v>
       </c>
       <c r="GE2">
-        <v>0.3333713034836212</v>
+        <v>0.4001509072557304</v>
       </c>
       <c r="GF2">
-        <v>0.3333713034836212</v>
+        <v>0.3844444951384504</v>
       </c>
       <c r="GG2">
-        <v>0.3333713034836212</v>
+        <v>47.85367968601521</v>
       </c>
       <c r="GH2">
-        <v>0.3333713034836212</v>
+        <v>38.4635214868953</v>
       </c>
       <c r="GI2">
-        <v>0.3333713034836212</v>
+        <v>219.5933989943122</v>
       </c>
       <c r="GJ2">
-        <v>0.3333713034836212</v>
+        <v>0.377935866887789</v>
       </c>
       <c r="GK2">
-        <v>0.3335582937990267</v>
+        <v>50.72071321826526</v>
       </c>
       <c r="GL2">
-        <v>40.94442105705579</v>
+        <v>159.4865088684963</v>
       </c>
       <c r="GM2">
-        <v>0.3333713034836212</v>
+        <v>16.5510407854586</v>
       </c>
       <c r="GN2">
-        <v>0.333502731297201</v>
+        <v>2.870018543817749</v>
       </c>
       <c r="GO2">
-        <v>0.3372812699088121</v>
+        <v>0.4250209731977421</v>
       </c>
       <c r="GP2">
-        <v>0.3380490366622069</v>
+        <v>215.1534013968729</v>
       </c>
       <c r="GQ2">
-        <v>0.3338182390831817</v>
+        <v>62.29887537987963</v>
       </c>
       <c r="GR2">
-        <v>0.3333614737260081</v>
+        <v>2.755380105691969</v>
       </c>
       <c r="GS2">
-        <v>0.3333614737260081</v>
+        <v>30.50926300538725</v>
+      </c>
+      <c r="GT2">
+        <v>0.3868534758456763</v>
+      </c>
+      <c r="GU2">
+        <v>121.6460378052239</v>
+      </c>
+      <c r="GV2">
+        <v>0.4179606161436586</v>
+      </c>
+      <c r="GW2">
+        <v>26.49926388296747</v>
+      </c>
+      <c r="GX2">
+        <v>149.978864493434</v>
+      </c>
+      <c r="GY2">
+        <v>231.906607008105</v>
+      </c>
+      <c r="GZ2">
+        <v>153.7839821356414</v>
+      </c>
+      <c r="HA2">
+        <v>0.3489396879514082</v>
+      </c>
+      <c r="HB2">
+        <v>84.672220118974</v>
+      </c>
+      <c r="HC2">
+        <v>458.7204773012637</v>
+      </c>
+      <c r="HD2">
+        <v>43.95901642516111</v>
+      </c>
+      <c r="HE2">
+        <v>42.59016103229475</v>
+      </c>
+      <c r="HF2">
+        <v>369.6269112148926</v>
+      </c>
+      <c r="HG2">
+        <v>85.8219624007082</v>
+      </c>
+      <c r="HH2">
+        <v>214.0240957436378</v>
+      </c>
+      <c r="HI2">
+        <v>7.463530178499417</v>
+      </c>
+      <c r="HJ2">
+        <v>97.04794141546458</v>
+      </c>
+      <c r="HK2">
+        <v>5.872963408247883</v>
+      </c>
+      <c r="HL2">
+        <v>87.29741780007114</v>
+      </c>
+      <c r="HM2">
+        <v>187.3019285069626</v>
+      </c>
+      <c r="HN2">
+        <v>40.49537042772</v>
+      </c>
+      <c r="HO2">
+        <v>0.3529519189117415</v>
+      </c>
+      <c r="HP2">
+        <v>3.941280945684734</v>
+      </c>
+      <c r="HQ2">
+        <v>0.3747629608097258</v>
+      </c>
+      <c r="HR2">
+        <v>254.1831923119266</v>
+      </c>
+      <c r="HS2">
+        <v>50.28324689920191</v>
+      </c>
+      <c r="HT2">
+        <v>87.25866768884816</v>
+      </c>
+      <c r="HU2">
+        <v>0.360513792865813</v>
+      </c>
+      <c r="HV2">
+        <v>52.56447927984379</v>
+      </c>
+      <c r="HW2">
+        <v>116.5921214728419</v>
+      </c>
+      <c r="HX2">
+        <v>0.389206254599486</v>
+      </c>
+      <c r="HY2">
+        <v>107.2571206187862</v>
+      </c>
+      <c r="HZ2">
+        <v>101.8276308615253</v>
+      </c>
+      <c r="IA2">
+        <v>45.14130735625465</v>
+      </c>
+      <c r="IB2">
+        <v>0.4007927142741637</v>
+      </c>
+      <c r="IC2">
+        <v>99.4741519989869</v>
+      </c>
+      <c r="ID2">
+        <v>13.25383179233506</v>
+      </c>
+      <c r="IE2">
+        <v>51.37415072507708</v>
+      </c>
+      <c r="IF2">
+        <v>0.3932952490329681</v>
+      </c>
+      <c r="IG2">
+        <v>203.2522301607992</v>
+      </c>
+      <c r="IH2">
+        <v>0.4073946061220241</v>
+      </c>
+      <c r="II2">
+        <v>167.4533027090023</v>
+      </c>
+      <c r="IJ2">
+        <v>118.7658355960799</v>
+      </c>
+      <c r="IK2">
+        <v>321.0343232197081</v>
+      </c>
+      <c r="IL2">
+        <v>44.2443256732717</v>
+      </c>
+      <c r="IM2">
+        <v>8.269306082615069</v>
+      </c>
+      <c r="IN2">
+        <v>55.81212666440778</v>
+      </c>
+      <c r="IO2">
+        <v>22.23146180546712</v>
+      </c>
+      <c r="IP2">
+        <v>76.07663607914667</v>
+      </c>
+      <c r="IQ2">
+        <v>145.7409446126245</v>
+      </c>
+      <c r="IR2">
+        <v>96.93923269587155</v>
+      </c>
+      <c r="IS2">
+        <v>36.55634179056658</v>
+      </c>
+      <c r="IT2">
+        <v>0.3846116987455432</v>
+      </c>
+      <c r="IU2">
+        <v>84.96801946397224</v>
+      </c>
+      <c r="IV2">
+        <v>50.05990813406827</v>
+      </c>
+      <c r="IW2">
+        <v>0.3926288758448077</v>
+      </c>
+      <c r="IX2">
+        <v>6.35599497622542</v>
+      </c>
+      <c r="IY2">
+        <v>18.87676339249422</v>
+      </c>
+      <c r="IZ2">
+        <v>41.25863109573917</v>
+      </c>
+      <c r="JA2">
+        <v>33.9181181369149</v>
+      </c>
+      <c r="JB2">
+        <v>11.27021850422829</v>
+      </c>
+      <c r="JC2">
+        <v>217.4219583637829</v>
+      </c>
+      <c r="JD2">
+        <v>141.9630514840307</v>
+      </c>
+      <c r="JE2">
+        <v>5.652136543961464</v>
+      </c>
+      <c r="JF2">
+        <v>79.77322721695283</v>
+      </c>
+      <c r="JG2">
+        <v>33.02765100434658</v>
+      </c>
+      <c r="JH2">
+        <v>70.4053001527726</v>
+      </c>
+      <c r="JI2">
+        <v>194.3959013581184</v>
+      </c>
+      <c r="JJ2">
+        <v>0.3883340731877425</v>
+      </c>
+      <c r="JK2">
+        <v>80.71624664890805</v>
+      </c>
+      <c r="JL2">
+        <v>5.057574094969216</v>
+      </c>
+      <c r="JM2">
+        <v>72.44388026328902</v>
+      </c>
+      <c r="JN2">
+        <v>71.95968255823996</v>
+      </c>
+      <c r="JO2">
+        <v>10.67275796098994</v>
+      </c>
+      <c r="JP2">
+        <v>11.70782780343826</v>
+      </c>
+      <c r="JQ2">
+        <v>131.3661217509287</v>
+      </c>
+      <c r="JR2">
+        <v>74.82582340301798</v>
+      </c>
+      <c r="JS2">
+        <v>149.081078699691</v>
+      </c>
+      <c r="JT2">
+        <v>95.57613011238338</v>
+      </c>
+      <c r="JU2">
+        <v>117.2354271467388</v>
+      </c>
+      <c r="JV2">
+        <v>25.64202250229706</v>
+      </c>
+      <c r="JW2">
+        <v>23.92740779481111</v>
+      </c>
+      <c r="JX2">
+        <v>93.21374263021403</v>
+      </c>
+      <c r="JY2">
+        <v>7.615449091452237</v>
+      </c>
+      <c r="JZ2">
+        <v>159.6415039075063</v>
+      </c>
+      <c r="KA2">
+        <v>53.48092527860886</v>
+      </c>
+      <c r="KB2">
+        <v>58.6986833739584</v>
+      </c>
+      <c r="KC2">
+        <v>112.3925541660067</v>
+      </c>
+      <c r="KD2">
+        <v>31.7599557302912</v>
+      </c>
+      <c r="KE2">
+        <v>105.3386384705428</v>
+      </c>
+      <c r="KF2">
+        <v>103.4511505889996</v>
+      </c>
+      <c r="KG2">
+        <v>107.9642754388279</v>
+      </c>
+      <c r="KH2">
+        <v>110.7669367973845</v>
+      </c>
+      <c r="KI2">
+        <v>173.6935352320169</v>
+      </c>
+      <c r="KJ2">
+        <v>140.1894241431729</v>
+      </c>
+      <c r="KK2">
+        <v>0.3638604474591504</v>
+      </c>
+      <c r="KL2">
+        <v>23.63688810201117</v>
+      </c>
+      <c r="KM2">
+        <v>28.06001716230852</v>
+      </c>
+      <c r="KN2">
+        <v>8.350068242712181</v>
+      </c>
+      <c r="KO2">
+        <v>66.01207106666011</v>
+      </c>
+      <c r="KP2">
+        <v>48.19062630963165</v>
+      </c>
+      <c r="KQ2">
+        <v>18.97673485378795</v>
+      </c>
+      <c r="KR2">
+        <v>147.0013853162529</v>
+      </c>
+      <c r="KS2">
+        <v>48.77532522256563</v>
+      </c>
+      <c r="KT2">
+        <v>0.4116360964114374</v>
+      </c>
+      <c r="KU2">
+        <v>0.3648561511022754</v>
+      </c>
+      <c r="KV2">
+        <v>18.72319468715727</v>
+      </c>
+      <c r="KW2">
+        <v>143.2068850629039</v>
+      </c>
+      <c r="KX2">
+        <v>185.893452395705</v>
+      </c>
+      <c r="KY2">
+        <v>53.08020277627818</v>
+      </c>
+      <c r="KZ2">
+        <v>89.53562887577249</v>
+      </c>
+      <c r="LA2">
+        <v>0.3446528910269193</v>
+      </c>
+      <c r="LB2">
+        <v>139.1690720231056</v>
+      </c>
+      <c r="LC2">
+        <v>174.526991908688</v>
+      </c>
+      <c r="LD2">
+        <v>44.65993937745644</v>
+      </c>
+      <c r="LE2">
+        <v>37.04062698144445</v>
+      </c>
+      <c r="LF2">
+        <v>0.3527684511393787</v>
+      </c>
+      <c r="LG2">
+        <v>44.72677185575851</v>
+      </c>
+      <c r="LH2">
+        <v>2.553211650292287</v>
+      </c>
+      <c r="LI2">
+        <v>4.073650392774498</v>
+      </c>
+      <c r="LJ2">
+        <v>132.6171620072136</v>
+      </c>
+      <c r="LK2">
+        <v>193.5903862298564</v>
+      </c>
+      <c r="LL2">
+        <v>21.42894955076305</v>
+      </c>
+      <c r="LM2">
+        <v>106.7491794760158</v>
+      </c>
+      <c r="LN2">
+        <v>14.37821058148609</v>
+      </c>
+      <c r="LO2">
+        <v>0.3448896043173511</v>
+      </c>
+      <c r="LP2">
+        <v>0.4072256797897547</v>
+      </c>
+      <c r="LQ2">
+        <v>11.70748110662005</v>
+      </c>
+      <c r="LR2">
+        <v>62.47774779044419</v>
+      </c>
+      <c r="LS2">
+        <v>0.4078474507437984</v>
+      </c>
+      <c r="LT2">
+        <v>37.93998706762443</v>
+      </c>
+      <c r="LU2">
+        <v>163.4511793480354</v>
+      </c>
+      <c r="LV2">
+        <v>49.0408552093546</v>
+      </c>
+      <c r="LW2">
+        <v>100.5583475623187</v>
+      </c>
+      <c r="LX2">
+        <v>30.44514702913631</v>
+      </c>
+      <c r="LY2">
+        <v>20.14260007162884</v>
+      </c>
+      <c r="LZ2">
+        <v>23.46856896488995</v>
+      </c>
+      <c r="MA2">
+        <v>33.12488960255556</v>
+      </c>
+      <c r="MB2">
+        <v>0.3661940606672586</v>
+      </c>
+      <c r="MC2">
+        <v>362.301539387924</v>
+      </c>
+      <c r="MD2">
+        <v>348.5767444030253</v>
+      </c>
+      <c r="ME2">
+        <v>0.3523937752474784</v>
+      </c>
+      <c r="MF2">
+        <v>217.7549932146691</v>
+      </c>
+      <c r="MG2">
+        <v>38.97811416248319</v>
+      </c>
+      <c r="MH2">
+        <v>21.96433880355498</v>
+      </c>
+      <c r="MI2">
+        <v>151.726277810096</v>
+      </c>
+      <c r="MJ2">
+        <v>41.56830670603303</v>
+      </c>
+      <c r="MK2">
+        <v>0.351734989317286</v>
+      </c>
+      <c r="ML2">
+        <v>115.3700642141703</v>
+      </c>
+      <c r="MM2">
+        <v>12.46858810750824</v>
+      </c>
+      <c r="MN2">
+        <v>62.50587859361011</v>
+      </c>
+      <c r="MO2">
+        <v>335.183798428483</v>
+      </c>
+      <c r="MP2">
+        <v>0.3794556706254912</v>
+      </c>
+      <c r="MQ2">
+        <v>219.8968261237279</v>
+      </c>
+      <c r="MR2">
+        <v>0.4007980213678498</v>
+      </c>
+      <c r="MS2">
+        <v>25.70179615439192</v>
+      </c>
+      <c r="MT2">
+        <v>0.4155865162127784</v>
+      </c>
+      <c r="MU2">
+        <v>0.372725965213266</v>
+      </c>
+      <c r="MV2">
+        <v>235.3926942389487</v>
+      </c>
+      <c r="MW2">
+        <v>0.3737369639974027</v>
+      </c>
+      <c r="MX2">
+        <v>14.27218476893202</v>
+      </c>
+      <c r="MY2">
+        <v>7.790867240371121</v>
+      </c>
+      <c r="MZ2">
+        <v>0.3941365051948362</v>
+      </c>
+      <c r="NA2">
+        <v>0.4139172089297716</v>
+      </c>
+      <c r="NB2">
+        <v>0.3605402779755658</v>
+      </c>
+      <c r="NC2">
+        <v>6.58836718965826</v>
+      </c>
+      <c r="ND2">
+        <v>22.1752057647524</v>
+      </c>
+      <c r="NE2">
+        <v>115.3671168693424</v>
+      </c>
+      <c r="NF2">
+        <v>0.352701141043689</v>
+      </c>
+      <c r="NG2">
+        <v>53.16524601042792</v>
+      </c>
+      <c r="NH2">
+        <v>33.77991053727687</v>
+      </c>
+      <c r="NI2">
+        <v>0.3587964082180305</v>
+      </c>
+      <c r="NJ2">
+        <v>89.63101946496914</v>
+      </c>
+      <c r="NK2">
+        <v>0.4198424366519705</v>
+      </c>
+      <c r="NL2">
+        <v>75.47035586818525</v>
+      </c>
+      <c r="NM2">
+        <v>0.3945342995549737</v>
+      </c>
+      <c r="NN2">
+        <v>94.50141535429027</v>
+      </c>
+      <c r="NO2">
+        <v>32.84729810538131</v>
+      </c>
+      <c r="NP2">
+        <v>0.3872724797154251</v>
+      </c>
+      <c r="NQ2">
+        <v>0.3656782643618903</v>
+      </c>
+      <c r="NR2">
+        <v>68.50189233369991</v>
+      </c>
+      <c r="NS2">
+        <v>107.4112790315051</v>
+      </c>
+      <c r="NT2">
+        <v>0.3691644305234011</v>
+      </c>
+      <c r="NU2">
+        <v>55.51590048835919</v>
+      </c>
+      <c r="NV2">
+        <v>194.1080723760061</v>
+      </c>
+      <c r="NW2">
+        <v>3.202301113323206</v>
+      </c>
+      <c r="NX2">
+        <v>16.06661559675422</v>
+      </c>
+      <c r="NY2">
+        <v>0.3822190113467419</v>
+      </c>
+      <c r="NZ2">
+        <v>14.15318540605231</v>
+      </c>
+      <c r="OA2">
+        <v>61.94087611665356</v>
+      </c>
+      <c r="OB2">
+        <v>3.915505485933488</v>
+      </c>
+      <c r="OC2">
+        <v>36.03326688254214</v>
+      </c>
+      <c r="OD2">
+        <v>68.57603248516578</v>
+      </c>
+      <c r="OE2">
+        <v>0.3761223130329772</v>
+      </c>
+      <c r="OF2">
+        <v>16.06250666281792</v>
+      </c>
+      <c r="OG2">
+        <v>36.62659382118899</v>
+      </c>
+      <c r="OH2">
+        <v>9.043091046040198</v>
+      </c>
+      <c r="OI2">
+        <v>0.3843348650757677</v>
+      </c>
+      <c r="OJ2">
+        <v>0.3880122103260199</v>
+      </c>
+      <c r="OK2">
+        <v>0.3655828223367001</v>
       </c>
     </row>
-    <row r="3" spans="1:201">
+    <row r="3" spans="1:401">
       <c r="A3" s="1" t="s">
-        <v>201</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>14.27133242710334</v>
+        <v>91.09853227837853</v>
       </c>
       <c r="C3">
-        <v>7.984770998918269</v>
+        <v>25.26009719082882</v>
       </c>
       <c r="D3">
-        <v>0.3484012018471531</v>
+        <v>139.1205828754044</v>
       </c>
       <c r="E3">
-        <v>0.3333382443478723</v>
+        <v>210.9879100747882</v>
       </c>
       <c r="F3">
-        <v>3.895332086339585</v>
+        <v>145.415712262646</v>
       </c>
       <c r="G3">
-        <v>0.3493439996708183</v>
+        <v>86.10144377748418</v>
       </c>
       <c r="H3">
-        <v>3.322017766980226</v>
+        <v>118.2479045717004</v>
       </c>
       <c r="I3">
-        <v>31.62547408392042</v>
+        <v>80.87145257515496</v>
       </c>
       <c r="J3">
-        <v>0.3384650170730191</v>
+        <v>68.76090936718103</v>
       </c>
       <c r="K3">
-        <v>2.333289357641407</v>
+        <v>44.3417957147899</v>
       </c>
       <c r="L3">
-        <v>27.32464240658836</v>
+        <v>72.02356809595786</v>
       </c>
       <c r="M3">
-        <v>3.34248182956949</v>
+        <v>90.90826505099326</v>
       </c>
       <c r="N3">
-        <v>0.3576094237449849</v>
+        <v>25.50785899559911</v>
       </c>
       <c r="O3">
-        <v>7.394626228346798</v>
+        <v>21.83617864268657</v>
       </c>
       <c r="P3">
-        <v>0.3669025302302216</v>
+        <v>37.58698962714778</v>
       </c>
       <c r="Q3">
-        <v>568.311501907148</v>
+        <v>104.1904770318032</v>
       </c>
       <c r="R3">
-        <v>181.0119097987701</v>
+        <v>107.2526587334651</v>
       </c>
       <c r="S3">
-        <v>0.3333382443478723</v>
+        <v>61.96182202906022</v>
       </c>
       <c r="T3">
-        <v>1.78298619062954</v>
+        <v>109.2084502113871</v>
       </c>
       <c r="U3">
-        <v>0.3340372187217864</v>
+        <v>12.03941876417835</v>
       </c>
       <c r="V3">
-        <v>0.3333382443478723</v>
+        <v>46.31640219344865</v>
       </c>
       <c r="W3">
-        <v>0.3333381321651348</v>
+        <v>100.6544128272956</v>
       </c>
       <c r="X3">
-        <v>8.462836025885197</v>
+        <v>116.9812045112422</v>
       </c>
       <c r="Y3">
-        <v>21.66427888302556</v>
+        <v>75.42013485390271</v>
       </c>
       <c r="Z3">
-        <v>0.3453800474846807</v>
+        <v>284.2204369830306</v>
       </c>
       <c r="AA3">
-        <v>123.1570168613069</v>
+        <v>92.70622139882114</v>
       </c>
       <c r="AB3">
-        <v>3.271891395608075</v>
+        <v>0.4765626629778943</v>
       </c>
       <c r="AC3">
-        <v>6.328042680691503</v>
+        <v>277.9524856489948</v>
       </c>
       <c r="AD3">
-        <v>0.3455131632905741</v>
+        <v>96.27805583803833</v>
       </c>
       <c r="AE3">
-        <v>3.333290362449131</v>
+        <v>63.09910225633769</v>
       </c>
       <c r="AF3">
-        <v>116.7146333277838</v>
+        <v>21.64462882137947</v>
       </c>
       <c r="AG3">
-        <v>230.9368032997972</v>
+        <v>114.7575963074473</v>
       </c>
       <c r="AH3">
-        <v>16.31562524143446</v>
+        <v>49.54107528121341</v>
       </c>
       <c r="AI3">
-        <v>302.9624964398918</v>
+        <v>70.29406818148405</v>
       </c>
       <c r="AJ3">
-        <v>12.1328012993277</v>
+        <v>17.59160260234837</v>
       </c>
       <c r="AK3">
-        <v>2.333355706939743</v>
+        <v>92.27046022950142</v>
       </c>
       <c r="AL3">
-        <v>23.70190556598447</v>
+        <v>38.03467488932506</v>
       </c>
       <c r="AM3">
-        <v>29.17230693614725</v>
+        <v>137.2581330652425</v>
       </c>
       <c r="AN3">
-        <v>15.20204384346649</v>
+        <v>180.5611375764697</v>
       </c>
       <c r="AO3">
-        <v>0.3357587629734261</v>
+        <v>9.243687228487754</v>
       </c>
       <c r="AP3">
-        <v>12.31510933977701</v>
+        <v>240.0275544209404</v>
       </c>
       <c r="AQ3">
-        <v>7.309267380405193</v>
+        <v>69.30552680648596</v>
       </c>
       <c r="AR3">
-        <v>3.333187388096525</v>
+        <v>34.84760500733568</v>
       </c>
       <c r="AS3">
-        <v>2.333289357641407</v>
+        <v>91.46158271823082</v>
       </c>
       <c r="AT3">
-        <v>2.333289357641407</v>
+        <v>117.9920940705628</v>
       </c>
       <c r="AU3">
-        <v>0.3460805173528816</v>
+        <v>0.3812421955863908</v>
       </c>
       <c r="AV3">
-        <v>0.3400282481622074</v>
+        <v>260.6766072350702</v>
       </c>
       <c r="AW3">
-        <v>8.308796554383971</v>
+        <v>32.32120933196872</v>
       </c>
       <c r="AX3">
-        <v>3.073604177877212</v>
+        <v>426.762745622395</v>
       </c>
       <c r="AY3">
-        <v>0.3333380734121834</v>
+        <v>29.14005032455693</v>
       </c>
       <c r="AZ3">
-        <v>6.544507671049587</v>
+        <v>123.4626201711946</v>
       </c>
       <c r="BA3">
-        <v>0.3359337979258358</v>
+        <v>130.1006860047828</v>
       </c>
       <c r="BB3">
-        <v>2.333289357641407</v>
+        <v>202.3577631347586</v>
       </c>
       <c r="BC3">
-        <v>40.2622499628346</v>
+        <v>105.7554118583463</v>
       </c>
       <c r="BD3">
-        <v>17.60550087403252</v>
+        <v>224.5186132331305</v>
       </c>
       <c r="BE3">
-        <v>314.5259596640024</v>
+        <v>389.0597226489654</v>
       </c>
       <c r="BF3">
-        <v>2.333289357641407</v>
+        <v>0.4081080453485885</v>
       </c>
       <c r="BG3">
-        <v>1.13870368584228</v>
+        <v>121.0046405203845</v>
       </c>
       <c r="BH3">
-        <v>2.333289357641407</v>
+        <v>36.34682337289349</v>
       </c>
       <c r="BI3">
-        <v>3.320312962443409</v>
+        <v>107.5252501228013</v>
       </c>
       <c r="BJ3">
-        <v>0.3811949784383489</v>
+        <v>68.93608262017703</v>
       </c>
       <c r="BK3">
-        <v>0.3700781644293338</v>
+        <v>154.5972728179151</v>
       </c>
       <c r="BL3">
-        <v>0.3333382443478723</v>
+        <v>44.33986982631053</v>
       </c>
       <c r="BM3">
-        <v>12.51704158403643</v>
+        <v>26.91240616463077</v>
       </c>
       <c r="BN3">
-        <v>0.3359337979258358</v>
+        <v>142.5239953853054</v>
       </c>
       <c r="BO3">
-        <v>1.793587022229025</v>
+        <v>197.5748829370348</v>
       </c>
       <c r="BP3">
-        <v>2.333289357641407</v>
+        <v>482.7403436712131</v>
       </c>
       <c r="BQ3">
-        <v>4.332179898065395</v>
+        <v>200.6047791179011</v>
       </c>
       <c r="BR3">
-        <v>249.1985364222075</v>
+        <v>30.76514735505591</v>
       </c>
       <c r="BS3">
-        <v>0.341915548977533</v>
+        <v>422.0224424690869</v>
       </c>
       <c r="BT3">
-        <v>1.999792670580126</v>
+        <v>68.25843433989304</v>
       </c>
       <c r="BU3">
-        <v>0.3602474329023793</v>
+        <v>76.73435131566457</v>
       </c>
       <c r="BV3">
-        <v>44.14211421469365</v>
+        <v>154.7356466001275</v>
       </c>
       <c r="BW3">
-        <v>0.3449162519688479</v>
+        <v>187.0238251663424</v>
       </c>
       <c r="BX3">
-        <v>0.3333382443478723</v>
+        <v>102.0857898288572</v>
       </c>
       <c r="BY3">
-        <v>35.37651842433475</v>
+        <v>108.2461851132098</v>
       </c>
       <c r="BZ3">
-        <v>3.622907296077409</v>
+        <v>56.95294942161539</v>
       </c>
       <c r="CA3">
-        <v>0.3833732099699338</v>
+        <v>97.59984455451394</v>
       </c>
       <c r="CB3">
-        <v>0.3485292529773746</v>
+        <v>21.87081960853488</v>
       </c>
       <c r="CC3">
-        <v>43.58196024943853</v>
+        <v>0.3876813522271029</v>
       </c>
       <c r="CD3">
-        <v>0.3441578752423536</v>
+        <v>98.50796505093813</v>
       </c>
       <c r="CE3">
-        <v>38.31936071073348</v>
+        <v>51.13869814390738</v>
       </c>
       <c r="CF3">
-        <v>0.350855815677147</v>
+        <v>126.2089880194028</v>
       </c>
       <c r="CG3">
-        <v>8.166034308001754</v>
+        <v>154.4199138892018</v>
       </c>
       <c r="CH3">
-        <v>101.3342426802967</v>
+        <v>26.85842685364776</v>
       </c>
       <c r="CI3">
-        <v>0.3333382443478723</v>
+        <v>265.400632022018</v>
       </c>
       <c r="CJ3">
-        <v>4.314384351047169</v>
+        <v>32.22714476373127</v>
       </c>
       <c r="CK3">
-        <v>1.858988818534756</v>
+        <v>0.3632522608569881</v>
       </c>
       <c r="CL3">
-        <v>3.300771126780855</v>
+        <v>90.70627621026124</v>
       </c>
       <c r="CM3">
-        <v>1.333286784068127</v>
+        <v>112.844277937788</v>
       </c>
       <c r="CN3">
-        <v>1.333286784068127</v>
+        <v>139.7919739320209</v>
       </c>
       <c r="CO3">
-        <v>1.333286784068127</v>
+        <v>248.3974227070744</v>
       </c>
       <c r="CP3">
-        <v>4.23731474596905</v>
+        <v>8.756457569734675</v>
       </c>
       <c r="CQ3">
-        <v>31.34324757285995</v>
+        <v>0.3597988945416688</v>
       </c>
       <c r="CR3">
-        <v>2.26490134081113</v>
+        <v>24.73540243628447</v>
       </c>
       <c r="CS3">
-        <v>145.0682220100476</v>
+        <v>69.04559308307341</v>
       </c>
       <c r="CT3">
-        <v>2.333289357641407</v>
+        <v>25.98833973831134</v>
       </c>
       <c r="CU3">
-        <v>0.3333382443478723</v>
+        <v>56.28235585931508</v>
       </c>
       <c r="CV3">
-        <v>1.84338590747377</v>
+        <v>136.0861035927498</v>
       </c>
       <c r="CW3">
-        <v>3.271891395608075</v>
+        <v>104.3864089407241</v>
       </c>
       <c r="CX3">
-        <v>13.27623981758527</v>
+        <v>86.71067506245053</v>
       </c>
       <c r="CY3">
-        <v>1.333286784068127</v>
+        <v>62.17010404284764</v>
       </c>
       <c r="CZ3">
-        <v>9.322007116101529</v>
+        <v>325.2228503593196</v>
       </c>
       <c r="DA3">
-        <v>1.333286784068127</v>
+        <v>150.0152210007292</v>
       </c>
       <c r="DB3">
-        <v>1.333286784068127</v>
+        <v>70.23486837040946</v>
       </c>
       <c r="DC3">
-        <v>11.57220151913751</v>
+        <v>108.2692910478966</v>
       </c>
       <c r="DD3">
-        <v>1.333286784068127</v>
+        <v>111.3208647617617</v>
       </c>
       <c r="DE3">
-        <v>1.333286784068127</v>
+        <v>0.4032440559207227</v>
       </c>
       <c r="DF3">
-        <v>0.3343075094923325</v>
+        <v>53.56571020387209</v>
       </c>
       <c r="DG3">
-        <v>0.3645467692661151</v>
+        <v>54.8615226625669</v>
       </c>
       <c r="DH3">
-        <v>1.333286784068127</v>
+        <v>88.52265039372857</v>
       </c>
       <c r="DI3">
-        <v>3.337807229625417</v>
+        <v>129.5519244123907</v>
       </c>
       <c r="DJ3">
-        <v>1.333286784068127</v>
+        <v>71.90292780193094</v>
       </c>
       <c r="DK3">
-        <v>1.333286784068127</v>
+        <v>81.70533306405247</v>
       </c>
       <c r="DL3">
-        <v>4.152814463598888</v>
+        <v>65.95214416754796</v>
       </c>
       <c r="DM3">
-        <v>1.333286784068127</v>
+        <v>99.14999143949872</v>
       </c>
       <c r="DN3">
-        <v>1.333286784068127</v>
+        <v>160.5640668886952</v>
       </c>
       <c r="DO3">
-        <v>2.702394758647229</v>
+        <v>59.73848236834868</v>
       </c>
       <c r="DP3">
-        <v>2.333289357641407</v>
+        <v>343.9244658813896</v>
       </c>
       <c r="DQ3">
-        <v>0.3333381321651348</v>
+        <v>223.3112373734157</v>
       </c>
       <c r="DR3">
-        <v>0.3385671414738479</v>
+        <v>225.8371535198027</v>
       </c>
       <c r="DS3">
-        <v>1.13870368584228</v>
+        <v>11.90291317377732</v>
       </c>
       <c r="DT3">
-        <v>16.10022092218538</v>
+        <v>85.85147552665748</v>
       </c>
       <c r="DU3">
-        <v>74.58278971010805</v>
+        <v>66.52129225604155</v>
       </c>
       <c r="DV3">
-        <v>7.296732623958282</v>
+        <v>11.89068840072977</v>
       </c>
       <c r="DW3">
-        <v>0.3333382443478723</v>
+        <v>49.13961679324972</v>
       </c>
       <c r="DX3">
-        <v>6.314470581524834</v>
+        <v>459.4136089743469</v>
       </c>
       <c r="DY3">
-        <v>1.333286784068127</v>
+        <v>0.3708580702396828</v>
       </c>
       <c r="DZ3">
-        <v>1.333286784068127</v>
+        <v>0.4010313270247833</v>
       </c>
       <c r="EA3">
-        <v>1.333286784068127</v>
+        <v>38.80150020839541</v>
       </c>
       <c r="EB3">
-        <v>2.333289357641407</v>
+        <v>0.3516546534365032</v>
       </c>
       <c r="EC3">
-        <v>23.58376656484416</v>
+        <v>57.12084694732891</v>
       </c>
       <c r="ED3">
-        <v>2.333289357641407</v>
+        <v>71.47553380331044</v>
       </c>
       <c r="EE3">
-        <v>5.549276529666364</v>
+        <v>252.7836072572688</v>
       </c>
       <c r="EF3">
-        <v>88.24771036653661</v>
+        <v>26.41622674590391</v>
       </c>
       <c r="EG3">
-        <v>0.3437982229219805</v>
+        <v>112.5570274220452</v>
       </c>
       <c r="EH3">
-        <v>1.333286784068127</v>
+        <v>37.27387690206097</v>
       </c>
       <c r="EI3">
-        <v>1.333286784068127</v>
+        <v>33.03020037492824</v>
       </c>
       <c r="EJ3">
-        <v>1.333286784068127</v>
+        <v>116.2932062681211</v>
       </c>
       <c r="EK3">
-        <v>1.333286784068127</v>
+        <v>49.39397085198941</v>
       </c>
       <c r="EL3">
-        <v>0.3333569411310092</v>
+        <v>15.63524284349772</v>
       </c>
       <c r="EM3">
-        <v>0.3333382443478723</v>
+        <v>222.2723270592867</v>
       </c>
       <c r="EN3">
-        <v>1.333286784068127</v>
+        <v>0.3802084104771129</v>
       </c>
       <c r="EO3">
-        <v>8.298337585889124</v>
+        <v>70.24847166825235</v>
       </c>
       <c r="EP3">
-        <v>1.333286784068127</v>
+        <v>116.2474932303219</v>
       </c>
       <c r="EQ3">
-        <v>1.333286784068127</v>
+        <v>392.6794742259302</v>
       </c>
       <c r="ER3">
-        <v>1.333286784068127</v>
+        <v>65.02033319611306</v>
       </c>
       <c r="ES3">
-        <v>0.3542561979868901</v>
+        <v>29.03018259634349</v>
       </c>
       <c r="ET3">
-        <v>5.284372550665273</v>
+        <v>255.1570378508593</v>
       </c>
       <c r="EU3">
-        <v>0.3493439996708183</v>
+        <v>0.4059612441084285</v>
       </c>
       <c r="EV3">
-        <v>1.333286784068127</v>
+        <v>21.30951764990884</v>
       </c>
       <c r="EW3">
-        <v>1.333286784068127</v>
+        <v>0.4101650264938138</v>
       </c>
       <c r="EX3">
-        <v>1.333286784068127</v>
+        <v>140.1391718448434</v>
       </c>
       <c r="EY3">
-        <v>1.333286784068127</v>
+        <v>26.50762673292219</v>
       </c>
       <c r="EZ3">
-        <v>11.41374538404209</v>
+        <v>377.5004433478869</v>
       </c>
       <c r="FA3">
-        <v>2.333289357641407</v>
+        <v>109.7555456257099</v>
       </c>
       <c r="FB3">
-        <v>0.3343075094923325</v>
+        <v>76.58880243646983</v>
       </c>
       <c r="FC3">
-        <v>0.3441352192238787</v>
+        <v>62.77519519821485</v>
       </c>
       <c r="FD3">
-        <v>29.78736395676935</v>
+        <v>0.405837190845447</v>
       </c>
       <c r="FE3">
-        <v>1.333286784068127</v>
+        <v>24.81423126309473</v>
       </c>
       <c r="FF3">
-        <v>0.3333382443478723</v>
+        <v>48.33150163352975</v>
       </c>
       <c r="FG3">
-        <v>3.982803638123352</v>
+        <v>235.4502443950778</v>
       </c>
       <c r="FH3">
-        <v>1.333286784068127</v>
+        <v>69.20857988074432</v>
       </c>
       <c r="FI3">
-        <v>1.333286784068127</v>
+        <v>34.29556681733963</v>
       </c>
       <c r="FJ3">
-        <v>1.333286784068127</v>
+        <v>41.26705985781174</v>
       </c>
       <c r="FK3">
-        <v>1.333286784068127</v>
+        <v>75.36026781965009</v>
       </c>
       <c r="FL3">
-        <v>3.104201450729914</v>
+        <v>10.75434081431513</v>
       </c>
       <c r="FM3">
-        <v>31.88867570206035</v>
+        <v>32.42812413535751</v>
       </c>
       <c r="FN3">
-        <v>0.3333380734121834</v>
+        <v>82.77845972921367</v>
       </c>
       <c r="FO3">
-        <v>1.333286784068127</v>
+        <v>238.892347367198</v>
       </c>
       <c r="FP3">
-        <v>1.333286784068127</v>
+        <v>7.296579248410818</v>
       </c>
       <c r="FQ3">
-        <v>1.333286784068127</v>
+        <v>79.73903828232432</v>
       </c>
       <c r="FR3">
-        <v>1.333286784068127</v>
+        <v>67.9090309188593</v>
       </c>
       <c r="FS3">
-        <v>1.333286784068127</v>
+        <v>0.3715900007132064</v>
       </c>
       <c r="FT3">
-        <v>5.308719082512861</v>
+        <v>62.02596322854146</v>
       </c>
       <c r="FU3">
-        <v>3.333290362449131</v>
+        <v>60.14903311162826</v>
       </c>
       <c r="FV3">
-        <v>6.327199447860077</v>
+        <v>207.1520962779532</v>
       </c>
       <c r="FW3">
-        <v>0.3333382443478723</v>
+        <v>124.5329297308909</v>
       </c>
       <c r="FX3">
-        <v>1.333286784068127</v>
+        <v>20.28206539176511</v>
       </c>
       <c r="FY3">
-        <v>1.333286784068127</v>
+        <v>161.5309555872596</v>
       </c>
       <c r="FZ3">
-        <v>0.3851264784029739</v>
+        <v>49.32768128574369</v>
       </c>
       <c r="GA3">
-        <v>1.333286784068127</v>
+        <v>29.13600367660713</v>
       </c>
       <c r="GB3">
-        <v>0.3489826221566046</v>
+        <v>447.260971024912</v>
       </c>
       <c r="GC3">
-        <v>124.9827350884216</v>
+        <v>0.3779402614851748</v>
       </c>
       <c r="GD3">
-        <v>25.44131077384309</v>
+        <v>36.78400164179349</v>
       </c>
       <c r="GE3">
-        <v>1.333286784068127</v>
+        <v>86.95903480098113</v>
       </c>
       <c r="GF3">
-        <v>1.333286784068127</v>
+        <v>202.268227550355</v>
       </c>
       <c r="GG3">
-        <v>1.333286784068127</v>
+        <v>202.7354287385307</v>
       </c>
       <c r="GH3">
-        <v>1.333286784068127</v>
+        <v>129.1350004923231</v>
       </c>
       <c r="GI3">
-        <v>1.333286784068127</v>
+        <v>38.55287603938059</v>
       </c>
       <c r="GJ3">
-        <v>1.333286784068127</v>
+        <v>20.1908785046381</v>
       </c>
       <c r="GK3">
-        <v>1.331635630020502</v>
+        <v>68.50520334951392</v>
       </c>
       <c r="GL3">
-        <v>0.381492215791413</v>
+        <v>83.0819383813165</v>
       </c>
       <c r="GM3">
-        <v>1.333286784068127</v>
+        <v>204.9756437412843</v>
       </c>
       <c r="GN3">
-        <v>4.327770895139367</v>
+        <v>147.7545265135834</v>
       </c>
       <c r="GO3">
-        <v>13.11570076794497</v>
+        <v>122.4435172989223</v>
       </c>
       <c r="GP3">
-        <v>72.93972788671729</v>
+        <v>67.32502444422461</v>
       </c>
       <c r="GQ3">
-        <v>0.4097840598309209</v>
+        <v>0.348414526847038</v>
       </c>
       <c r="GR3">
-        <v>0.3333382443478723</v>
+        <v>181.3481839116689</v>
       </c>
       <c r="GS3">
-        <v>0.3333382443478723</v>
+        <v>0.3932497637366222</v>
+      </c>
+      <c r="GT3">
+        <v>4.093336927215645</v>
+      </c>
+      <c r="GU3">
+        <v>8.987564896085324</v>
+      </c>
+      <c r="GV3">
+        <v>35.06544629259862</v>
+      </c>
+      <c r="GW3">
+        <v>11.1619714120986</v>
+      </c>
+      <c r="GX3">
+        <v>78.18334409597618</v>
+      </c>
+      <c r="GY3">
+        <v>116.3413693535892</v>
+      </c>
+      <c r="GZ3">
+        <v>170.5762840663106</v>
+      </c>
+      <c r="HA3">
+        <v>116.309109206692</v>
+      </c>
+      <c r="HB3">
+        <v>95.87430685842537</v>
+      </c>
+      <c r="HC3">
+        <v>0.3781515193797605</v>
+      </c>
+      <c r="HD3">
+        <v>33.03647535718367</v>
+      </c>
+      <c r="HE3">
+        <v>15.65980195257987</v>
+      </c>
+      <c r="HF3">
+        <v>185.6412121617941</v>
+      </c>
+      <c r="HG3">
+        <v>98.76521907569284</v>
+      </c>
+      <c r="HH3">
+        <v>165.1314027204386</v>
+      </c>
+      <c r="HI3">
+        <v>151.1483778996213</v>
+      </c>
+      <c r="HJ3">
+        <v>84.65357300880879</v>
+      </c>
+      <c r="HK3">
+        <v>118.947589338738</v>
+      </c>
+      <c r="HL3">
+        <v>0.3582186439968711</v>
+      </c>
+      <c r="HM3">
+        <v>2.208426092192651</v>
+      </c>
+      <c r="HN3">
+        <v>22.87450191440104</v>
+      </c>
+      <c r="HO3">
+        <v>0.3478994152540064</v>
+      </c>
+      <c r="HP3">
+        <v>69.71436959622497</v>
+      </c>
+      <c r="HQ3">
+        <v>94.26945163173053</v>
+      </c>
+      <c r="HR3">
+        <v>256.2811480473367</v>
+      </c>
+      <c r="HS3">
+        <v>124.2981216271354</v>
+      </c>
+      <c r="HT3">
+        <v>0.413337283701166</v>
+      </c>
+      <c r="HU3">
+        <v>0.3689047494164887</v>
+      </c>
+      <c r="HV3">
+        <v>55.70014445174408</v>
+      </c>
+      <c r="HW3">
+        <v>212.4125821179662</v>
+      </c>
+      <c r="HX3">
+        <v>99.94981248148171</v>
+      </c>
+      <c r="HY3">
+        <v>56.28383689468389</v>
+      </c>
+      <c r="HZ3">
+        <v>365.5890783325391</v>
+      </c>
+      <c r="IA3">
+        <v>5.725351404462057</v>
+      </c>
+      <c r="IB3">
+        <v>193.2305481882321</v>
+      </c>
+      <c r="IC3">
+        <v>309.0570973175824</v>
+      </c>
+      <c r="ID3">
+        <v>42.93423170042718</v>
+      </c>
+      <c r="IE3">
+        <v>100.417418436896</v>
+      </c>
+      <c r="IF3">
+        <v>50.38511909541987</v>
+      </c>
+      <c r="IG3">
+        <v>289.5638159422851</v>
+      </c>
+      <c r="IH3">
+        <v>54.7732173009773</v>
+      </c>
+      <c r="II3">
+        <v>23.74524985710496</v>
+      </c>
+      <c r="IJ3">
+        <v>145.4090217348226</v>
+      </c>
+      <c r="IK3">
+        <v>36.85180971873362</v>
+      </c>
+      <c r="IL3">
+        <v>0.3904160226108642</v>
+      </c>
+      <c r="IM3">
+        <v>232.1742023735845</v>
+      </c>
+      <c r="IN3">
+        <v>3.860735273780587</v>
+      </c>
+      <c r="IO3">
+        <v>90.30778203772792</v>
+      </c>
+      <c r="IP3">
+        <v>109.4999773668068</v>
+      </c>
+      <c r="IQ3">
+        <v>59.54509596206321</v>
+      </c>
+      <c r="IR3">
+        <v>146.5320554749395</v>
+      </c>
+      <c r="IS3">
+        <v>133.326157855257</v>
+      </c>
+      <c r="IT3">
+        <v>101.9263302999776</v>
+      </c>
+      <c r="IU3">
+        <v>28.05114317914195</v>
+      </c>
+      <c r="IV3">
+        <v>287.5627162650019</v>
+      </c>
+      <c r="IW3">
+        <v>53.24630166115975</v>
+      </c>
+      <c r="IX3">
+        <v>60.14288275292061</v>
+      </c>
+      <c r="IY3">
+        <v>57.74847863378822</v>
+      </c>
+      <c r="IZ3">
+        <v>31.35058864533161</v>
+      </c>
+      <c r="JA3">
+        <v>77.04370072071006</v>
+      </c>
+      <c r="JB3">
+        <v>20.3715308885129</v>
+      </c>
+      <c r="JC3">
+        <v>95.19740987811311</v>
+      </c>
+      <c r="JD3">
+        <v>288.1530558207143</v>
+      </c>
+      <c r="JE3">
+        <v>10.87509529688572</v>
+      </c>
+      <c r="JF3">
+        <v>54.02478110598394</v>
+      </c>
+      <c r="JG3">
+        <v>64.8916507797493</v>
+      </c>
+      <c r="JH3">
+        <v>44.61186074500725</v>
+      </c>
+      <c r="JI3">
+        <v>0.3956459505665917</v>
+      </c>
+      <c r="JJ3">
+        <v>125.1961005780846</v>
+      </c>
+      <c r="JK3">
+        <v>26.9873380883707</v>
+      </c>
+      <c r="JL3">
+        <v>28.6651465380501</v>
+      </c>
+      <c r="JM3">
+        <v>21.4345791761381</v>
+      </c>
+      <c r="JN3">
+        <v>4.642329677497398</v>
+      </c>
+      <c r="JO3">
+        <v>91.73327982255317</v>
+      </c>
+      <c r="JP3">
+        <v>18.03167324482362</v>
+      </c>
+      <c r="JQ3">
+        <v>14.45011002784883</v>
+      </c>
+      <c r="JR3">
+        <v>143.7884349577334</v>
+      </c>
+      <c r="JS3">
+        <v>162.6197800046859</v>
+      </c>
+      <c r="JT3">
+        <v>27.55835201440661</v>
+      </c>
+      <c r="JU3">
+        <v>44.16861950462778</v>
+      </c>
+      <c r="JV3">
+        <v>130.5522631313036</v>
+      </c>
+      <c r="JW3">
+        <v>77.53589823908466</v>
+      </c>
+      <c r="JX3">
+        <v>0.3992660988000585</v>
+      </c>
+      <c r="JY3">
+        <v>98.79914028950049</v>
+      </c>
+      <c r="JZ3">
+        <v>131.3135527466899</v>
+      </c>
+      <c r="KA3">
+        <v>137.4757132262704</v>
+      </c>
+      <c r="KB3">
+        <v>133.6211039737852</v>
+      </c>
+      <c r="KC3">
+        <v>339.3028159821927</v>
+      </c>
+      <c r="KD3">
+        <v>68.69789057633727</v>
+      </c>
+      <c r="KE3">
+        <v>14.27970712374277</v>
+      </c>
+      <c r="KF3">
+        <v>0.7400948255668542</v>
+      </c>
+      <c r="KG3">
+        <v>102.3120644808841</v>
+      </c>
+      <c r="KH3">
+        <v>24.13553229451264</v>
+      </c>
+      <c r="KI3">
+        <v>36.73323522751219</v>
+      </c>
+      <c r="KJ3">
+        <v>160.4448414688013</v>
+      </c>
+      <c r="KK3">
+        <v>66.49254274190486</v>
+      </c>
+      <c r="KL3">
+        <v>125.9687542202054</v>
+      </c>
+      <c r="KM3">
+        <v>25.82124392387785</v>
+      </c>
+      <c r="KN3">
+        <v>78.95487730119443</v>
+      </c>
+      <c r="KO3">
+        <v>47.36873138575367</v>
+      </c>
+      <c r="KP3">
+        <v>129.0612164846018</v>
+      </c>
+      <c r="KQ3">
+        <v>166.3556701957809</v>
+      </c>
+      <c r="KR3">
+        <v>140.8385475097498</v>
+      </c>
+      <c r="KS3">
+        <v>48.60996687506697</v>
+      </c>
+      <c r="KT3">
+        <v>78.57024209627798</v>
+      </c>
+      <c r="KU3">
+        <v>97.25171400900133</v>
+      </c>
+      <c r="KV3">
+        <v>63.56512911567841</v>
+      </c>
+      <c r="KW3">
+        <v>87.15261102773187</v>
+      </c>
+      <c r="KX3">
+        <v>104.294312210543</v>
+      </c>
+      <c r="KY3">
+        <v>442.8213749849175</v>
+      </c>
+      <c r="KZ3">
+        <v>62.64077399191592</v>
+      </c>
+      <c r="LA3">
+        <v>60.30367298735406</v>
+      </c>
+      <c r="LB3">
+        <v>163.0402766433584</v>
+      </c>
+      <c r="LC3">
+        <v>99.17576348202239</v>
+      </c>
+      <c r="LD3">
+        <v>136.7347380159491</v>
+      </c>
+      <c r="LE3">
+        <v>25.58484825498138</v>
+      </c>
+      <c r="LF3">
+        <v>205.2587061110459</v>
+      </c>
+      <c r="LG3">
+        <v>54.63425010012318</v>
+      </c>
+      <c r="LH3">
+        <v>60.37425257348139</v>
+      </c>
+      <c r="LI3">
+        <v>86.53494555950033</v>
+      </c>
+      <c r="LJ3">
+        <v>283.348974272003</v>
+      </c>
+      <c r="LK3">
+        <v>10.04930110451395</v>
+      </c>
+      <c r="LL3">
+        <v>164.8029891907507</v>
+      </c>
+      <c r="LM3">
+        <v>3.240868250778997</v>
+      </c>
+      <c r="LN3">
+        <v>24.02582285402237</v>
+      </c>
+      <c r="LO3">
+        <v>62.29833298177913</v>
+      </c>
+      <c r="LP3">
+        <v>20.44432219020344</v>
+      </c>
+      <c r="LQ3">
+        <v>74.91720007157281</v>
+      </c>
+      <c r="LR3">
+        <v>83.18245398132088</v>
+      </c>
+      <c r="LS3">
+        <v>0.3697641456018221</v>
+      </c>
+      <c r="LT3">
+        <v>66.00189731755057</v>
+      </c>
+      <c r="LU3">
+        <v>170.2754835097716</v>
+      </c>
+      <c r="LV3">
+        <v>121.3547350243951</v>
+      </c>
+      <c r="LW3">
+        <v>166.0171885846939</v>
+      </c>
+      <c r="LX3">
+        <v>37.52285783569793</v>
+      </c>
+      <c r="LY3">
+        <v>14.88099445059208</v>
+      </c>
+      <c r="LZ3">
+        <v>110.6097146565476</v>
+      </c>
+      <c r="MA3">
+        <v>125.202999573213</v>
+      </c>
+      <c r="MB3">
+        <v>73.28825805453924</v>
+      </c>
+      <c r="MC3">
+        <v>275.8088674791482</v>
+      </c>
+      <c r="MD3">
+        <v>340.0160623739512</v>
+      </c>
+      <c r="ME3">
+        <v>66.29729857089738</v>
+      </c>
+      <c r="MF3">
+        <v>134.7222711087225</v>
+      </c>
+      <c r="MG3">
+        <v>85.6384141946167</v>
+      </c>
+      <c r="MH3">
+        <v>56.67084430824059</v>
+      </c>
+      <c r="MI3">
+        <v>23.99710884549854</v>
+      </c>
+      <c r="MJ3">
+        <v>43.65716202878833</v>
+      </c>
+      <c r="MK3">
+        <v>121.249861413035</v>
+      </c>
+      <c r="ML3">
+        <v>41.28751391468778</v>
+      </c>
+      <c r="MM3">
+        <v>171.058845985823</v>
+      </c>
+      <c r="MN3">
+        <v>49.08165342537879</v>
+      </c>
+      <c r="MO3">
+        <v>275.5542963409527</v>
+      </c>
+      <c r="MP3">
+        <v>152.2897372192765</v>
+      </c>
+      <c r="MQ3">
+        <v>274.2348752043775</v>
+      </c>
+      <c r="MR3">
+        <v>280.241183463144</v>
+      </c>
+      <c r="MS3">
+        <v>3.56846042927194</v>
+      </c>
+      <c r="MT3">
+        <v>4.649420589483179</v>
+      </c>
+      <c r="MU3">
+        <v>29.78925232270065</v>
+      </c>
+      <c r="MV3">
+        <v>75.23068835261068</v>
+      </c>
+      <c r="MW3">
+        <v>147.2349798793371</v>
+      </c>
+      <c r="MX3">
+        <v>223.643426698755</v>
+      </c>
+      <c r="MY3">
+        <v>74.46062834440716</v>
+      </c>
+      <c r="MZ3">
+        <v>37.65839154944745</v>
+      </c>
+      <c r="NA3">
+        <v>61.42689271247612</v>
+      </c>
+      <c r="NB3">
+        <v>19.76335474305327</v>
+      </c>
+      <c r="NC3">
+        <v>127.5455439449743</v>
+      </c>
+      <c r="ND3">
+        <v>91.21898331037285</v>
+      </c>
+      <c r="NE3">
+        <v>251.6726405380182</v>
+      </c>
+      <c r="NF3">
+        <v>94.26623947086648</v>
+      </c>
+      <c r="NG3">
+        <v>166.4837925178789</v>
+      </c>
+      <c r="NH3">
+        <v>83.79164054539029</v>
+      </c>
+      <c r="NI3">
+        <v>56.29048931421664</v>
+      </c>
+      <c r="NJ3">
+        <v>98.4291182317935</v>
+      </c>
+      <c r="NK3">
+        <v>237.9056370134953</v>
+      </c>
+      <c r="NL3">
+        <v>66.14063954453424</v>
+      </c>
+      <c r="NM3">
+        <v>82.23877030773586</v>
+      </c>
+      <c r="NN3">
+        <v>96.52957328734793</v>
+      </c>
+      <c r="NO3">
+        <v>90.15960265722971</v>
+      </c>
+      <c r="NP3">
+        <v>92.40087681742187</v>
+      </c>
+      <c r="NQ3">
+        <v>53.2749214104546</v>
+      </c>
+      <c r="NR3">
+        <v>227.8639849012821</v>
+      </c>
+      <c r="NS3">
+        <v>349.0684911067173</v>
+      </c>
+      <c r="NT3">
+        <v>68.27820881548965</v>
+      </c>
+      <c r="NU3">
+        <v>42.83428226126529</v>
+      </c>
+      <c r="NV3">
+        <v>219.2314628269885</v>
+      </c>
+      <c r="NW3">
+        <v>125.0700666089395</v>
+      </c>
+      <c r="NX3">
+        <v>20.67127662974224</v>
+      </c>
+      <c r="NY3">
+        <v>26.88458586596208</v>
+      </c>
+      <c r="NZ3">
+        <v>45.2097175851862</v>
+      </c>
+      <c r="OA3">
+        <v>12.07840708085304</v>
+      </c>
+      <c r="OB3">
+        <v>62.20919578595909</v>
+      </c>
+      <c r="OC3">
+        <v>0.3644904138703024</v>
+      </c>
+      <c r="OD3">
+        <v>0.394927085683123</v>
+      </c>
+      <c r="OE3">
+        <v>0.4198881035938972</v>
+      </c>
+      <c r="OF3">
+        <v>181.5343494685274</v>
+      </c>
+      <c r="OG3">
+        <v>86.61761898310549</v>
+      </c>
+      <c r="OH3">
+        <v>41.16366438507405</v>
+      </c>
+      <c r="OI3">
+        <v>237.2675915421893</v>
+      </c>
+      <c r="OJ3">
+        <v>10.25642118026047</v>
+      </c>
+      <c r="OK3">
+        <v>15.37656041553691</v>
       </c>
     </row>
-    <row r="4" spans="1:201">
+    <row r="4" spans="1:401">
       <c r="A4" s="1" t="s">
-        <v>202</v>
+        <v>402</v>
       </c>
       <c r="B4">
-        <v>0.3858122081890972</v>
+        <v>14.21763171607364</v>
       </c>
       <c r="C4">
-        <v>15.68088990452737</v>
+        <v>0.383559609255302</v>
       </c>
       <c r="D4">
-        <v>3.318132683549067</v>
+        <v>10.07447592011719</v>
       </c>
       <c r="E4">
-        <v>2.333300281925538</v>
+        <v>66.30018188164873</v>
       </c>
       <c r="F4">
-        <v>7.844344892721845</v>
+        <v>116.8912147409913</v>
       </c>
       <c r="G4">
-        <v>2.459208561853073</v>
+        <v>77.37157746835186</v>
       </c>
       <c r="H4">
-        <v>0.3443396925229026</v>
+        <v>0.4005915763843959</v>
       </c>
       <c r="I4">
-        <v>5.526684565213223</v>
+        <v>91.55059597069264</v>
       </c>
       <c r="J4">
-        <v>10.32036457824873</v>
+        <v>41.9687756241222</v>
       </c>
       <c r="K4">
-        <v>0.3333414382422626</v>
+        <v>9.38527547882909</v>
       </c>
       <c r="L4">
-        <v>29.3111486208124</v>
+        <v>119.1656503620587</v>
       </c>
       <c r="M4">
-        <v>1.323416312334157</v>
+        <v>42.80706330228391</v>
       </c>
       <c r="N4">
-        <v>6.362179427382493</v>
+        <v>205.7997549746781</v>
       </c>
       <c r="O4">
-        <v>2.271347080741418</v>
+        <v>132.0632959483205</v>
       </c>
       <c r="P4">
-        <v>20.28316815997335</v>
+        <v>187.3787013343343</v>
       </c>
       <c r="Q4">
-        <v>169.2972363088645</v>
+        <v>78.42086318301831</v>
       </c>
       <c r="R4">
-        <v>78.63271488764147</v>
+        <v>0.3936862805207157</v>
       </c>
       <c r="S4">
-        <v>2.333300281925538</v>
+        <v>107.6399868228145</v>
       </c>
       <c r="T4">
-        <v>67.85933287692336</v>
+        <v>326.9119125137357</v>
       </c>
       <c r="U4">
-        <v>9.321966508593556</v>
+        <v>345.8381874261976</v>
       </c>
       <c r="V4">
-        <v>2.333300281925538</v>
+        <v>250.6524215615275</v>
       </c>
       <c r="W4">
-        <v>3.333301037069106</v>
+        <v>91.03061761580675</v>
       </c>
       <c r="X4">
-        <v>19.17660498367895</v>
+        <v>0.3852885002089305</v>
       </c>
       <c r="Y4">
-        <v>8.209792300887731</v>
+        <v>25.34210291812212</v>
       </c>
       <c r="Z4">
-        <v>13.21671467053225</v>
+        <v>56.54118686893911</v>
       </c>
       <c r="AA4">
-        <v>17.46440546127178</v>
+        <v>476.8312744757382</v>
       </c>
       <c r="AB4">
-        <v>0.394014403075917</v>
+        <v>177.3594189681519</v>
       </c>
       <c r="AC4">
-        <v>0.338429602027293</v>
+        <v>111.2119780797735</v>
       </c>
       <c r="AD4">
-        <v>67.76138049118032</v>
+        <v>334.4176680980123</v>
       </c>
       <c r="AE4">
-        <v>0.3333412530935292</v>
+        <v>237.863346919061</v>
       </c>
       <c r="AF4">
-        <v>105.7721419155006</v>
+        <v>472.2218879396843</v>
       </c>
       <c r="AG4">
-        <v>1.688625269871172</v>
+        <v>161.8423616693892</v>
       </c>
       <c r="AH4">
-        <v>5.343561487292312</v>
+        <v>39.76522830315292</v>
       </c>
       <c r="AI4">
-        <v>23.01255780199848</v>
+        <v>0.3481879043366978</v>
       </c>
       <c r="AJ4">
-        <v>37.46962016906064</v>
+        <v>19.2982735414699</v>
       </c>
       <c r="AK4">
-        <v>1.333245288870194</v>
+        <v>0.3810648826087611</v>
       </c>
       <c r="AL4">
-        <v>3.962054287369388</v>
+        <v>0.3968160016366004</v>
       </c>
       <c r="AM4">
-        <v>60.75347331474028</v>
+        <v>129.102681850886</v>
       </c>
       <c r="AN4">
-        <v>0.3505235253565724</v>
+        <v>107.125034023779</v>
       </c>
       <c r="AO4">
-        <v>10.28073994376247</v>
+        <v>253.1219341126039</v>
       </c>
       <c r="AP4">
-        <v>0.3491257303441432</v>
+        <v>285.6029299214537</v>
       </c>
       <c r="AQ4">
-        <v>0.3569684808694062</v>
+        <v>81.0281314723909</v>
       </c>
       <c r="AR4">
-        <v>0.333361024123314</v>
+        <v>376.6030593398036</v>
       </c>
       <c r="AS4">
-        <v>0.3333414382422626</v>
+        <v>219.9547861392588</v>
       </c>
       <c r="AT4">
-        <v>0.3333414382422626</v>
+        <v>426.0400873014271</v>
       </c>
       <c r="AU4">
-        <v>4.320371661601914</v>
+        <v>0.3846205147977864</v>
       </c>
       <c r="AV4">
-        <v>3.326307360781216</v>
+        <v>102.6778668153419</v>
       </c>
       <c r="AW4">
-        <v>0.3729854035545534</v>
+        <v>153.4351915264456</v>
       </c>
       <c r="AX4">
-        <v>10.48424587548817</v>
+        <v>506.114812240776</v>
       </c>
       <c r="AY4">
-        <v>4.333301432554238</v>
+        <v>131.4448644802629</v>
       </c>
       <c r="AZ4">
-        <v>28.103839061381</v>
+        <v>460.2836531264046</v>
       </c>
       <c r="BA4">
-        <v>4.32696691200587</v>
+        <v>7.403431678427125</v>
       </c>
       <c r="BB4">
-        <v>0.3333414382422626</v>
+        <v>64.75952151564633</v>
       </c>
       <c r="BC4">
-        <v>13.37986289081478</v>
+        <v>15.95316591663558</v>
       </c>
       <c r="BD4">
-        <v>0.3575487129661617</v>
+        <v>28.10452753557909</v>
       </c>
       <c r="BE4">
-        <v>2.891424773137083</v>
+        <v>337.7933327534882</v>
       </c>
       <c r="BF4">
-        <v>0.3333414382422626</v>
+        <v>100.6616327706528</v>
       </c>
       <c r="BG4">
-        <v>2.527761800329769</v>
+        <v>8.796773384462272</v>
       </c>
       <c r="BH4">
-        <v>0.3333414382422626</v>
+        <v>0.3654873557220611</v>
       </c>
       <c r="BI4">
-        <v>0.3363100815486774</v>
+        <v>201.7241429398061</v>
       </c>
       <c r="BJ4">
-        <v>62.24392305596363</v>
+        <v>0.381764756605962</v>
       </c>
       <c r="BK4">
-        <v>50.47099600208769</v>
+        <v>21.64729688923891</v>
       </c>
       <c r="BL4">
-        <v>2.333300281925538</v>
+        <v>584.2748375570756</v>
       </c>
       <c r="BM4">
-        <v>52.13957717727676</v>
+        <v>368.6805312013782</v>
       </c>
       <c r="BN4">
-        <v>4.32696691200587</v>
+        <v>322.6766134720336</v>
       </c>
       <c r="BO4">
-        <v>8.917069443783442</v>
+        <v>153.1846615501331</v>
       </c>
       <c r="BP4">
-        <v>0.3333414382422626</v>
+        <v>0.4001261692363138</v>
       </c>
       <c r="BQ4">
-        <v>0.3344011318613699</v>
+        <v>36.78734384022998</v>
       </c>
       <c r="BR4">
-        <v>5.479968905794083</v>
+        <v>9.838796453398201</v>
       </c>
       <c r="BS4">
-        <v>7.234730309232456</v>
+        <v>724.5187996699425</v>
       </c>
       <c r="BT4">
-        <v>22.6295697761914</v>
+        <v>0.3497203524003273</v>
       </c>
       <c r="BU4">
-        <v>28.78874230218683</v>
+        <v>53.26495480861104</v>
       </c>
       <c r="BV4">
-        <v>1.520794522692277</v>
+        <v>115.744229958639</v>
       </c>
       <c r="BW4">
-        <v>7.676006965119608</v>
+        <v>150.754125949201</v>
       </c>
       <c r="BX4">
-        <v>2.333300281925538</v>
+        <v>187.7064444630803</v>
       </c>
       <c r="BY4">
-        <v>1.902672151230531</v>
+        <v>623.6162486569364</v>
       </c>
       <c r="BZ4">
-        <v>26.38174574058662</v>
+        <v>854.2698202157626</v>
       </c>
       <c r="CA4">
-        <v>47.89807913108779</v>
+        <v>107.5106865616804</v>
       </c>
       <c r="CB4">
-        <v>21.2784588056818</v>
+        <v>432.76335511902</v>
       </c>
       <c r="CC4">
-        <v>22.03324434922999</v>
+        <v>0.3589131631295428</v>
       </c>
       <c r="CD4">
-        <v>8.3216507569689</v>
+        <v>147.7178970728293</v>
       </c>
       <c r="CE4">
-        <v>0.3412970281084839</v>
+        <v>0.3443059696446331</v>
       </c>
       <c r="CF4">
-        <v>15.29535472454752</v>
+        <v>6.432277211166367</v>
       </c>
       <c r="CG4">
-        <v>7.490207956862191</v>
+        <v>23.19069152491056</v>
       </c>
       <c r="CH4">
-        <v>147.7983501541914</v>
+        <v>180.6719741641064</v>
       </c>
       <c r="CI4">
-        <v>2.333300281925538</v>
+        <v>139.4849852160243</v>
       </c>
       <c r="CJ4">
-        <v>0.3388593277501727</v>
+        <v>0.3877748954357306</v>
       </c>
       <c r="CK4">
-        <v>21.93653777463927</v>
+        <v>205.2830817550171</v>
       </c>
       <c r="CL4">
-        <v>0.3539588687024796</v>
+        <v>92.96218005868221</v>
       </c>
       <c r="CM4">
-        <v>0.3333419124473241</v>
+        <v>44.87295261651358</v>
       </c>
       <c r="CN4">
-        <v>0.3333419124473241</v>
+        <v>0.4162044609902393</v>
       </c>
       <c r="CO4">
-        <v>0.3333419124473241</v>
+        <v>700.1140964571463</v>
       </c>
       <c r="CP4">
-        <v>16.49647540350265</v>
+        <v>52.10078523548573</v>
       </c>
       <c r="CQ4">
-        <v>3.052438134265323</v>
+        <v>276.2690163710693</v>
       </c>
       <c r="CR4">
-        <v>3.401576341859593</v>
+        <v>264.8970909400327</v>
       </c>
       <c r="CS4">
-        <v>134.5123630462284</v>
+        <v>118.3364108975085</v>
       </c>
       <c r="CT4">
-        <v>0.3333414382422626</v>
+        <v>94.64967670159594</v>
       </c>
       <c r="CU4">
-        <v>2.333300281925538</v>
+        <v>170.598177008126</v>
       </c>
       <c r="CV4">
-        <v>85.90326833804677</v>
+        <v>636.194203836632</v>
       </c>
       <c r="CW4">
-        <v>0.394014403075917</v>
+        <v>295.2766281630905</v>
       </c>
       <c r="CX4">
-        <v>0.3557732206795963</v>
+        <v>23.92054686528672</v>
       </c>
       <c r="CY4">
-        <v>0.3333419124473241</v>
+        <v>65.26230677745328</v>
       </c>
       <c r="CZ4">
-        <v>9.318797146323677</v>
+        <v>270.620004185846</v>
       </c>
       <c r="DA4">
-        <v>0.3333419124473241</v>
+        <v>366.7194630332999</v>
       </c>
       <c r="DB4">
-        <v>0.3333419124473241</v>
+        <v>1.125095419042402</v>
       </c>
       <c r="DC4">
-        <v>0.3612325595275062</v>
+        <v>0.3791716472632391</v>
       </c>
       <c r="DD4">
-        <v>0.3333419124473241</v>
+        <v>0.390816956353905</v>
       </c>
       <c r="DE4">
-        <v>0.3333419124473241</v>
+        <v>0.3553307513556995</v>
       </c>
       <c r="DF4">
-        <v>3.332185121470181</v>
+        <v>58.96300573070923</v>
       </c>
       <c r="DG4">
-        <v>8.271568169876938</v>
+        <v>0.4076595248073434</v>
       </c>
       <c r="DH4">
-        <v>0.3333419124473241</v>
+        <v>151.7500109706749</v>
       </c>
       <c r="DI4">
-        <v>0.3436899038121052</v>
+        <v>48.90549462483518</v>
       </c>
       <c r="DJ4">
-        <v>0.3333419124473241</v>
+        <v>115.7739550195862</v>
       </c>
       <c r="DK4">
-        <v>0.3333419124473241</v>
+        <v>109.9780964537111</v>
       </c>
       <c r="DL4">
-        <v>6.656213688717409</v>
+        <v>348.4667104546508</v>
       </c>
       <c r="DM4">
-        <v>0.3333419124473241</v>
+        <v>102.3448073212655</v>
       </c>
       <c r="DN4">
-        <v>0.3333419124473241</v>
+        <v>0.424685541042704</v>
       </c>
       <c r="DO4">
-        <v>0.3334175822529659</v>
+        <v>46.85950851844559</v>
       </c>
       <c r="DP4">
-        <v>0.3333414382422626</v>
+        <v>130.5440353154178</v>
       </c>
       <c r="DQ4">
-        <v>3.333301037069106</v>
+        <v>280.8045924137765</v>
       </c>
       <c r="DR4">
-        <v>15.34201610962369</v>
+        <v>46.52409185834777</v>
       </c>
       <c r="DS4">
-        <v>2.527761800329769</v>
+        <v>0.375208330101672</v>
       </c>
       <c r="DT4">
-        <v>22.73419036839469</v>
+        <v>17.70679873396423</v>
       </c>
       <c r="DU4">
-        <v>14.49714686613709</v>
+        <v>7.690285270420826</v>
       </c>
       <c r="DV4">
-        <v>0.3478608843522253</v>
+        <v>170.707107607434</v>
       </c>
       <c r="DW4">
-        <v>2.333300281925538</v>
+        <v>18.60487461987747</v>
       </c>
       <c r="DX4">
-        <v>0.3518388883884934</v>
+        <v>358.7880372231539</v>
       </c>
       <c r="DY4">
-        <v>0.3333419124473241</v>
+        <v>0.3561223061970469</v>
       </c>
       <c r="DZ4">
-        <v>0.3333419124473241</v>
+        <v>0.3865326423573829</v>
       </c>
       <c r="EA4">
-        <v>0.3333419124473241</v>
+        <v>0.369173468172042</v>
       </c>
       <c r="EB4">
-        <v>0.3333414382422626</v>
+        <v>0.3455808470221477</v>
       </c>
       <c r="EC4">
-        <v>2.354610553426705</v>
+        <v>350.2943960119533</v>
       </c>
       <c r="ED4">
-        <v>0.3333414382422626</v>
+        <v>168.8958932030083</v>
       </c>
       <c r="EE4">
-        <v>10.09930023842682</v>
+        <v>152.6449595793689</v>
       </c>
       <c r="EF4">
-        <v>0.3847950160181223</v>
+        <v>0.3514283729847383</v>
       </c>
       <c r="EG4">
-        <v>10.78181578247714</v>
+        <v>0.3988020472282998</v>
       </c>
       <c r="EH4">
-        <v>0.3333419124473241</v>
+        <v>0.3535923096921862</v>
       </c>
       <c r="EI4">
-        <v>0.3333419124473241</v>
+        <v>113.5715833143615</v>
       </c>
       <c r="EJ4">
-        <v>0.3333419124473241</v>
+        <v>0.3556487559743913</v>
       </c>
       <c r="EK4">
-        <v>0.3333419124473241</v>
+        <v>1.324253818531842</v>
       </c>
       <c r="EL4">
-        <v>4.329376814918549</v>
+        <v>0.3713093389156749</v>
       </c>
       <c r="EM4">
-        <v>2.333300281925538</v>
+        <v>29.49699912527556</v>
       </c>
       <c r="EN4">
-        <v>0.3333419124473241</v>
+        <v>0.3728769906614823</v>
       </c>
       <c r="EO4">
-        <v>0.367875434562316</v>
+        <v>0.3872995899744814</v>
       </c>
       <c r="EP4">
-        <v>0.3333419124473241</v>
+        <v>0.4002904009544971</v>
       </c>
       <c r="EQ4">
-        <v>0.3333419124473241</v>
+        <v>140.6746853931988</v>
       </c>
       <c r="ER4">
-        <v>0.3333419124473241</v>
+        <v>0.4120553484581809</v>
       </c>
       <c r="ES4">
-        <v>9.913175469076215</v>
+        <v>20.48403292087223</v>
       </c>
       <c r="ET4">
-        <v>0.3694789757941054</v>
+        <v>576.3395206596069</v>
       </c>
       <c r="EU4">
-        <v>2.459208561853073</v>
+        <v>78.59534002896588</v>
       </c>
       <c r="EV4">
-        <v>0.3333419124473241</v>
+        <v>85.9018535062655</v>
       </c>
       <c r="EW4">
-        <v>0.3333419124473241</v>
+        <v>18.11533762164146</v>
       </c>
       <c r="EX4">
-        <v>0.3333419124473241</v>
+        <v>218.8314712660391</v>
       </c>
       <c r="EY4">
-        <v>0.3333419124473241</v>
+        <v>118.8799113904306</v>
       </c>
       <c r="EZ4">
-        <v>3.228234447797198</v>
+        <v>896.3694196011419</v>
       </c>
       <c r="FA4">
-        <v>0.3333414382422626</v>
+        <v>43.76023950880467</v>
       </c>
       <c r="FB4">
-        <v>3.332185121470181</v>
+        <v>75.43575862177626</v>
       </c>
       <c r="FC4">
-        <v>8.321831954400587</v>
+        <v>703.3732285864749</v>
       </c>
       <c r="FD4">
-        <v>38.53543386343993</v>
+        <v>199.9191042795042</v>
       </c>
       <c r="FE4">
-        <v>0.3333419124473241</v>
+        <v>270.3319251177795</v>
       </c>
       <c r="FF4">
-        <v>2.333300281925538</v>
+        <v>57.38576170716671</v>
       </c>
       <c r="FG4">
-        <v>12.91041898326474</v>
+        <v>103.1244080199203</v>
       </c>
       <c r="FH4">
-        <v>0.3333419124473241</v>
+        <v>0.3778557710892398</v>
       </c>
       <c r="FI4">
-        <v>0.3333419124473241</v>
+        <v>0.353507836806029</v>
       </c>
       <c r="FJ4">
-        <v>0.3333419124473241</v>
+        <v>0.3609883724487167</v>
       </c>
       <c r="FK4">
-        <v>0.3333419124473241</v>
+        <v>131.0803342509255</v>
       </c>
       <c r="FL4">
-        <v>3.561835041462682</v>
+        <v>0.3916813333816465</v>
       </c>
       <c r="FM4">
-        <v>31.45279996462847</v>
+        <v>0.3889856489084981</v>
       </c>
       <c r="FN4">
-        <v>4.333301432554238</v>
+        <v>74.38624139060515</v>
       </c>
       <c r="FO4">
-        <v>0.3333419124473241</v>
+        <v>326.662027505921</v>
       </c>
       <c r="FP4">
-        <v>0.3333419124473241</v>
+        <v>161.6854728597916</v>
       </c>
       <c r="FQ4">
-        <v>0.3333419124473241</v>
+        <v>72.14638676617183</v>
       </c>
       <c r="FR4">
-        <v>0.3333419124473241</v>
+        <v>16.69185752244735</v>
       </c>
       <c r="FS4">
-        <v>0.3333419124473241</v>
+        <v>0.3910000849047618</v>
       </c>
       <c r="FT4">
-        <v>0.357336011942018</v>
+        <v>862.1288277796646</v>
       </c>
       <c r="FU4">
-        <v>0.3333412530935292</v>
+        <v>181.4874035992629</v>
       </c>
       <c r="FV4">
-        <v>0.3347716295532618</v>
+        <v>215.531176427338</v>
       </c>
       <c r="FW4">
-        <v>2.333300281925538</v>
+        <v>115.0515621309562</v>
       </c>
       <c r="FX4">
-        <v>0.3333419124473241</v>
+        <v>0.3977026698191289</v>
       </c>
       <c r="FY4">
-        <v>0.3333419124473241</v>
+        <v>159.5936188183562</v>
       </c>
       <c r="FZ4">
-        <v>3.28110500636968</v>
+        <v>0.4192319813334167</v>
       </c>
       <c r="GA4">
-        <v>0.3333419124473241</v>
+        <v>0.3576874435262237</v>
       </c>
       <c r="GB4">
-        <v>2.334112222969678</v>
+        <v>232.095186651313</v>
       </c>
       <c r="GC4">
-        <v>257.6232153818165</v>
+        <v>0.3537498907310359</v>
       </c>
       <c r="GD4">
-        <v>7.213246445905795</v>
+        <v>274.8067792949579</v>
       </c>
       <c r="GE4">
-        <v>0.3333419124473241</v>
+        <v>194.6408142917354</v>
       </c>
       <c r="GF4">
-        <v>0.3333419124473241</v>
+        <v>0.3473279544889066</v>
       </c>
       <c r="GG4">
-        <v>0.3333419124473241</v>
+        <v>0.4108915754262109</v>
       </c>
       <c r="GH4">
-        <v>0.3333419124473241</v>
+        <v>0.4014780207544358</v>
       </c>
       <c r="GI4">
-        <v>0.3333419124473241</v>
+        <v>108.8537249662786</v>
       </c>
       <c r="GJ4">
-        <v>0.3333419124473241</v>
+        <v>129.4311856284475</v>
       </c>
       <c r="GK4">
-        <v>2.334806076178958</v>
+        <v>93.7740834321922</v>
       </c>
       <c r="GL4">
-        <v>39.67408672715155</v>
+        <v>131.4315527501584</v>
       </c>
       <c r="GM4">
-        <v>0.3333419124473241</v>
+        <v>77.47331547322855</v>
       </c>
       <c r="GN4">
-        <v>0.3387263735625182</v>
+        <v>0.3754549425750516</v>
       </c>
       <c r="GO4">
-        <v>113.5470179621448</v>
+        <v>176.131461727852</v>
       </c>
       <c r="GP4">
-        <v>7.722223076619119</v>
+        <v>158.5215741588738</v>
       </c>
       <c r="GQ4">
-        <v>3.256397701084561</v>
+        <v>0.3527100932591146</v>
       </c>
       <c r="GR4">
-        <v>2.333300281925538</v>
+        <v>425.8964359826107</v>
       </c>
       <c r="GS4">
-        <v>2.333300281925538</v>
+        <v>334.0974872308491</v>
+      </c>
+      <c r="GT4">
+        <v>101.5198095969114</v>
+      </c>
+      <c r="GU4">
+        <v>10.36639729866166</v>
+      </c>
+      <c r="GV4">
+        <v>144.5165930912293</v>
+      </c>
+      <c r="GW4">
+        <v>0.3387647049165904</v>
+      </c>
+      <c r="GX4">
+        <v>95.83779141056118</v>
+      </c>
+      <c r="GY4">
+        <v>184.7520236382771</v>
+      </c>
+      <c r="GZ4">
+        <v>512.6397337980188</v>
+      </c>
+      <c r="HA4">
+        <v>0.341951105343262</v>
+      </c>
+      <c r="HB4">
+        <v>31.45347302257171</v>
+      </c>
+      <c r="HC4">
+        <v>5.901371179332286</v>
+      </c>
+      <c r="HD4">
+        <v>41.00450821762653</v>
+      </c>
+      <c r="HE4">
+        <v>150.7500370150967</v>
+      </c>
+      <c r="HF4">
+        <v>666.731876623285</v>
+      </c>
+      <c r="HG4">
+        <v>0.4128185235709341</v>
+      </c>
+      <c r="HH4">
+        <v>109.8445015358948</v>
+      </c>
+      <c r="HI4">
+        <v>186.3880919218506</v>
+      </c>
+      <c r="HJ4">
+        <v>113.2984855756978</v>
+      </c>
+      <c r="HK4">
+        <v>63.17944725298528</v>
+      </c>
+      <c r="HL4">
+        <v>0.3443635559182462</v>
+      </c>
+      <c r="HM4">
+        <v>408.4896454008165</v>
+      </c>
+      <c r="HN4">
+        <v>4.630127657849835</v>
+      </c>
+      <c r="HO4">
+        <v>132.2991486658161</v>
+      </c>
+      <c r="HP4">
+        <v>0.3443494580714106</v>
+      </c>
+      <c r="HQ4">
+        <v>0.3557854074410133</v>
+      </c>
+      <c r="HR4">
+        <v>559.5356596407086</v>
+      </c>
+      <c r="HS4">
+        <v>0.4186314736347322</v>
+      </c>
+      <c r="HT4">
+        <v>71.32799502742262</v>
+      </c>
+      <c r="HU4">
+        <v>161.2705814576962</v>
+      </c>
+      <c r="HV4">
+        <v>106.7353762683834</v>
+      </c>
+      <c r="HW4">
+        <v>464.9952964091634</v>
+      </c>
+      <c r="HX4">
+        <v>3.660981263892166</v>
+      </c>
+      <c r="HY4">
+        <v>24.45904248650125</v>
+      </c>
+      <c r="HZ4">
+        <v>284.5832908059069</v>
+      </c>
+      <c r="IA4">
+        <v>256.1333412392545</v>
+      </c>
+      <c r="IB4">
+        <v>0.3686590974712374</v>
+      </c>
+      <c r="IC4">
+        <v>383.4687506834023</v>
+      </c>
+      <c r="ID4">
+        <v>60.81193650720905</v>
+      </c>
+      <c r="IE4">
+        <v>3.208430837998192</v>
+      </c>
+      <c r="IF4">
+        <v>600.2215856555201</v>
+      </c>
+      <c r="IG4">
+        <v>1051.183953896887</v>
+      </c>
+      <c r="IH4">
+        <v>348.8193880928728</v>
+      </c>
+      <c r="II4">
+        <v>289.8014474338638</v>
+      </c>
+      <c r="IJ4">
+        <v>103.8251426690688</v>
+      </c>
+      <c r="IK4">
+        <v>58.11386706152945</v>
+      </c>
+      <c r="IL4">
+        <v>0.3652583040966114</v>
+      </c>
+      <c r="IM4">
+        <v>25.55649154377192</v>
+      </c>
+      <c r="IN4">
+        <v>161.3271380617829</v>
+      </c>
+      <c r="IO4">
+        <v>40.46075615677621</v>
+      </c>
+      <c r="IP4">
+        <v>230.423386554018</v>
+      </c>
+      <c r="IQ4">
+        <v>301.7139594252837</v>
+      </c>
+      <c r="IR4">
+        <v>13.52871182916015</v>
+      </c>
+      <c r="IS4">
+        <v>100.1175003541478</v>
+      </c>
+      <c r="IT4">
+        <v>28.68905800124992</v>
+      </c>
+      <c r="IU4">
+        <v>258.9808373568571</v>
+      </c>
+      <c r="IV4">
+        <v>192.3773756009006</v>
+      </c>
+      <c r="IW4">
+        <v>0.361069462974654</v>
+      </c>
+      <c r="IX4">
+        <v>146.5011222708253</v>
+      </c>
+      <c r="IY4">
+        <v>0.3747579736933767</v>
+      </c>
+      <c r="IZ4">
+        <v>0.3907802589031886</v>
+      </c>
+      <c r="JA4">
+        <v>86.03818114234639</v>
+      </c>
+      <c r="JB4">
+        <v>0.3582506072372286</v>
+      </c>
+      <c r="JC4">
+        <v>0.3806317580790957</v>
+      </c>
+      <c r="JD4">
+        <v>580.8838926952271</v>
+      </c>
+      <c r="JE4">
+        <v>487.4727681591236</v>
+      </c>
+      <c r="JF4">
+        <v>115.2019916770345</v>
+      </c>
+      <c r="JG4">
+        <v>33.08069821587534</v>
+      </c>
+      <c r="JH4">
+        <v>33.98283910219148</v>
+      </c>
+      <c r="JI4">
+        <v>144.2084526912879</v>
+      </c>
+      <c r="JJ4">
+        <v>61.41556534870058</v>
+      </c>
+      <c r="JK4">
+        <v>63.29641526269255</v>
+      </c>
+      <c r="JL4">
+        <v>101.2772793669518</v>
+      </c>
+      <c r="JM4">
+        <v>115.1215405605442</v>
+      </c>
+      <c r="JN4">
+        <v>0.3979877642357194</v>
+      </c>
+      <c r="JO4">
+        <v>14.59396221642803</v>
+      </c>
+      <c r="JP4">
+        <v>114.2604989517094</v>
+      </c>
+      <c r="JQ4">
+        <v>84.1837682211937</v>
+      </c>
+      <c r="JR4">
+        <v>0.3857416392231331</v>
+      </c>
+      <c r="JS4">
+        <v>100.2991412955944</v>
+      </c>
+      <c r="JT4">
+        <v>316.8655178731814</v>
+      </c>
+      <c r="JU4">
+        <v>723.595953348605</v>
+      </c>
+      <c r="JV4">
+        <v>71.80571436637068</v>
+      </c>
+      <c r="JW4">
+        <v>27.53669396607552</v>
+      </c>
+      <c r="JX4">
+        <v>0.3869912709615917</v>
+      </c>
+      <c r="JY4">
+        <v>2.58541061901918</v>
+      </c>
+      <c r="JZ4">
+        <v>57.0449433457751</v>
+      </c>
+      <c r="KA4">
+        <v>82.04336149509196</v>
+      </c>
+      <c r="KB4">
+        <v>86.68021265222777</v>
+      </c>
+      <c r="KC4">
+        <v>332.3046298517718</v>
+      </c>
+      <c r="KD4">
+        <v>108.5421536933429</v>
+      </c>
+      <c r="KE4">
+        <v>0.3816544056892505</v>
+      </c>
+      <c r="KF4">
+        <v>217.8087545854051</v>
+      </c>
+      <c r="KG4">
+        <v>206.7236600802594</v>
+      </c>
+      <c r="KH4">
+        <v>168.0975309080742</v>
+      </c>
+      <c r="KI4">
+        <v>324.5732295404423</v>
+      </c>
+      <c r="KJ4">
+        <v>27.36573438799716</v>
+      </c>
+      <c r="KK4">
+        <v>22.14359681061054</v>
+      </c>
+      <c r="KL4">
+        <v>0.3943576777569905</v>
+      </c>
+      <c r="KM4">
+        <v>112.1187389137849</v>
+      </c>
+      <c r="KN4">
+        <v>117.6950544560646</v>
+      </c>
+      <c r="KO4">
+        <v>25.61919754755756</v>
+      </c>
+      <c r="KP4">
+        <v>104.7481572057378</v>
+      </c>
+      <c r="KQ4">
+        <v>44.66759495040236</v>
+      </c>
+      <c r="KR4">
+        <v>112.1600671739687</v>
+      </c>
+      <c r="KS4">
+        <v>53.61470790233875</v>
+      </c>
+      <c r="KT4">
+        <v>63.0181218072824</v>
+      </c>
+      <c r="KU4">
+        <v>0.3834298398742345</v>
+      </c>
+      <c r="KV4">
+        <v>112.7116761971357</v>
+      </c>
+      <c r="KW4">
+        <v>246.6405039093353</v>
+      </c>
+      <c r="KX4">
+        <v>331.8122353937238</v>
+      </c>
+      <c r="KY4">
+        <v>74.09842223877565</v>
+      </c>
+      <c r="KZ4">
+        <v>29.82359713228291</v>
+      </c>
+      <c r="LA4">
+        <v>0.3516741216039823</v>
+      </c>
+      <c r="LB4">
+        <v>295.7906513335075</v>
+      </c>
+      <c r="LC4">
+        <v>348.2972446092605</v>
+      </c>
+      <c r="LD4">
+        <v>46.60532260656571</v>
+      </c>
+      <c r="LE4">
+        <v>0.3745247635499599</v>
+      </c>
+      <c r="LF4">
+        <v>0.3885254377935035</v>
+      </c>
+      <c r="LG4">
+        <v>8.6389780440894</v>
+      </c>
+      <c r="LH4">
+        <v>15.07253577619719</v>
+      </c>
+      <c r="LI4">
+        <v>0.3914040476988574</v>
+      </c>
+      <c r="LJ4">
+        <v>625.0338637207549</v>
+      </c>
+      <c r="LK4">
+        <v>0.3603126656075099</v>
+      </c>
+      <c r="LL4">
+        <v>80.76806125845761</v>
+      </c>
+      <c r="LM4">
+        <v>464.0099522731772</v>
+      </c>
+      <c r="LN4">
+        <v>339.5959665644628</v>
+      </c>
+      <c r="LO4">
+        <v>0.356777413887482</v>
+      </c>
+      <c r="LP4">
+        <v>210.1484521299786</v>
+      </c>
+      <c r="LQ4">
+        <v>0.3753188217828178</v>
+      </c>
+      <c r="LR4">
+        <v>62.33979822820637</v>
+      </c>
+      <c r="LS4">
+        <v>164.2223884036299</v>
+      </c>
+      <c r="LT4">
+        <v>11.05811561479617</v>
+      </c>
+      <c r="LU4">
+        <v>52.27333714216419</v>
+      </c>
+      <c r="LV4">
+        <v>60.6044097662216</v>
+      </c>
+      <c r="LW4">
+        <v>47.42446385295879</v>
+      </c>
+      <c r="LX4">
+        <v>15.03199513513702</v>
+      </c>
+      <c r="LY4">
+        <v>75.97640547775038</v>
+      </c>
+      <c r="LZ4">
+        <v>180.9217163785339</v>
+      </c>
+      <c r="MA4">
+        <v>74.67211082420279</v>
+      </c>
+      <c r="MB4">
+        <v>0.3455478847776181</v>
+      </c>
+      <c r="MC4">
+        <v>182.889593132899</v>
+      </c>
+      <c r="MD4">
+        <v>157.407193222995</v>
+      </c>
+      <c r="ME4">
+        <v>0.3503076538395116</v>
+      </c>
+      <c r="MF4">
+        <v>186.5227356765799</v>
+      </c>
+      <c r="MG4">
+        <v>24.38347164287138</v>
+      </c>
+      <c r="MH4">
+        <v>0.364816888181733</v>
+      </c>
+      <c r="MI4">
+        <v>27.2766133443767</v>
+      </c>
+      <c r="MJ4">
+        <v>121.77453126515</v>
+      </c>
+      <c r="MK4">
+        <v>0.3984035976254678</v>
+      </c>
+      <c r="ML4">
+        <v>82.34242187111326</v>
+      </c>
+      <c r="MM4">
+        <v>569.4725659066401</v>
+      </c>
+      <c r="MN4">
+        <v>40.41246798098243</v>
+      </c>
+      <c r="MO4">
+        <v>751.2619052305356</v>
+      </c>
+      <c r="MP4">
+        <v>66.3308071100715</v>
+      </c>
+      <c r="MQ4">
+        <v>698.8682986718649</v>
+      </c>
+      <c r="MR4">
+        <v>121.3580185154607</v>
+      </c>
+      <c r="MS4">
+        <v>329.7297434163077</v>
+      </c>
+      <c r="MT4">
+        <v>181.9349928942754</v>
+      </c>
+      <c r="MU4">
+        <v>93.8380217120599</v>
+      </c>
+      <c r="MV4">
+        <v>0.3766174084161764</v>
+      </c>
+      <c r="MW4">
+        <v>0.3912831566419021</v>
+      </c>
+      <c r="MX4">
+        <v>295.0843885322845</v>
+      </c>
+      <c r="MY4">
+        <v>211.7485044151929</v>
+      </c>
+      <c r="MZ4">
+        <v>98.94747194533026</v>
+      </c>
+      <c r="NA4">
+        <v>23.15919007856581</v>
+      </c>
+      <c r="NB4">
+        <v>113.876104978946</v>
+      </c>
+      <c r="NC4">
+        <v>117.8660888653386</v>
+      </c>
+      <c r="ND4">
+        <v>64.60581092484603</v>
+      </c>
+      <c r="NE4">
+        <v>383.960242592611</v>
+      </c>
+      <c r="NF4">
+        <v>0.3810593880692324</v>
+      </c>
+      <c r="NG4">
+        <v>358.3509614716643</v>
+      </c>
+      <c r="NH4">
+        <v>38.42844891730417</v>
+      </c>
+      <c r="NI4">
+        <v>0.3507142775489365</v>
+      </c>
+      <c r="NJ4">
+        <v>28.93986230320865</v>
+      </c>
+      <c r="NK4">
+        <v>155.6745205498247</v>
+      </c>
+      <c r="NL4">
+        <v>0.389004587254584</v>
+      </c>
+      <c r="NM4">
+        <v>0.3666953926873696</v>
+      </c>
+      <c r="NN4">
+        <v>82.96901135833306</v>
+      </c>
+      <c r="NO4">
+        <v>315.9930992373606</v>
+      </c>
+      <c r="NP4">
+        <v>15.21185070283551</v>
+      </c>
+      <c r="NQ4">
+        <v>0.3594003251648738</v>
+      </c>
+      <c r="NR4">
+        <v>59.63412276498948</v>
+      </c>
+      <c r="NS4">
+        <v>784.520229861749</v>
+      </c>
+      <c r="NT4">
+        <v>0.3526267539693156</v>
+      </c>
+      <c r="NU4">
+        <v>21.64981725034679</v>
+      </c>
+      <c r="NV4">
+        <v>883.6604647969765</v>
+      </c>
+      <c r="NW4">
+        <v>49.72763227770839</v>
+      </c>
+      <c r="NX4">
+        <v>214.2621077734749</v>
+      </c>
+      <c r="NY4">
+        <v>91.73319512266443</v>
+      </c>
+      <c r="NZ4">
+        <v>74.63709700873287</v>
+      </c>
+      <c r="OA4">
+        <v>8.980716802464531</v>
+      </c>
+      <c r="OB4">
+        <v>4.875298728078151</v>
+      </c>
+      <c r="OC4">
+        <v>564.602242703563</v>
+      </c>
+      <c r="OD4">
+        <v>523.0290404291243</v>
+      </c>
+      <c r="OE4">
+        <v>106.2039895833473</v>
+      </c>
+      <c r="OF4">
+        <v>0.4031438686277021</v>
+      </c>
+      <c r="OG4">
+        <v>58.75578719567685</v>
+      </c>
+      <c r="OH4">
+        <v>77.79324456885703</v>
+      </c>
+      <c r="OI4">
+        <v>0.3480735927172544</v>
+      </c>
+      <c r="OJ4">
+        <v>153.3555666093864</v>
+      </c>
+      <c r="OK4">
+        <v>142.2578567621008</v>
       </c>
     </row>
   </sheetData>
